--- a/ac6demo_analysis.xlsx
+++ b/ac6demo_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
   <si>
     <t>ac6demo</t>
   </si>
@@ -23,84 +23,96 @@
     <t>at_task.o</t>
   </si>
   <si>
-    <t>segger_rtt.o</t>
-  </si>
-  <si>
     <t>startup_stm32f10x_md.o</t>
   </si>
   <si>
+    <t>oled.o</t>
+  </si>
+  <si>
+    <t>uart.o</t>
+  </si>
+  <si>
+    <t>user_flash.o</t>
+  </si>
+  <si>
+    <t>components.o</t>
+  </si>
+  <si>
     <t>at_function.o</t>
   </si>
   <si>
-    <t>uart.o</t>
-  </si>
-  <si>
-    <t>oled.o</t>
-  </si>
-  <si>
-    <t>user_flash.o</t>
-  </si>
-  <si>
-    <t>components.o</t>
-  </si>
-  <si>
     <t>gpio.o</t>
   </si>
   <si>
     <t>scheduler.o</t>
   </si>
   <si>
+    <t>sfud_port.o</t>
+  </si>
+  <si>
+    <t>idle.o</t>
+  </si>
+  <si>
+    <t>ef_env.o</t>
+  </si>
+  <si>
+    <t>ef_port.o</t>
+  </si>
+  <si>
+    <t>sfud.o</t>
+  </si>
+  <si>
+    <t>object.o</t>
+  </si>
+  <si>
+    <t>cjson.o</t>
+  </si>
+  <si>
+    <t>mc_w.l</t>
+  </si>
+  <si>
+    <t>cpuport.o</t>
+  </si>
+  <si>
+    <t>timer.o</t>
+  </si>
+  <si>
+    <t>mvars.o</t>
+  </si>
+  <si>
+    <t>stdout.o</t>
+  </si>
+  <si>
+    <t>errno.o</t>
+  </si>
+  <si>
+    <t>system_stm32f10x.o</t>
+  </si>
+  <si>
+    <t>mb.o</t>
+  </si>
+  <si>
+    <t>clock.o</t>
+  </si>
+  <si>
+    <t>irq.o</t>
+  </si>
+  <si>
+    <t>easyflash.o</t>
+  </si>
+  <si>
+    <t>sfud_sfdp.o</t>
+  </si>
+  <si>
     <t>kservice.o</t>
   </si>
   <si>
-    <t>idle.o</t>
-  </si>
-  <si>
-    <t>ef_env.o</t>
-  </si>
-  <si>
-    <t>ef_port.o</t>
-  </si>
-  <si>
-    <t>object.o</t>
-  </si>
-  <si>
-    <t>cjson.o</t>
-  </si>
-  <si>
-    <t>cpuport.o</t>
-  </si>
-  <si>
-    <t>mc_w.l</t>
-  </si>
-  <si>
-    <t>timer.o</t>
-  </si>
-  <si>
-    <t>mvars.o</t>
-  </si>
-  <si>
-    <t>errno.o</t>
-  </si>
-  <si>
-    <t>system_stm32f10x.o</t>
-  </si>
-  <si>
-    <t>mb.o</t>
-  </si>
-  <si>
-    <t>clock.o</t>
-  </si>
-  <si>
-    <t>irq.o</t>
-  </si>
-  <si>
-    <t>easyflash.o</t>
-  </si>
-  <si>
     <t>printfa.o</t>
   </si>
   <si>
+    <t>oled_data.o</t>
+  </si>
+  <si>
     <t>hmac_sha1.o</t>
   </si>
   <si>
@@ -122,24 +134,21 @@
     <t>thread.o</t>
   </si>
   <si>
+    <t>scanf_fp.o</t>
+  </si>
+  <si>
     <t>ipc.o</t>
   </si>
   <si>
-    <t>scanf_fp.o</t>
+    <t>stm32f10x_rcc.o</t>
+  </si>
+  <si>
+    <t>stm32f10x_dma.o</t>
   </si>
   <si>
     <t>board.o</t>
   </si>
   <si>
-    <t>stm32f10x_rcc.o</t>
-  </si>
-  <si>
-    <t>stm32f10x_dma.o</t>
-  </si>
-  <si>
-    <t>stm32f10x_flash.o</t>
-  </si>
-  <si>
     <t>stm32f10x_gpio.o</t>
   </si>
   <si>
@@ -152,7 +161,13 @@
     <t>dadd.o</t>
   </si>
   <si>
+    <t>myspi.o</t>
+  </si>
+  <si>
     <t>context_rvds.o</t>
+  </si>
+  <si>
+    <t>stm32f10x_spi.o</t>
   </si>
   <si>
     <t>dmul.o</t>
@@ -419,50 +434,50 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$97</c:f>
+              <c:f>ram_percent!$A$3:$A$102</c:f>
               <c:strCache>
-                <c:ptCount val="95"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>at_task.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>segger_rtt.o</c:v>
+                  <c:v>startup_stm32f10x_md.o</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>startup_stm32f10x_md.o</c:v>
+                  <c:v>oled.o</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>uart.o</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>user_flash.o</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>components.o</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>at_function.o</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>uart.o</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>oled.o</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>user_flash.o</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>components.o</c:v>
+                  <c:v>gpio.o</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>gpio.o</c:v>
+                  <c:v>scheduler.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>scheduler.o</c:v>
+                  <c:v>sfud_port.o</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>kservice.o</c:v>
+                  <c:v>idle.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>idle.o</c:v>
+                  <c:v>ef_env.o</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>ef_env.o</c:v>
+                  <c:v>ef_port.o</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>ef_port.o</c:v>
+                  <c:v>sfud.o</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>object.o</c:v>
@@ -471,10 +486,10 @@
                   <c:v>cjson.o</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>mc_w.l</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>cpuport.o</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>mc_w.l</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>timer.o</c:v>
@@ -483,24 +498,27 @@
                   <c:v>mvars.o</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>stdout.o</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>errno.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>system_stm32f10x.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>mb.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>clock.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>irq.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>easyflash.o</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="99">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -508,89 +526,92 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$97</c:f>
+              <c:f>ram_percent!$B$3:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>21.29908561706543</c:v>
+                  <c:v>27.74953269958496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.14102172851563</c:v>
+                  <c:v>19.76961135864258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.17411708831787</c:v>
+                  <c:v>9.472939491271973</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.498147487640381</c:v>
+                  <c:v>9.215521812438965</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.073351383209229</c:v>
+                  <c:v>8.198725700378418</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.954803466796875</c:v>
+                  <c:v>7.413604259490967</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.292912006378174</c:v>
+                  <c:v>5.946328639984131</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.690293788909912</c:v>
+                  <c:v>2.548426628112793</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.956038475036621</c:v>
+                  <c:v>1.769740700721741</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.358360052108765</c:v>
+                  <c:v>1.724692702293396</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.264509797096252</c:v>
+                  <c:v>1.647467613220215</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.264509797096252</c:v>
+                  <c:v>1.647467613220215</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.264509797096252</c:v>
+                  <c:v>0.8237338066101074</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.7903186082839966</c:v>
+                  <c:v>0.746508777141571</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5532230138778687</c:v>
+                  <c:v>0.720767080783844</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.09878982603549957</c:v>
+                  <c:v>0.1287084072828293</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.07903186231851578</c:v>
+                  <c:v>0.1029667258262634</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.05927389487624168</c:v>
+                  <c:v>0.1029667258262634</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.05927389487624168</c:v>
+                  <c:v>0.07722504436969757</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.03951593115925789</c:v>
+                  <c:v>0.05148336291313171</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.01975796557962894</c:v>
+                  <c:v>0.02574168145656586</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.01975796557962894</c:v>
+                  <c:v>0.02574168145656586</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.01975796557962894</c:v>
+                  <c:v>0.02574168145656586</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.01975796557962894</c:v>
+                  <c:v>0.02574168145656586</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.004939491394907236</c:v>
+                  <c:v>0.02574168145656586</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.004939491394907236</c:v>
-                </c:pt>
-                <c:pt idx="94">
+                  <c:v>0.006435420364141464</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.006435420364141464</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -658,86 +679,86 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$97</c:f>
+              <c:f>flash_percent!$A$3:$A$102</c:f>
               <c:strCache>
-                <c:ptCount val="95"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>ef_env.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>sfud.o</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>mc_w.l</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>sfud_sfdp.o</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cjson.o</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>at_function.o</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>cjson.o</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>kservice.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>printfa.o</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>uart.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>oled_data.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>oled.o</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>hmac_sha1.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>mf_w.l</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>base64.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>onenet.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>timer.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>stm32f10x_usart.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>ef_utils.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>thread.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
+                  <c:v>scanf_fp.o</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>sfud_port.o</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>scheduler.o</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>ipc.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>scanf_fp.o</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>segger_rtt.o</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>oled.o</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>cpuport.o</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>scheduler.o</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
+                  <c:v>stm32f10x_rcc.o</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>stm32f10x_dma.o</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>board.o</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>stm32f10x_rcc.o</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>stm32f10x_dma.o</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>ef_port.o</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>stm32f10x_flash.o</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>stm32f10x_gpio.o</c:v>
@@ -758,192 +779,207 @@
                   <c:v>system_stm32f10x.o</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>ef_port.o</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>mallocr.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>dadd.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>at_task.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>easyflash.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
+                  <c:v>myspi.o</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>components.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>startup_stm32f10x_md.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>context_rvds.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
+                  <c:v>stm32f10x_spi.o</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>dmul.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="43">
                   <c:v>ddiv.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="44">
+                  <c:v>cpuport.o</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>misc.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="46">
                   <c:v>depilogue.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="47">
                   <c:v>clock.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>strtod.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>_strtoul.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>tim.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>ctype_o.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>strtol.o</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>stm32f10x_tim.o</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>fepilogue.o</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>uldiv.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>idle.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>__dczerorl2.o</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>irq.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>_sgetc.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>dfixi.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>d2f.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>dcmplt.o</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>dcmpgt.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>dfixul.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>cdrcmple.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>init.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>uidiv.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>strstr.o</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>memseta.o</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>memcpya.o</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>llsshr.o</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>llushr.o</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>m_ws.l</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>strncmp.o</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>llshl.o</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>handlers.o</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>strtod.o</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>strcmp.o</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>_chval.o</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>memcmp.o</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>atoi.o</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>dfltul.o</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>strncpy.o</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>strcat.o</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>strrchr.o</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>strchr.o</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="87">
                   <c:v>main.o</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="88">
                   <c:v>isspace_o.o</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="89">
                   <c:v>stm32f10x_it.o</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="90">
                   <c:v>porttimer.o</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="91">
                   <c:v>strlen.o</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="92">
                   <c:v>tolower.o</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="93">
                   <c:v>errno.o</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="94">
                   <c:v>mvars.o</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="95">
                   <c:v>entry9a.o</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="96">
                   <c:v>entry2.o</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="97">
+                  <c:v>stdout.o</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>entry5.o</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="99">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -951,293 +987,308 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$97</c:f>
+              <c:f>flash_percent!$B$3:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>13.94024562835693</c:v>
+                  <c:v>11.0778226852417</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.087674140930176</c:v>
+                  <c:v>10.72232341766357</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.945263862609863</c:v>
+                  <c:v>7.372313976287842</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.890100955963135</c:v>
+                  <c:v>6.453462600708008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.815257072448731</c:v>
+                  <c:v>6.355987071990967</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.27424955368042</c:v>
+                  <c:v>6.001920700073242</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.864974975585938</c:v>
+                  <c:v>4.233024120330811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.971688985824585</c:v>
+                  <c:v>3.489055395126343</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.53750205039978</c:v>
+                  <c:v>3.139289855957031</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.334644079208374</c:v>
+                  <c:v>2.995943307876587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.16915488243103</c:v>
+                  <c:v>2.93573784828186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.039254665374756</c:v>
+                  <c:v>2.393887758255005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.017901420593262</c:v>
+                  <c:v>2.044121980667114</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.953840970993042</c:v>
+                  <c:v>1.880707025527954</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.86486828327179</c:v>
+                  <c:v>1.747394680976868</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.811484575271606</c:v>
+                  <c:v>1.642751693725586</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.562361001968384</c:v>
+                  <c:v>1.625550150871277</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.519654035568237</c:v>
+                  <c:v>1.573945283889771</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.457373142242432</c:v>
+                  <c:v>1.502272009849548</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.352385401725769</c:v>
+                  <c:v>1.258582830429077</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.291883945465088</c:v>
+                  <c:v>1.214145421981812</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.256294846534729</c:v>
+                  <c:v>1.040696144104004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.192234516143799</c:v>
+                  <c:v>0.9976921081542969</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.117497324943543</c:v>
+                  <c:v>0.9604220390319824</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.023186326026917</c:v>
+                  <c:v>0.9002164602279663</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9466697573661804</c:v>
+                  <c:v>0.8686801791191101</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8648148775100708</c:v>
+                  <c:v>0.7540029287338257</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8256668448448181</c:v>
+                  <c:v>0.6651280522346497</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.8221079707145691</c:v>
+                  <c:v>0.6622611284255981</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.8007544875144959</c:v>
+                  <c:v>0.6450595855712891</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.793636679649353</c:v>
+                  <c:v>0.6393256783485413</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.7188996076583862</c:v>
+                  <c:v>0.5791201591491699</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6406036019325256</c:v>
+                  <c:v>0.5447169542312622</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5943377614021301</c:v>
+                  <c:v>0.5160476565361023</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5658665299415588</c:v>
+                  <c:v>0.4787775278091431</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5640870332717896</c:v>
+                  <c:v>0.4644428789615631</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5018061399459839</c:v>
+                  <c:v>0.4544086158275604</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4840115904808044</c:v>
+                  <c:v>0.4443743526935577</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4341868758201599</c:v>
+                  <c:v>0.4042373299598694</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4057156145572662</c:v>
+                  <c:v>0.3899026811122894</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3950388729572296</c:v>
+                  <c:v>0.3497656285762787</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3452141582965851</c:v>
+                  <c:v>0.3354309797286987</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3309785127639771</c:v>
+                  <c:v>0.3268301784992218</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3025072515010834</c:v>
+                  <c:v>0.3182293772697449</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.298948347568512</c:v>
+                  <c:v>0.2838262021541596</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2811537981033325</c:v>
+                  <c:v>0.2780923545360565</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2633592486381531</c:v>
+                  <c:v>0.2666246294975281</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2509030699729919</c:v>
+                  <c:v>0.24368916451931</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1992988884449005</c:v>
+                  <c:v>0.2408222407102585</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1992988884449005</c:v>
+                  <c:v>0.2264875769615173</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1957399845123291</c:v>
+                  <c:v>0.2121529281139374</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.1743865311145783</c:v>
+                  <c:v>0.2021186649799347</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1637098044157028</c:v>
+                  <c:v>0.1605481505393982</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1530330777168274</c:v>
+                  <c:v>0.1605481505393982</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.1210028976202011</c:v>
+                  <c:v>0.1576812267303467</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1138850823044777</c:v>
+                  <c:v>0.140479639172554</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1103261709213257</c:v>
+                  <c:v>0.1318788379430771</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.09964944422245026</c:v>
+                  <c:v>0.1232780516147614</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.09609054028987885</c:v>
+                  <c:v>0.09747567027807236</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.09609054028987885</c:v>
+                  <c:v>0.09174180775880814</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.08541381359100342</c:v>
+                  <c:v>0.08887487649917603</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.08541381359100342</c:v>
+                  <c:v>0.0802740752696991</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.08541381359100342</c:v>
+                  <c:v>0.07740714401006699</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0782959908246994</c:v>
+                  <c:v>0.07740714401006699</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.06406036019325256</c:v>
+                  <c:v>0.06880635023117065</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.06406036019325256</c:v>
+                  <c:v>0.06880635023117065</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.06406036019325256</c:v>
+                  <c:v>0.06880635023117065</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.06406036019325256</c:v>
+                  <c:v>0.06307248771190643</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.05694254115223885</c:v>
+                  <c:v>0.05160476639866829</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.05338363349437714</c:v>
+                  <c:v>0.05160476639866829</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.05338363349437714</c:v>
+                  <c:v>0.05160476639866829</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.05338363349437714</c:v>
+                  <c:v>0.05160476639866829</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.05338363349437714</c:v>
+                  <c:v>0.04587090387940407</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.05338363349437714</c:v>
+                  <c:v>0.04300396889448166</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.04982472211122513</c:v>
+                  <c:v>0.04300396889448166</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.04982472211122513</c:v>
+                  <c:v>0.04300396889448166</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.04626581445336342</c:v>
+                  <c:v>0.04300396889448166</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.04626581445336342</c:v>
+                  <c:v>0.04300396889448166</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.04270690679550171</c:v>
+                  <c:v>0.04013703763484955</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.04270690679550171</c:v>
+                  <c:v>0.04013703763484955</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.04270690679550171</c:v>
+                  <c:v>0.03727010637521744</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.0391479954123497</c:v>
+                  <c:v>0.03727010637521744</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.03558908775448799</c:v>
+                  <c:v>0.03440317511558533</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.03558908775448799</c:v>
+                  <c:v>0.03440317511558533</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.03203018009662628</c:v>
+                  <c:v>0.03440317511558533</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.03203018009662628</c:v>
+                  <c:v>0.03153624385595322</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.02847127057611942</c:v>
+                  <c:v>0.02866931445896626</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.02491236105561256</c:v>
+                  <c:v>0.02866931445896626</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.02135345339775085</c:v>
+                  <c:v>0.02580238319933415</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.02135345339775085</c:v>
+                  <c:v>0.02580238319933415</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.01423563528805971</c:v>
+                  <c:v>0.02293545193970203</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.01423563528805971</c:v>
+                  <c:v>0.02006851881742477</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.01423563528805971</c:v>
+                  <c:v>0.01720158755779266</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.007117817644029856</c:v>
+                  <c:v>0.01720158755779266</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>0.01146772596985102</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.01146772596985102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.01146772596985102</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.005733862984925509</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.005733862984925509</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1342,8 +1393,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H97" totalsRowCount="1">
-  <autoFilter ref="A2:H96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H102" totalsRowCount="1">
+  <autoFilter ref="A2:H101"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1359,8 +1410,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H97" totalsRowCount="1">
-  <autoFilter ref="A2:H96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H102" totalsRowCount="1">
+  <autoFilter ref="A2:H101"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1660,7 +1711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1676,28 +1727,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1705,16 +1756,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>21.29908561706543</v>
+        <v>27.74953269958496</v>
       </c>
       <c r="C3" s="1">
         <v>4312</v>
       </c>
       <c r="D3" s="1">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E3" s="1">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F3" s="1">
         <v>24</v>
@@ -1731,25 +1782,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>21.14102172851563</v>
+        <v>19.76961135864258</v>
       </c>
       <c r="C4" s="1">
-        <v>4280</v>
+        <v>3072</v>
       </c>
       <c r="D4" s="1">
-        <v>854</v>
+        <v>272</v>
       </c>
       <c r="E4" s="1">
-        <v>828</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>4280</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1757,25 +1808,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>15.17411708831787</v>
+        <v>9.472939491271973</v>
       </c>
       <c r="C5" s="1">
-        <v>3072</v>
+        <v>1472</v>
       </c>
       <c r="D5" s="1">
-        <v>272</v>
+        <v>2048</v>
       </c>
       <c r="E5" s="1">
-        <v>36</v>
+        <v>1948</v>
       </c>
       <c r="F5" s="1">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>3072</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1783,25 +1834,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>7.498147487640381</v>
+        <v>9.215521812438965</v>
       </c>
       <c r="C6" s="1">
-        <v>1518</v>
+        <v>1432</v>
       </c>
       <c r="D6" s="1">
-        <v>4465</v>
+        <v>2190</v>
       </c>
       <c r="E6" s="1">
-        <v>3150</v>
+        <v>1590</v>
       </c>
       <c r="F6" s="1">
-        <v>587</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>728</v>
+        <v>600</v>
       </c>
       <c r="H6" s="1">
-        <v>790</v>
+        <v>832</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1809,25 +1860,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>7.073351383209229</v>
+        <v>8.198725700378418</v>
       </c>
       <c r="C7" s="1">
-        <v>1432</v>
+        <v>1274</v>
       </c>
       <c r="D7" s="1">
-        <v>2172</v>
+        <v>446</v>
       </c>
       <c r="E7" s="1">
-        <v>1572</v>
+        <v>384</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G7" s="1">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>832</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1835,25 +1886,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>6.954803466796875</v>
+        <v>7.413604259490967</v>
       </c>
       <c r="C8" s="1">
-        <v>1408</v>
+        <v>1152</v>
       </c>
       <c r="D8" s="1">
-        <v>819</v>
+        <v>282</v>
       </c>
       <c r="E8" s="1">
-        <v>814</v>
+        <v>266</v>
       </c>
       <c r="F8" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>1408</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1861,25 +1912,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>6.292912006378174</v>
+        <v>5.946328639984131</v>
       </c>
       <c r="C9" s="1">
-        <v>1274</v>
+        <v>924</v>
       </c>
       <c r="D9" s="1">
-        <v>446</v>
+        <v>4187</v>
       </c>
       <c r="E9" s="1">
-        <v>384</v>
+        <v>3146</v>
       </c>
       <c r="F9" s="1">
-        <v>60</v>
+        <v>565</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>476</v>
       </c>
       <c r="H9" s="1">
-        <v>1272</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1887,25 +1938,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>5.690293788909912</v>
+        <v>2.548426628112793</v>
       </c>
       <c r="C10" s="1">
-        <v>1152</v>
+        <v>396</v>
       </c>
       <c r="D10" s="1">
-        <v>282</v>
+        <v>450</v>
       </c>
       <c r="E10" s="1">
-        <v>266</v>
+        <v>442</v>
       </c>
       <c r="F10" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>1152</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1913,25 +1964,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1.956038475036621</v>
+        <v>1.769740700721741</v>
       </c>
       <c r="C11" s="1">
-        <v>396</v>
+        <v>275</v>
       </c>
       <c r="D11" s="1">
-        <v>450</v>
+        <v>726</v>
       </c>
       <c r="E11" s="1">
-        <v>442</v>
+        <v>726</v>
       </c>
       <c r="F11" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>396</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1939,25 +1990,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>1.358360052108765</v>
+        <v>1.724692702293396</v>
       </c>
       <c r="C12" s="1">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D12" s="1">
-        <v>726</v>
+        <v>847</v>
       </c>
       <c r="E12" s="1">
-        <v>726</v>
+        <v>750</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H12" s="1">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1965,19 +2016,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>1.264509797096252</v>
+        <v>1.647467613220215</v>
       </c>
       <c r="C13" s="1">
         <v>256</v>
       </c>
       <c r="D13" s="1">
-        <v>3268</v>
+        <v>92</v>
       </c>
       <c r="E13" s="1">
-        <v>2842</v>
+        <v>86</v>
       </c>
       <c r="F13" s="1">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1991,19 +2042,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>1.264509797096252</v>
+        <v>1.647467613220215</v>
       </c>
       <c r="C14" s="1">
         <v>256</v>
       </c>
       <c r="D14" s="1">
-        <v>92</v>
+        <v>7728</v>
       </c>
       <c r="E14" s="1">
-        <v>86</v>
+        <v>7232</v>
       </c>
       <c r="F14" s="1">
-        <v>6</v>
+        <v>496</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -2017,25 +2068,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>1.264509797096252</v>
+        <v>0.8237338066101074</v>
       </c>
       <c r="C15" s="1">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="D15" s="1">
-        <v>7834</v>
+        <v>380</v>
       </c>
       <c r="E15" s="1">
-        <v>7338</v>
+        <v>372</v>
       </c>
       <c r="F15" s="1">
-        <v>496</v>
+        <v>8</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>256</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2043,25 +2094,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.7903186082839966</v>
+        <v>0.746508777141571</v>
       </c>
       <c r="C16" s="1">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="D16" s="1">
-        <v>575</v>
+        <v>7480</v>
       </c>
       <c r="E16" s="1">
-        <v>558</v>
+        <v>5492</v>
       </c>
       <c r="F16" s="1">
-        <v>17</v>
+        <v>1872</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="H16" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2069,7 +2120,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.5532230138778687</v>
+        <v>0.720767080783844</v>
       </c>
       <c r="C17" s="1">
         <v>112</v>
@@ -2095,7 +2146,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.09878982603549957</v>
+        <v>0.1287084072828293</v>
       </c>
       <c r="C18" s="1">
         <v>20</v>
@@ -2121,25 +2172,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.07903186231851578</v>
+        <v>0.1029667258262634</v>
       </c>
       <c r="C19" s="1">
         <v>16</v>
       </c>
       <c r="D19" s="1">
-        <v>760</v>
+        <v>5143</v>
       </c>
       <c r="E19" s="1">
-        <v>484</v>
+        <v>4994</v>
       </c>
       <c r="F19" s="1">
-        <v>276</v>
+        <v>133</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H19" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2147,25 +2198,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.05927389487624168</v>
+        <v>0.1029667258262634</v>
       </c>
       <c r="C20" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1">
-        <v>5107</v>
+        <v>198</v>
       </c>
       <c r="E20" s="1">
-        <v>4962</v>
+        <v>198</v>
       </c>
       <c r="F20" s="1">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2173,7 +2224,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.05927389487624168</v>
+        <v>0.07722504436969757</v>
       </c>
       <c r="C21" s="1">
         <v>12</v>
@@ -2199,7 +2250,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.03951593115925789</v>
+        <v>0.05148336291313171</v>
       </c>
       <c r="C22" s="1">
         <v>8</v>
@@ -2225,16 +2276,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0.01975796557962894</v>
+        <v>0.02574168145656586</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
       </c>
       <c r="D23" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2251,16 +2302,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>0.01975796557962894</v>
+        <v>0.02574168145656586</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
       </c>
       <c r="D24" s="1">
-        <v>404</v>
+        <v>12</v>
       </c>
       <c r="E24" s="1">
-        <v>400</v>
+        <v>8</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2277,25 +2328,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>0.01975796557962894</v>
+        <v>0.02574168145656586</v>
       </c>
       <c r="C25" s="1">
         <v>4</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H25" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2303,16 +2354,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>0.01975796557962894</v>
+        <v>0.02574168145656586</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
       </c>
       <c r="D26" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2329,16 +2380,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>0.004939491394907236</v>
+        <v>0.02574168145656586</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="E27" s="1">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2347,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2355,19 +2406,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>0.004939491394907236</v>
+        <v>0.006435420364141464</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>317</v>
+        <v>68</v>
       </c>
       <c r="E28" s="1">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="F28" s="1">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -2376,35 +2427,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97">
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.006435420364141464</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>317</v>
+      </c>
+      <c r="E29" s="1">
+        <v>164</v>
+      </c>
+      <c r="F29" s="1">
+        <v>153</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C97">
+      <c r="C102">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D97">
+      <c r="D102">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E97">
+      <c r="E102">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F97">
+      <c r="F102">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G97">
+      <c r="G102">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H97">
+      <c r="H102">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -2420,7 +2497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2436,45 +2513,45 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2">
-        <v>13.94024562835693</v>
+        <v>11.0778226852417</v>
       </c>
       <c r="C3" s="1">
-        <v>7834</v>
+        <v>7728</v>
       </c>
       <c r="D3" s="1">
         <v>256</v>
       </c>
       <c r="E3" s="1">
-        <v>7338</v>
+        <v>7232</v>
       </c>
       <c r="F3" s="1">
         <v>496</v>
@@ -2488,25 +2565,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>9.087674140930176</v>
+        <v>10.72232341766357</v>
       </c>
       <c r="C4" s="1">
-        <v>5107</v>
+        <v>7480</v>
       </c>
       <c r="D4" s="1">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1">
-        <v>4962</v>
+        <v>5492</v>
       </c>
       <c r="F4" s="1">
-        <v>133</v>
+        <v>1872</v>
       </c>
       <c r="G4" s="1">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -2514,149 +2591,149 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>7.945263862609863</v>
+        <v>7.372313976287842</v>
       </c>
       <c r="C5" s="1">
-        <v>4465</v>
+        <v>5143</v>
       </c>
       <c r="D5" s="1">
-        <v>1518</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1">
-        <v>3150</v>
+        <v>4994</v>
       </c>
       <c r="F5" s="1">
-        <v>587</v>
+        <v>133</v>
       </c>
       <c r="G5" s="1">
-        <v>728</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1">
-        <v>790</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2">
-        <v>7.890100955963135</v>
+        <v>6.453462600708008</v>
       </c>
       <c r="C6" s="1">
-        <v>4434</v>
+        <v>4502</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>4366</v>
+        <v>2650</v>
       </c>
       <c r="F6" s="1">
-        <v>56</v>
+        <v>1852</v>
       </c>
       <c r="G6" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
-        <v>5.815257072448731</v>
+        <v>6.355987071990967</v>
       </c>
       <c r="C7" s="1">
-        <v>3268</v>
+        <v>4434</v>
       </c>
       <c r="D7" s="1">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1">
-        <v>2842</v>
+        <v>4366</v>
       </c>
       <c r="F7" s="1">
-        <v>426</v>
+        <v>56</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1">
-        <v>256</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>4.27424955368042</v>
+        <v>6.001920700073242</v>
       </c>
       <c r="C8" s="1">
-        <v>2402</v>
+        <v>4187</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="E8" s="1">
-        <v>2402</v>
+        <v>3146</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2">
-        <v>3.864974975585938</v>
+        <v>4.233024120330811</v>
       </c>
       <c r="C9" s="1">
-        <v>2172</v>
+        <v>2953</v>
       </c>
       <c r="D9" s="1">
-        <v>1432</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1572</v>
+        <v>2656</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="G9" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2">
-        <v>2.971688985824585</v>
+        <v>3.489055395126343</v>
       </c>
       <c r="C10" s="1">
-        <v>1670</v>
+        <v>2434</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1670</v>
+        <v>2434</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2670,48 +2747,48 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>2.53750205039978</v>
+        <v>3.139289855957031</v>
       </c>
       <c r="C11" s="1">
-        <v>1426</v>
+        <v>2190</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1432</v>
       </c>
       <c r="E11" s="1">
-        <v>1426</v>
+        <v>1590</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>832</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2">
-        <v>2.334644079208374</v>
+        <v>2.995943307876587</v>
       </c>
       <c r="C12" s="1">
-        <v>1312</v>
+        <v>2090</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1120</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>192</v>
+        <v>2090</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -2722,45 +2799,45 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2">
-        <v>2.16915488243103</v>
+        <v>2.93573784828186</v>
       </c>
       <c r="C13" s="1">
-        <v>1219</v>
+        <v>2048</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>1472</v>
       </c>
       <c r="E13" s="1">
-        <v>1004</v>
+        <v>1948</v>
       </c>
       <c r="F13" s="1">
-        <v>215</v>
+        <v>100</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2">
-        <v>2.039254665374756</v>
+        <v>2.393887758255005</v>
       </c>
       <c r="C14" s="1">
-        <v>1146</v>
+        <v>1670</v>
       </c>
       <c r="D14" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1146</v>
+        <v>1670</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2769,24 +2846,24 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2">
-        <v>2.017901420593262</v>
+        <v>2.044121980667114</v>
       </c>
       <c r="C15" s="1">
-        <v>1134</v>
+        <v>1426</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1134</v>
+        <v>1426</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2800,22 +2877,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2">
-        <v>1.953840970993042</v>
+        <v>1.880707025527954</v>
       </c>
       <c r="C16" s="1">
-        <v>1098</v>
+        <v>1312</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>74</v>
+        <v>1120</v>
       </c>
       <c r="F16" s="1">
-        <v>1024</v>
+        <v>192</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -2826,22 +2903,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2">
-        <v>1.86486828327179</v>
+        <v>1.747394680976868</v>
       </c>
       <c r="C17" s="1">
-        <v>1048</v>
+        <v>1219</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>1048</v>
+        <v>1004</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -2852,19 +2929,19 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
-        <v>1.811484575271606</v>
+        <v>1.642751693725586</v>
       </c>
       <c r="C18" s="1">
-        <v>1018</v>
+        <v>1146</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1">
-        <v>1018</v>
+        <v>1146</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2873,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2881,16 +2958,16 @@
         <v>36</v>
       </c>
       <c r="B19" s="2">
-        <v>1.562361001968384</v>
+        <v>1.625550150871277</v>
       </c>
       <c r="C19" s="1">
-        <v>878</v>
+        <v>1134</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>878</v>
+        <v>1134</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2904,80 +2981,80 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2">
-        <v>1.519654035568237</v>
+        <v>1.573945283889771</v>
       </c>
       <c r="C20" s="1">
-        <v>854</v>
+        <v>1098</v>
       </c>
       <c r="D20" s="1">
-        <v>4280</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>828</v>
+        <v>74</v>
       </c>
       <c r="F20" s="1">
-        <v>26</v>
+        <v>1024</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>4280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2">
-        <v>1.457373142242432</v>
+        <v>1.502272009849548</v>
       </c>
       <c r="C21" s="1">
-        <v>819</v>
+        <v>1048</v>
       </c>
       <c r="D21" s="1">
-        <v>1408</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>814</v>
+        <v>1048</v>
       </c>
       <c r="F21" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>1408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2">
-        <v>1.352385401725769</v>
+        <v>1.258582830429077</v>
       </c>
       <c r="C22" s="1">
-        <v>760</v>
+        <v>878</v>
       </c>
       <c r="D22" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>484</v>
+        <v>878</v>
       </c>
       <c r="F22" s="1">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2985,42 +3062,42 @@
         <v>10</v>
       </c>
       <c r="B23" s="2">
-        <v>1.291883945465088</v>
+        <v>1.214145421981812</v>
       </c>
       <c r="C23" s="1">
-        <v>726</v>
+        <v>847</v>
       </c>
       <c r="D23" s="1">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E23" s="1">
-        <v>726</v>
+        <v>750</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H23" s="1">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2">
-        <v>1.256294846534729</v>
+        <v>1.040696144104004</v>
       </c>
       <c r="C24" s="1">
-        <v>706</v>
+        <v>726</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="E24" s="1">
-        <v>706</v>
+        <v>726</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -3029,27 +3106,27 @@
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2">
-        <v>1.192234516143799</v>
+        <v>0.9976921081542969</v>
       </c>
       <c r="C25" s="1">
-        <v>670</v>
+        <v>696</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>650</v>
+        <v>696</v>
       </c>
       <c r="F25" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -3060,22 +3137,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2">
-        <v>1.117497324943543</v>
+        <v>0.9604220390319824</v>
       </c>
       <c r="C26" s="1">
-        <v>628</v>
+        <v>670</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>628</v>
+        <v>650</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -3086,45 +3163,45 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2">
-        <v>1.023186326026917</v>
+        <v>0.9002164602279663</v>
       </c>
       <c r="C27" s="1">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="D27" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>558</v>
+        <v>628</v>
       </c>
       <c r="F27" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2">
-        <v>0.9466697573661804</v>
+        <v>0.8686801791191101</v>
       </c>
       <c r="C28" s="1">
-        <v>532</v>
+        <v>606</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>532</v>
+        <v>606</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -3138,19 +3215,19 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2">
-        <v>0.8648148775100708</v>
+        <v>0.7540029287338257</v>
       </c>
       <c r="C29" s="1">
-        <v>486</v>
+        <v>526</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>486</v>
+        <v>526</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -3167,7 +3244,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="2">
-        <v>0.8256668448448181</v>
+        <v>0.6651280522346497</v>
       </c>
       <c r="C30" s="1">
         <v>464</v>
@@ -3190,10 +3267,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2">
-        <v>0.8221079707145691</v>
+        <v>0.6622611284255981</v>
       </c>
       <c r="C31" s="1">
         <v>462</v>
@@ -3216,10 +3293,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32" s="2">
-        <v>0.8007544875144959</v>
+        <v>0.6450595855712891</v>
       </c>
       <c r="C32" s="1">
         <v>450</v>
@@ -3242,10 +3319,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B33" s="2">
-        <v>0.793636679649353</v>
+        <v>0.6393256783485413</v>
       </c>
       <c r="C33" s="1">
         <v>446</v>
@@ -3268,10 +3345,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34" s="2">
-        <v>0.7188996076583862</v>
+        <v>0.5791201591491699</v>
       </c>
       <c r="C34" s="1">
         <v>404</v>
@@ -3294,45 +3371,45 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6406036019325256</v>
+        <v>0.5447169542312622</v>
       </c>
       <c r="C35" s="1">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E35" s="1">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2">
-        <v>0.5943377614021301</v>
+        <v>0.5160476565361023</v>
       </c>
       <c r="C36" s="1">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -3346,175 +3423,175 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2">
-        <v>0.5658665299415588</v>
+        <v>0.4787775278091431</v>
       </c>
       <c r="C37" s="1">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="D37" s="1">
-        <v>4312</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="F37" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>4312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5640870332717896</v>
+        <v>0.4644428789615631</v>
       </c>
       <c r="C38" s="1">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D38" s="1">
-        <v>1</v>
+        <v>4312</v>
       </c>
       <c r="E38" s="1">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="F38" s="1">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>1</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5018061399459839</v>
+        <v>0.4544086158275604</v>
       </c>
       <c r="C39" s="1">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="D39" s="1">
-        <v>1152</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>266</v>
+        <v>164</v>
       </c>
       <c r="F39" s="1">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>1152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4840115904808044</v>
+        <v>0.4443743526935577</v>
       </c>
       <c r="C40" s="1">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="D40" s="1">
-        <v>3072</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>36</v>
+        <v>310</v>
       </c>
       <c r="F40" s="1">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>3072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4341868758201599</v>
+        <v>0.4042373299598694</v>
       </c>
       <c r="C41" s="1">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="E41" s="1">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>0</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4057156145572662</v>
+        <v>0.3899026811122894</v>
       </c>
       <c r="C42" s="1">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>3072</v>
       </c>
       <c r="E42" s="1">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>0</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3950388729572296</v>
+        <v>0.3497656285762787</v>
       </c>
       <c r="C43" s="1">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -3528,19 +3605,19 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3452141582965851</v>
+        <v>0.3354309797286987</v>
       </c>
       <c r="C44" s="1">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -3554,19 +3631,19 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3309785127639771</v>
+        <v>0.3268301784992218</v>
       </c>
       <c r="C45" s="1">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -3580,19 +3657,19 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3025072515010834</v>
+        <v>0.3182293772697449</v>
       </c>
       <c r="C46" s="1">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="D46" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -3601,24 +3678,24 @@
         <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B47" s="2">
-        <v>0.298948347568512</v>
+        <v>0.2838262021541596</v>
       </c>
       <c r="C47" s="1">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E47" s="1">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -3627,24 +3704,24 @@
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2811537981033325</v>
+        <v>0.2780923545360565</v>
       </c>
       <c r="C48" s="1">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -3658,19 +3735,19 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2633592486381531</v>
+        <v>0.2666246294975281</v>
       </c>
       <c r="C49" s="1">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -3684,45 +3761,45 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2509030699729919</v>
+        <v>0.24368916451931</v>
       </c>
       <c r="C50" s="1">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E50" s="1">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="F50" s="1">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
       </c>
       <c r="H50" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2">
-        <v>0.1992988884449005</v>
+        <v>0.2408222407102585</v>
       </c>
       <c r="C51" s="1">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -3736,19 +3813,19 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2">
-        <v>0.1992988884449005</v>
+        <v>0.2264875769615173</v>
       </c>
       <c r="C52" s="1">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -3762,19 +3839,19 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>0.1957399845123291</v>
+        <v>0.2121529281139374</v>
       </c>
       <c r="C53" s="1">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -3788,22 +3865,22 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54" s="2">
-        <v>0.1743865311145783</v>
+        <v>0.2021186649799347</v>
       </c>
       <c r="C54" s="1">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -3814,45 +3891,45 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2">
-        <v>0.1637098044157028</v>
+        <v>0.1605481505393982</v>
       </c>
       <c r="C55" s="1">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D55" s="1">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F55" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
       </c>
       <c r="H55" s="1">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56" s="2">
-        <v>0.1530330777168274</v>
+        <v>0.1605481505393982</v>
       </c>
       <c r="C56" s="1">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3866,19 +3943,19 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B57" s="2">
-        <v>0.1210028976202011</v>
+        <v>0.1576812267303467</v>
       </c>
       <c r="C57" s="1">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="D57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -3887,24 +3964,24 @@
         <v>0</v>
       </c>
       <c r="H57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58" s="2">
-        <v>0.1138850823044777</v>
+        <v>0.140479639172554</v>
       </c>
       <c r="C58" s="1">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -3918,45 +3995,45 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B59" s="2">
-        <v>0.1103261709213257</v>
+        <v>0.1318788379430771</v>
       </c>
       <c r="C59" s="1">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="E59" s="1">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F59" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
       </c>
       <c r="H59" s="1">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60" s="2">
-        <v>0.09964944422245026</v>
+        <v>0.1232780516147614</v>
       </c>
       <c r="C60" s="1">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -3970,19 +4047,19 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B61" s="2">
-        <v>0.09609054028987885</v>
+        <v>0.09747567027807236</v>
       </c>
       <c r="C61" s="1">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="1">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -3991,24 +4068,24 @@
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>0.09609054028987885</v>
+        <v>0.09174180775880814</v>
       </c>
       <c r="C62" s="1">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -4022,19 +4099,19 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63" s="2">
-        <v>0.08541381359100342</v>
+        <v>0.08887487649917603</v>
       </c>
       <c r="C63" s="1">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -4048,19 +4125,19 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>0.08541381359100342</v>
+        <v>0.0802740752696991</v>
       </c>
       <c r="C64" s="1">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -4074,19 +4151,19 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>0.08541381359100342</v>
+        <v>0.07740714401006699</v>
       </c>
       <c r="C65" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -4100,19 +4177,19 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>0.0782959908246994</v>
+        <v>0.07740714401006699</v>
       </c>
       <c r="C66" s="1">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -4126,19 +4203,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>0.06406036019325256</v>
+        <v>0.06880635023117065</v>
       </c>
       <c r="C67" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -4152,19 +4229,19 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>0.06406036019325256</v>
+        <v>0.06880635023117065</v>
       </c>
       <c r="C68" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -4178,19 +4255,19 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>0.06406036019325256</v>
+        <v>0.06880635023117065</v>
       </c>
       <c r="C69" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -4204,19 +4281,19 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B70" s="2">
-        <v>0.06406036019325256</v>
+        <v>0.06307248771190643</v>
       </c>
       <c r="C70" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -4230,19 +4307,19 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>0.05694254115223885</v>
+        <v>0.05160476639866829</v>
       </c>
       <c r="C71" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -4256,19 +4333,19 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>0.05338363349437714</v>
+        <v>0.05160476639866829</v>
       </c>
       <c r="C72" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -4282,19 +4359,19 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>0.05338363349437714</v>
+        <v>0.05160476639866829</v>
       </c>
       <c r="C73" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -4308,19 +4385,19 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>0.05338363349437714</v>
+        <v>0.05160476639866829</v>
       </c>
       <c r="C74" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -4334,19 +4411,19 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>0.05338363349437714</v>
+        <v>0.04587090387940407</v>
       </c>
       <c r="C75" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -4360,10 +4437,10 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>0.05338363349437714</v>
+        <v>0.04300396889448166</v>
       </c>
       <c r="C76" s="1">
         <v>30</v>
@@ -4386,19 +4463,19 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>0.04982472211122513</v>
+        <v>0.04300396889448166</v>
       </c>
       <c r="C77" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -4412,19 +4489,19 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>0.04982472211122513</v>
+        <v>0.04300396889448166</v>
       </c>
       <c r="C78" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -4438,19 +4515,19 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>0.04626581445336342</v>
+        <v>0.04300396889448166</v>
       </c>
       <c r="C79" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -4464,19 +4541,19 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B80" s="2">
-        <v>0.04626581445336342</v>
+        <v>0.04300396889448166</v>
       </c>
       <c r="C80" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -4490,19 +4567,19 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81" s="2">
-        <v>0.04270690679550171</v>
+        <v>0.04013703763484955</v>
       </c>
       <c r="C81" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -4516,19 +4593,19 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82" s="2">
-        <v>0.04270690679550171</v>
+        <v>0.04013703763484955</v>
       </c>
       <c r="C82" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -4542,19 +4619,19 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83" s="2">
-        <v>0.04270690679550171</v>
+        <v>0.03727010637521744</v>
       </c>
       <c r="C83" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -4568,19 +4645,19 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84" s="2">
-        <v>0.0391479954123497</v>
+        <v>0.03727010637521744</v>
       </c>
       <c r="C84" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -4594,19 +4671,19 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85" s="2">
-        <v>0.03558908775448799</v>
+        <v>0.03440317511558533</v>
       </c>
       <c r="C85" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -4620,19 +4697,19 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2">
-        <v>0.03558908775448799</v>
+        <v>0.03440317511558533</v>
       </c>
       <c r="C86" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -4646,19 +4723,19 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2">
-        <v>0.03203018009662628</v>
+        <v>0.03440317511558533</v>
       </c>
       <c r="C87" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -4672,19 +4749,19 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2">
-        <v>0.03203018009662628</v>
+        <v>0.03153624385595322</v>
       </c>
       <c r="C88" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -4698,19 +4775,19 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2">
-        <v>0.02847127057611942</v>
+        <v>0.02866931445896626</v>
       </c>
       <c r="C89" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -4724,19 +4801,19 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2">
-        <v>0.02491236105561256</v>
+        <v>0.02866931445896626</v>
       </c>
       <c r="C90" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
@@ -4750,19 +4827,19 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2">
-        <v>0.02135345339775085</v>
+        <v>0.02580238319933415</v>
       </c>
       <c r="C91" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -4776,25 +4853,25 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2">
-        <v>0.02135345339775085</v>
+        <v>0.02580238319933415</v>
       </c>
       <c r="C92" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D92" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
       </c>
       <c r="G92" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H92" s="1">
         <v>0</v>
@@ -4802,25 +4879,25 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2">
-        <v>0.01423563528805971</v>
+        <v>0.02293545193970203</v>
       </c>
       <c r="C93" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D93" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E93" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
       </c>
       <c r="G93" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H93" s="1">
         <v>0</v>
@@ -4828,19 +4905,19 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2">
-        <v>0.01423563528805971</v>
+        <v>0.02006851881742477</v>
       </c>
       <c r="C94" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
       </c>
       <c r="E94" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
@@ -4854,19 +4931,19 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2">
-        <v>0.01423563528805971</v>
+        <v>0.01720158755779266</v>
       </c>
       <c r="C95" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -4880,59 +4957,189 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="B96" s="2">
-        <v>0.007117817644029856</v>
+        <v>0.01720158755779266</v>
       </c>
       <c r="C96" s="1">
+        <v>12</v>
+      </c>
+      <c r="D96" s="1">
         <v>4</v>
       </c>
-      <c r="D96" s="1">
-        <v>0</v>
-      </c>
       <c r="E96" s="1">
+        <v>8</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
         <v>4</v>
       </c>
-      <c r="F96" s="1">
-        <v>0</v>
-      </c>
-      <c r="G96" s="1">
-        <v>0</v>
-      </c>
       <c r="H96" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97">
+      <c r="A97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0.01146772596985102</v>
+      </c>
+      <c r="C97" s="1">
+        <v>8</v>
+      </c>
+      <c r="D97" s="1">
+        <v>8</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>8</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0.01146772596985102</v>
+      </c>
+      <c r="C98" s="1">
+        <v>8</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1">
+        <v>8</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0.01146772596985102</v>
+      </c>
+      <c r="C99" s="1">
+        <v>8</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>8</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0.005733862984925509</v>
+      </c>
+      <c r="C100" s="1">
+        <v>4</v>
+      </c>
+      <c r="D100" s="1">
+        <v>4</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>4</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.005733862984925509</v>
+      </c>
+      <c r="C101" s="1">
+        <v>4</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>4</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C97">
+      <c r="C102">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D97">
+      <c r="D102">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E97">
+      <c r="E102">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F97">
+      <c r="F102">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G97">
+      <c r="G102">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H97">
+      <c r="H102">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/ac6demo_analysis.xlsx
+++ b/ac6demo_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
   <si>
     <t>ac6demo</t>
   </si>
@@ -35,12 +35,12 @@
     <t>user_flash.o</t>
   </si>
   <si>
+    <t>at_function.o</t>
+  </si>
+  <si>
     <t>components.o</t>
   </si>
   <si>
-    <t>at_function.o</t>
-  </si>
-  <si>
     <t>gpio.o</t>
   </si>
   <si>
@@ -89,12 +89,12 @@
     <t>system_stm32f10x.o</t>
   </si>
   <si>
-    <t>mb.o</t>
-  </si>
-  <si>
     <t>clock.o</t>
   </si>
   <si>
+    <t>tim.o</t>
+  </si>
+  <si>
     <t>irq.o</t>
   </si>
   <si>
@@ -113,12 +113,18 @@
     <t>oled_data.o</t>
   </si>
   <si>
+    <t>ipc.o</t>
+  </si>
+  <si>
     <t>hmac_sha1.o</t>
   </si>
   <si>
     <t>mf_w.l</t>
   </si>
   <si>
+    <t>thread.o</t>
+  </si>
+  <si>
     <t>base64.o</t>
   </si>
   <si>
@@ -131,13 +137,10 @@
     <t>ef_utils.o</t>
   </si>
   <si>
-    <t>thread.o</t>
-  </si>
-  <si>
     <t>scanf_fp.o</t>
   </si>
   <si>
-    <t>ipc.o</t>
+    <t>stm32f10x_i2c.o</t>
   </si>
   <si>
     <t>stm32f10x_rcc.o</t>
@@ -149,6 +152,9 @@
     <t>board.o</t>
   </si>
   <si>
+    <t>stm32f10x_tim.o</t>
+  </si>
+  <si>
     <t>stm32f10x_gpio.o</t>
   </si>
   <si>
@@ -182,24 +188,21 @@
     <t>depilogue.o</t>
   </si>
   <si>
+    <t>myiic.o</t>
+  </si>
+  <si>
     <t>strtod.o</t>
   </si>
   <si>
     <t>_strtoul.o</t>
   </si>
   <si>
-    <t>tim.o</t>
-  </si>
-  <si>
     <t>ctype_o.o</t>
   </si>
   <si>
     <t>strtol.o</t>
   </si>
   <si>
-    <t>stm32f10x_tim.o</t>
-  </si>
-  <si>
     <t>fepilogue.o</t>
   </si>
   <si>
@@ -297,9 +300,6 @@
   </si>
   <si>
     <t>stm32f10x_it.o</t>
-  </si>
-  <si>
-    <t>porttimer.o</t>
   </si>
   <si>
     <t>strlen.o</t>
@@ -434,9 +434,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$102</c:f>
+              <c:f>ram_percent!$A$3:$A$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>at_task.o</c:v>
                 </c:pt>
@@ -453,10 +453,10 @@
                   <c:v>user_flash.o</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>at_function.o</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>components.o</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>at_function.o</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>gpio.o</c:v>
@@ -507,10 +507,10 @@
                   <c:v>system_stm32f10x.o</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>mb.o</c:v>
+                  <c:v>clock.o</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>clock.o</c:v>
+                  <c:v>tim.o</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>irq.o</c:v>
@@ -518,7 +518,7 @@
                 <c:pt idx="26">
                   <c:v>easyflash.o</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="100">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -526,92 +526,92 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$102</c:f>
+              <c:f>ram_percent!$B$3:$B$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>27.74953269958496</c:v>
+                  <c:v>26.33765029907227</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.76961135864258</c:v>
+                  <c:v>18.76374244689941</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.472939491271973</c:v>
+                  <c:v>10.55460548400879</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.215521812438965</c:v>
+                  <c:v>9.846078872680664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.198725700378418</c:v>
+                  <c:v>8.14805793762207</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.413604259490967</c:v>
+                  <c:v>7.720498561859131</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.946328639984131</c:v>
+                  <c:v>7.036403656005859</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.548426628112793</c:v>
+                  <c:v>2.418763637542725</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.769740700721741</c:v>
+                  <c:v>1.679697036743164</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.724692702293396</c:v>
+                  <c:v>1.636941075325012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.647467613220215</c:v>
+                  <c:v>1.563645243644714</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.647467613220215</c:v>
+                  <c:v>1.563645243644714</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.8237338066101074</c:v>
+                  <c:v>0.7818226218223572</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.746508777141571</c:v>
+                  <c:v>0.7085267305374146</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.720767080783844</c:v>
+                  <c:v>0.6840947866439819</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1287084072828293</c:v>
+                  <c:v>0.1221597865223885</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1029667258262634</c:v>
+                  <c:v>0.09772782772779465</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1029667258262634</c:v>
+                  <c:v>0.09772782772779465</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.07722504436969757</c:v>
+                  <c:v>0.07329586893320084</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.05148336291313171</c:v>
+                  <c:v>0.04886391386389732</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.02574168145656586</c:v>
+                  <c:v>0.02443195693194866</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.02574168145656586</c:v>
+                  <c:v>0.02443195693194866</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.02574168145656586</c:v>
+                  <c:v>0.02443195693194866</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.02574168145656586</c:v>
+                  <c:v>0.02443195693194866</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.02574168145656586</c:v>
+                  <c:v>0.006107989232987166</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.006435420364141464</c:v>
+                  <c:v>0.006107989232987166</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.006435420364141464</c:v>
-                </c:pt>
-                <c:pt idx="99">
+                  <c:v>0.006107989232987166</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -679,9 +679,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$102</c:f>
+              <c:f>flash_percent!$A$3:$A$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>ef_env.o</c:v>
                 </c:pt>
@@ -710,276 +710,279 @@
                   <c:v>uart.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>oled.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>oled_data.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>oled.o</c:v>
-                </c:pt>
                 <c:pt idx="11">
+                  <c:v>ipc.o</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>hmac_sha1.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>mf_w.l</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
+                  <c:v>thread.o</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>base64.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>onenet.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>timer.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>stm32f10x_usart.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>ef_utils.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>thread.o</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>scanf_fp.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>sfud_port.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
+                  <c:v>stm32f10x_i2c.o</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>scheduler.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>ipc.o</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>stm32f10x_rcc.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>stm32f10x_dma.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>board.o</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
+                  <c:v>user_flash.o</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>stm32f10x_tim.o</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>stm32f10x_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
+                  <c:v>sys.o</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>object.o</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>sys.o</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>user_flash.o</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>system_stm32f10x.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>ef_port.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>mallocr.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
+                  <c:v>tim.o</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>dadd.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="38">
                   <c:v>at_task.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
                   <c:v>easyflash.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="40">
                   <c:v>myspi.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>components.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
                   <c:v>startup_stm32f10x_md.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="43">
                   <c:v>context_rvds.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="44">
                   <c:v>stm32f10x_spi.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>dmul.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
                   <c:v>ddiv.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
                   <c:v>cpuport.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="48">
                   <c:v>misc.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="49">
                   <c:v>depilogue.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="50">
+                  <c:v>myiic.o</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>clock.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>strtod.o</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>_strtoul.o</c:v>
                 </c:pt>
-                <c:pt idx="50">
-                  <c:v>tim.o</c:v>
-                </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="54">
                   <c:v>ctype_o.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="55">
                   <c:v>strtol.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>stm32f10x_tim.o</c:v>
-                </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>fepilogue.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>uldiv.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>idle.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>__dczerorl2.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>irq.o</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>_sgetc.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>dfixi.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>d2f.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>dcmplt.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>dcmpgt.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>dfixul.o</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="67">
                   <c:v>cdrcmple.o</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>init.o</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
                   <c:v>uidiv.o</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="70">
                   <c:v>strstr.o</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="71">
                   <c:v>memseta.o</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="72">
                   <c:v>memcpya.o</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
                   <c:v>llsshr.o</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
                   <c:v>llushr.o</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="75">
                   <c:v>m_ws.l</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="76">
                   <c:v>strncmp.o</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="77">
                   <c:v>llshl.o</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="78">
                   <c:v>handlers.o</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="79">
                   <c:v>strtod.o</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="80">
                   <c:v>strcmp.o</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="81">
                   <c:v>_chval.o</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="82">
                   <c:v>memcmp.o</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="83">
                   <c:v>atoi.o</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="84">
                   <c:v>dfltul.o</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="85">
                   <c:v>strncpy.o</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="86">
                   <c:v>strcat.o</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="87">
                   <c:v>strrchr.o</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="88">
                   <c:v>strchr.o</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="89">
                   <c:v>main.o</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="90">
                   <c:v>isspace_o.o</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="91">
                   <c:v>stm32f10x_it.o</c:v>
                 </c:pt>
-                <c:pt idx="90">
-                  <c:v>porttimer.o</c:v>
-                </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>strlen.o</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>tolower.o</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>errno.o</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>mvars.o</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
                   <c:v>entry9a.o</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>entry2.o</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="98">
                   <c:v>stdout.o</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>entry5.o</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="100">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -987,308 +990,311 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$102</c:f>
+              <c:f>flash_percent!$B$3:$B$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>11.0778226852417</c:v>
+                  <c:v>10.53578758239746</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.72232341766357</c:v>
+                  <c:v>10.19768238067627</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.372313976287842</c:v>
+                  <c:v>7.011588096618652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.453462600708008</c:v>
+                  <c:v>6.137695789337158</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.355987071990967</c:v>
+                  <c:v>6.044989585876465</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.001920700073242</c:v>
+                  <c:v>6.039536476135254</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.233024120330811</c:v>
+                  <c:v>4.025903224945068</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.489055395126343</c:v>
+                  <c:v>3.318336725234985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.139289855957031</c:v>
+                  <c:v>3.274710178375244</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.995943307876587</c:v>
+                  <c:v>2.920245409011841</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.93573784828186</c:v>
+                  <c:v>2.849352359771729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.393887758255005</c:v>
+                  <c:v>2.353101491928101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.044121980667114</c:v>
+                  <c:v>2.276755332946777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.880707025527954</c:v>
+                  <c:v>1.944103598594666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.747394680976868</c:v>
+                  <c:v>1.845944046974182</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.642751693725586</c:v>
+                  <c:v>1.788684368133545</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.625550150871277</c:v>
+                  <c:v>1.661895036697388</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.573945283889771</c:v>
+                  <c:v>1.562372207641602</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.502272009849548</c:v>
+                  <c:v>1.546012282371521</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.258582830429077</c:v>
+                  <c:v>1.496932506561279</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.214145421981812</c:v>
+                  <c:v>1.197000622749329</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.040696144104004</c:v>
+                  <c:v>1.154737591743469</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9976921081542969</c:v>
+                  <c:v>1.11792778968811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9604220390319824</c:v>
+                  <c:v>0.9897750616073608</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9002164602279663</c:v>
+                  <c:v>0.9134287834167481</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8686801791191101</c:v>
+                  <c:v>0.8561690449714661</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7540029287338257</c:v>
+                  <c:v>0.8261758685112</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.6651280522346497</c:v>
+                  <c:v>0.7702794671058655</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.6622611284255981</c:v>
+                  <c:v>0.7225630283355713</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6450595855712891</c:v>
+                  <c:v>0.717109739780426</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6393256783485413</c:v>
+                  <c:v>0.635310173034668</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5791201591491699</c:v>
+                  <c:v>0.632583498954773</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5447169542312622</c:v>
+                  <c:v>0.6134969592094421</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5160476565361023</c:v>
+                  <c:v>0.5507839322090149</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4787775278091431</c:v>
+                  <c:v>0.5180640816688538</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4644428789615631</c:v>
+                  <c:v>0.4907975494861603</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4544086158275604</c:v>
+                  <c:v>0.456714391708374</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4443743526935577</c:v>
+                  <c:v>0.4553510546684265</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4042373299598694</c:v>
+                  <c:v>0.441717803478241</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3899026811122894</c:v>
+                  <c:v>0.4321745038032532</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3497656285762787</c:v>
+                  <c:v>0.4226312339305878</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3354309797286987</c:v>
+                  <c:v>0.384458065032959</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3268301784992218</c:v>
+                  <c:v>0.3708248138427734</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3182293772697449</c:v>
+                  <c:v>0.332651674747467</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2838262021541596</c:v>
+                  <c:v>0.3190183937549591</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2780923545360565</c:v>
+                  <c:v>0.3108384311199188</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2666246294975281</c:v>
+                  <c:v>0.3026584982872009</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.24368916451931</c:v>
+                  <c:v>0.2699386477470398</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2408222407102585</c:v>
+                  <c:v>0.2644853293895721</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2264875769615173</c:v>
+                  <c:v>0.2535787224769592</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2121529281139374</c:v>
+                  <c:v>0.2344921678304672</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2021186649799347</c:v>
+                  <c:v>0.2317655086517334</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1605481505393982</c:v>
+                  <c:v>0.2290388494729996</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1605481505393982</c:v>
+                  <c:v>0.2154055833816528</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.1576812267303467</c:v>
+                  <c:v>0.1922290325164795</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.140479639172554</c:v>
+                  <c:v>0.1526925712823868</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1318788379430771</c:v>
+                  <c:v>0.149965912103653</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1232780516147614</c:v>
+                  <c:v>0.1336060017347336</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.09747567027807236</c:v>
+                  <c:v>0.1254260390996933</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.09174180775880814</c:v>
+                  <c:v>0.1172460839152336</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.08887487649917603</c:v>
+                  <c:v>0.09270620346069336</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.0802740752696991</c:v>
+                  <c:v>0.0872529000043869</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.07740714401006699</c:v>
+                  <c:v>0.08452624082565308</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.07740714401006699</c:v>
+                  <c:v>0.07634628564119339</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.06880635023117065</c:v>
+                  <c:v>0.07361963391304016</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.06880635023117065</c:v>
+                  <c:v>0.07361963391304016</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.06880635023117065</c:v>
+                  <c:v>0.06543967127799988</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.06307248771190643</c:v>
+                  <c:v>0.06543967127799988</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.05160476639866829</c:v>
+                  <c:v>0.06543967127799988</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.05160476639866829</c:v>
+                  <c:v>0.05998636782169342</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.05160476639866829</c:v>
+                  <c:v>0.04907975345849991</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.05160476639866829</c:v>
+                  <c:v>0.04907975345849991</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.04587090387940407</c:v>
+                  <c:v>0.04907975345849991</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.04300396889448166</c:v>
+                  <c:v>0.04907975345849991</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.04300396889448166</c:v>
+                  <c:v>0.04362645000219345</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.04300396889448166</c:v>
+                  <c:v>0.04089979454874992</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.04300396889448166</c:v>
+                  <c:v>0.04089979454874992</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.04300396889448166</c:v>
+                  <c:v>0.04089979454874992</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.04013703763484955</c:v>
+                  <c:v>0.04089979454874992</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.04013703763484955</c:v>
+                  <c:v>0.04089979454874992</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.03727010637521744</c:v>
+                  <c:v>0.0381731428205967</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.03727010637521744</c:v>
+                  <c:v>0.0381731428205967</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.03440317511558533</c:v>
+                  <c:v>0.03544649109244347</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.03440317511558533</c:v>
+                  <c:v>0.03544649109244347</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.03440317511558533</c:v>
+                  <c:v>0.03271983563899994</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.03153624385595322</c:v>
+                  <c:v>0.03271983563899994</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.02866931445896626</c:v>
+                  <c:v>0.03271983563899994</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.02866931445896626</c:v>
+                  <c:v>0.02999318391084671</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.02580238319933415</c:v>
+                  <c:v>0.02726653032004833</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.02580238319933415</c:v>
+                  <c:v>0.02726653032004833</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.02293545193970203</c:v>
+                  <c:v>0.02453987672924995</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.02006851881742477</c:v>
+                  <c:v>0.02453987672924995</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.01720158755779266</c:v>
+                  <c:v>0.01908657141029835</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.01720158755779266</c:v>
+                  <c:v>0.01635991781949997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.01146772596985102</c:v>
+                  <c:v>0.01635991781949997</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.01146772596985102</c:v>
+                  <c:v>0.01090661250054836</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.01146772596985102</c:v>
+                  <c:v>0.01090661250054836</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.005733862984925509</c:v>
+                  <c:v>0.01090661250054836</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.005733862984925509</c:v>
+                  <c:v>0.005453306250274181</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>0.005453306250274181</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1393,8 +1399,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H102" totalsRowCount="1">
-  <autoFilter ref="A2:H101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H103" totalsRowCount="1">
+  <autoFilter ref="A2:H102"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1410,8 +1416,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H102" totalsRowCount="1">
-  <autoFilter ref="A2:H101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H103" totalsRowCount="1">
+  <autoFilter ref="A2:H102"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1711,7 +1717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1756,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>27.74953269958496</v>
+        <v>26.33765029907227</v>
       </c>
       <c r="C3" s="1">
         <v>4312</v>
@@ -1782,7 +1788,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>19.76961135864258</v>
+        <v>18.76374244689941</v>
       </c>
       <c r="C4" s="1">
         <v>3072</v>
@@ -1808,16 +1814,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>9.472939491271973</v>
+        <v>10.55460548400879</v>
       </c>
       <c r="C5" s="1">
-        <v>1472</v>
+        <v>1728</v>
       </c>
       <c r="D5" s="1">
-        <v>2048</v>
+        <v>2142</v>
       </c>
       <c r="E5" s="1">
-        <v>1948</v>
+        <v>2042</v>
       </c>
       <c r="F5" s="1">
         <v>100</v>
@@ -1826,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>1472</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1834,22 +1840,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>9.215521812438965</v>
+        <v>9.846078872680664</v>
       </c>
       <c r="C6" s="1">
-        <v>1432</v>
+        <v>1612</v>
       </c>
       <c r="D6" s="1">
-        <v>2190</v>
+        <v>2402</v>
       </c>
       <c r="E6" s="1">
-        <v>1590</v>
+        <v>1608</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1">
-        <v>600</v>
+        <v>780</v>
       </c>
       <c r="H6" s="1">
         <v>832</v>
@@ -1860,25 +1866,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>8.198725700378418</v>
+        <v>8.14805793762207</v>
       </c>
       <c r="C7" s="1">
-        <v>1274</v>
+        <v>1334</v>
       </c>
       <c r="D7" s="1">
-        <v>446</v>
+        <v>565</v>
       </c>
       <c r="E7" s="1">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="F7" s="1">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="H7" s="1">
-        <v>1272</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1886,25 +1892,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>7.413604259490967</v>
+        <v>7.720498561859131</v>
       </c>
       <c r="C8" s="1">
-        <v>1152</v>
+        <v>1264</v>
       </c>
       <c r="D8" s="1">
-        <v>282</v>
+        <v>4430</v>
       </c>
       <c r="E8" s="1">
-        <v>266</v>
+        <v>3070</v>
       </c>
       <c r="F8" s="1">
-        <v>16</v>
+        <v>544</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>816</v>
       </c>
       <c r="H8" s="1">
-        <v>1152</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1912,25 +1918,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>5.946328639984131</v>
+        <v>7.036403656005859</v>
       </c>
       <c r="C9" s="1">
-        <v>924</v>
+        <v>1152</v>
       </c>
       <c r="D9" s="1">
-        <v>4187</v>
+        <v>282</v>
       </c>
       <c r="E9" s="1">
-        <v>3146</v>
+        <v>266</v>
       </c>
       <c r="F9" s="1">
-        <v>565</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>448</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1938,7 +1944,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>2.548426628112793</v>
+        <v>2.418763637542725</v>
       </c>
       <c r="C10" s="1">
         <v>396</v>
@@ -1964,7 +1970,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1.769740700721741</v>
+        <v>1.679697036743164</v>
       </c>
       <c r="C11" s="1">
         <v>275</v>
@@ -1990,7 +1996,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>1.724692702293396</v>
+        <v>1.636941075325012</v>
       </c>
       <c r="C12" s="1">
         <v>268</v>
@@ -2016,7 +2022,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>1.647467613220215</v>
+        <v>1.563645243644714</v>
       </c>
       <c r="C13" s="1">
         <v>256</v>
@@ -2042,7 +2048,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>1.647467613220215</v>
+        <v>1.563645243644714</v>
       </c>
       <c r="C14" s="1">
         <v>256</v>
@@ -2068,7 +2074,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.8237338066101074</v>
+        <v>0.7818226218223572</v>
       </c>
       <c r="C15" s="1">
         <v>128</v>
@@ -2094,7 +2100,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.746508777141571</v>
+        <v>0.7085267305374146</v>
       </c>
       <c r="C16" s="1">
         <v>116</v>
@@ -2120,7 +2126,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.720767080783844</v>
+        <v>0.6840947866439819</v>
       </c>
       <c r="C17" s="1">
         <v>112</v>
@@ -2146,7 +2152,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.1287084072828293</v>
+        <v>0.1221597865223885</v>
       </c>
       <c r="C18" s="1">
         <v>20</v>
@@ -2172,7 +2178,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.1029667258262634</v>
+        <v>0.09772782772779465</v>
       </c>
       <c r="C19" s="1">
         <v>16</v>
@@ -2198,7 +2204,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.1029667258262634</v>
+        <v>0.09772782772779465</v>
       </c>
       <c r="C20" s="1">
         <v>16</v>
@@ -2224,7 +2230,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.07722504436969757</v>
+        <v>0.07329586893320084</v>
       </c>
       <c r="C21" s="1">
         <v>12</v>
@@ -2250,7 +2256,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.05148336291313171</v>
+        <v>0.04886391386389732</v>
       </c>
       <c r="C22" s="1">
         <v>8</v>
@@ -2276,7 +2282,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0.02574168145656586</v>
+        <v>0.02443195693194866</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
@@ -2302,7 +2308,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>0.02574168145656586</v>
+        <v>0.02443195693194866</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
@@ -2328,7 +2334,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>0.02574168145656586</v>
+        <v>0.02443195693194866</v>
       </c>
       <c r="C25" s="1">
         <v>4</v>
@@ -2354,16 +2360,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>0.02574168145656586</v>
+        <v>0.02443195693194866</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2380,25 +2386,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>0.02574168145656586</v>
+        <v>0.006107989232987166</v>
       </c>
       <c r="C27" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>170</v>
+        <v>335</v>
       </c>
       <c r="E27" s="1">
-        <v>170</v>
+        <v>316</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2406,7 +2412,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>0.006435420364141464</v>
+        <v>0.006107989232987166</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -2432,7 +2438,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>0.006435420364141464</v>
+        <v>0.006107989232987166</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -2453,35 +2459,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
         <v>101</v>
       </c>
-      <c r="B102">
+      <c r="B103">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C102">
+      <c r="C103">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D102">
+      <c r="D103">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E102">
+      <c r="E103">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F102">
+      <c r="F103">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G102">
+      <c r="G103">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H102">
+      <c r="H103">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -2497,7 +2503,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2542,7 +2548,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="2">
-        <v>11.0778226852417</v>
+        <v>10.53578758239746</v>
       </c>
       <c r="C3" s="1">
         <v>7728</v>
@@ -2568,7 +2574,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>10.72232341766357</v>
+        <v>10.19768238067627</v>
       </c>
       <c r="C4" s="1">
         <v>7480</v>
@@ -2594,7 +2600,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>7.372313976287842</v>
+        <v>7.011588096618652</v>
       </c>
       <c r="C5" s="1">
         <v>5143</v>
@@ -2620,7 +2626,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="2">
-        <v>6.453462600708008</v>
+        <v>6.137695789337158</v>
       </c>
       <c r="C6" s="1">
         <v>4502</v>
@@ -2646,7 +2652,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="2">
-        <v>6.355987071990967</v>
+        <v>6.044989585876465</v>
       </c>
       <c r="C7" s="1">
         <v>4434</v>
@@ -2669,25 +2675,25 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>6.001920700073242</v>
+        <v>6.039536476135254</v>
       </c>
       <c r="C8" s="1">
-        <v>4187</v>
+        <v>4430</v>
       </c>
       <c r="D8" s="1">
-        <v>924</v>
+        <v>1264</v>
       </c>
       <c r="E8" s="1">
-        <v>3146</v>
+        <v>3070</v>
       </c>
       <c r="F8" s="1">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="G8" s="1">
-        <v>476</v>
+        <v>816</v>
       </c>
       <c r="H8" s="1">
         <v>448</v>
@@ -2698,7 +2704,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="2">
-        <v>4.233024120330811</v>
+        <v>4.025903224945068</v>
       </c>
       <c r="C9" s="1">
         <v>2953</v>
@@ -2724,7 +2730,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="2">
-        <v>3.489055395126343</v>
+        <v>3.318336725234985</v>
       </c>
       <c r="C10" s="1">
         <v>2434</v>
@@ -2750,22 +2756,22 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>3.139289855957031</v>
+        <v>3.274710178375244</v>
       </c>
       <c r="C11" s="1">
-        <v>2190</v>
+        <v>2402</v>
       </c>
       <c r="D11" s="1">
-        <v>1432</v>
+        <v>1612</v>
       </c>
       <c r="E11" s="1">
-        <v>1590</v>
+        <v>1608</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1">
-        <v>600</v>
+        <v>780</v>
       </c>
       <c r="H11" s="1">
         <v>832</v>
@@ -2773,54 +2779,54 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>2.995943307876587</v>
+        <v>2.920245409011841</v>
       </c>
       <c r="C12" s="1">
-        <v>2090</v>
+        <v>2142</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>1728</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>2042</v>
       </c>
       <c r="F12" s="1">
-        <v>2090</v>
+        <v>100</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2">
-        <v>2.93573784828186</v>
+        <v>2.849352359771729</v>
       </c>
       <c r="C13" s="1">
-        <v>2048</v>
+        <v>2090</v>
       </c>
       <c r="D13" s="1">
-        <v>1472</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1948</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>100</v>
+        <v>2090</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>1472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2828,16 +2834,16 @@
         <v>32</v>
       </c>
       <c r="B14" s="2">
-        <v>2.393887758255005</v>
+        <v>2.353101491928101</v>
       </c>
       <c r="C14" s="1">
-        <v>1670</v>
+        <v>1726</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1670</v>
+        <v>1726</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2854,16 +2860,16 @@
         <v>33</v>
       </c>
       <c r="B15" s="2">
-        <v>2.044121980667114</v>
+        <v>2.276755332946777</v>
       </c>
       <c r="C15" s="1">
-        <v>1426</v>
+        <v>1670</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1426</v>
+        <v>1670</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2880,19 +2886,19 @@
         <v>34</v>
       </c>
       <c r="B16" s="2">
-        <v>1.880707025527954</v>
+        <v>1.944103598594666</v>
       </c>
       <c r="C16" s="1">
-        <v>1312</v>
+        <v>1426</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1120</v>
+        <v>1426</v>
       </c>
       <c r="F16" s="1">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -2906,19 +2912,19 @@
         <v>35</v>
       </c>
       <c r="B17" s="2">
-        <v>1.747394680976868</v>
+        <v>1.845944046974182</v>
       </c>
       <c r="C17" s="1">
-        <v>1219</v>
+        <v>1354</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>1004</v>
+        <v>1354</v>
       </c>
       <c r="F17" s="1">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -2929,48 +2935,48 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2">
-        <v>1.642751693725586</v>
+        <v>1.788684368133545</v>
       </c>
       <c r="C18" s="1">
-        <v>1146</v>
+        <v>1312</v>
       </c>
       <c r="D18" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>1146</v>
+        <v>1120</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2">
-        <v>1.625550150871277</v>
+        <v>1.661895036697388</v>
       </c>
       <c r="C19" s="1">
-        <v>1134</v>
+        <v>1219</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>1134</v>
+        <v>1004</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -2981,28 +2987,28 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>1.573945283889771</v>
+        <v>1.562372207641602</v>
       </c>
       <c r="C20" s="1">
-        <v>1098</v>
+        <v>1146</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1">
-        <v>74</v>
+        <v>1146</v>
       </c>
       <c r="F20" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3010,16 +3016,16 @@
         <v>38</v>
       </c>
       <c r="B21" s="2">
-        <v>1.502272009849548</v>
+        <v>1.546012282371521</v>
       </c>
       <c r="C21" s="1">
-        <v>1048</v>
+        <v>1134</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>1048</v>
+        <v>1134</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -3036,19 +3042,19 @@
         <v>39</v>
       </c>
       <c r="B22" s="2">
-        <v>1.258582830429077</v>
+        <v>1.496932506561279</v>
       </c>
       <c r="C22" s="1">
-        <v>878</v>
+        <v>1098</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>878</v>
+        <v>74</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -3059,71 +3065,71 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2">
-        <v>1.214145421981812</v>
+        <v>1.197000622749329</v>
       </c>
       <c r="C23" s="1">
-        <v>847</v>
+        <v>878</v>
       </c>
       <c r="D23" s="1">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>750</v>
+        <v>878</v>
       </c>
       <c r="F23" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2">
-        <v>1.040696144104004</v>
+        <v>1.154737591743469</v>
       </c>
       <c r="C24" s="1">
-        <v>726</v>
+        <v>847</v>
       </c>
       <c r="D24" s="1">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E24" s="1">
-        <v>726</v>
+        <v>750</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H24" s="1">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9976921081542969</v>
+        <v>1.11792778968811</v>
       </c>
       <c r="C25" s="1">
-        <v>696</v>
+        <v>820</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>696</v>
+        <v>820</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -3137,28 +3143,28 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9604220390319824</v>
+        <v>0.9897750616073608</v>
       </c>
       <c r="C26" s="1">
-        <v>670</v>
+        <v>726</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="E26" s="1">
-        <v>650</v>
+        <v>726</v>
       </c>
       <c r="F26" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3166,19 +3172,19 @@
         <v>42</v>
       </c>
       <c r="B27" s="2">
-        <v>0.9002164602279663</v>
+        <v>0.9134287834167481</v>
       </c>
       <c r="C27" s="1">
-        <v>628</v>
+        <v>670</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>628</v>
+        <v>650</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -3192,16 +3198,16 @@
         <v>43</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8686801791191101</v>
+        <v>0.8561690449714661</v>
       </c>
       <c r="C28" s="1">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -3218,16 +3224,16 @@
         <v>44</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7540029287338257</v>
+        <v>0.8261758685112</v>
       </c>
       <c r="C29" s="1">
-        <v>526</v>
+        <v>606</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>526</v>
+        <v>606</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -3241,28 +3247,28 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B30" s="2">
-        <v>0.6651280522346497</v>
+        <v>0.7702794671058655</v>
       </c>
       <c r="C30" s="1">
-        <v>464</v>
+        <v>565</v>
       </c>
       <c r="D30" s="1">
-        <v>112</v>
+        <v>1334</v>
       </c>
       <c r="E30" s="1">
-        <v>352</v>
+        <v>432</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G30" s="1">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3270,19 +3276,19 @@
         <v>45</v>
       </c>
       <c r="B31" s="2">
-        <v>0.6622611284255981</v>
+        <v>0.7225630283355713</v>
       </c>
       <c r="C31" s="1">
-        <v>462</v>
+        <v>530</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>458</v>
+        <v>530</v>
       </c>
       <c r="F31" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -3293,77 +3299,77 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6450595855712891</v>
+        <v>0.717109739780426</v>
       </c>
       <c r="C32" s="1">
-        <v>450</v>
+        <v>526</v>
       </c>
       <c r="D32" s="1">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>442</v>
+        <v>526</v>
       </c>
       <c r="F32" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6393256783485413</v>
+        <v>0.635310173034668</v>
       </c>
       <c r="C33" s="1">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="D33" s="1">
-        <v>1274</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>384</v>
+        <v>462</v>
       </c>
       <c r="F33" s="1">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="G33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>1272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B34" s="2">
-        <v>0.5791201591491699</v>
+        <v>0.632583498954773</v>
       </c>
       <c r="C34" s="1">
-        <v>404</v>
+        <v>464</v>
       </c>
       <c r="D34" s="1">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="E34" s="1">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -3371,19 +3377,19 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B35" s="2">
-        <v>0.5447169542312622</v>
+        <v>0.6134969592094421</v>
       </c>
       <c r="C35" s="1">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="D35" s="1">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="E35" s="1">
-        <v>372</v>
+        <v>442</v>
       </c>
       <c r="F35" s="1">
         <v>8</v>
@@ -3392,30 +3398,30 @@
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>128</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B36" s="2">
-        <v>0.5160476565361023</v>
+        <v>0.5507839322090149</v>
       </c>
       <c r="C36" s="1">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E36" s="1">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -3423,74 +3429,74 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B37" s="2">
-        <v>0.4787775278091431</v>
+        <v>0.5180640816688538</v>
       </c>
       <c r="C37" s="1">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E37" s="1">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4644428789615631</v>
+        <v>0.4907975494861603</v>
       </c>
       <c r="C38" s="1">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="D38" s="1">
-        <v>4312</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="F38" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>4312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4544086158275604</v>
+        <v>0.456714391708374</v>
       </c>
       <c r="C39" s="1">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>164</v>
+        <v>316</v>
       </c>
       <c r="F39" s="1">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -3501,19 +3507,19 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4443743526935577</v>
+        <v>0.4553510546684265</v>
       </c>
       <c r="C40" s="1">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -3527,71 +3533,71 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4042373299598694</v>
+        <v>0.441717803478241</v>
       </c>
       <c r="C41" s="1">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="D41" s="1">
-        <v>1152</v>
+        <v>4312</v>
       </c>
       <c r="E41" s="1">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="F41" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>1152</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3899026811122894</v>
+        <v>0.4321745038032532</v>
       </c>
       <c r="C42" s="1">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="D42" s="1">
-        <v>3072</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="F42" s="1">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>3072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3497656285762787</v>
+        <v>0.4226312339305878</v>
       </c>
       <c r="C43" s="1">
-        <v>244</v>
+        <v>310</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>244</v>
+        <v>310</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -3605,71 +3611,71 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3354309797286987</v>
+        <v>0.384458065032959</v>
       </c>
       <c r="C44" s="1">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="E44" s="1">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>0</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3268301784992218</v>
+        <v>0.3708248138427734</v>
       </c>
       <c r="C45" s="1">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>3072</v>
       </c>
       <c r="E45" s="1">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="F45" s="1">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <v>0</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3182293772697449</v>
+        <v>0.332651674747467</v>
       </c>
       <c r="C46" s="1">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -3683,19 +3689,19 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2">
-        <v>0.2838262021541596</v>
+        <v>0.3190183937549591</v>
       </c>
       <c r="C47" s="1">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="D47" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -3704,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3712,16 +3718,16 @@
         <v>53</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2780923545360565</v>
+        <v>0.3108384311199188</v>
       </c>
       <c r="C48" s="1">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -3738,16 +3744,16 @@
         <v>54</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2666246294975281</v>
+        <v>0.3026584982872009</v>
       </c>
       <c r="C49" s="1">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -3761,19 +3767,19 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B50" s="2">
-        <v>0.24368916451931</v>
+        <v>0.2699386477470398</v>
       </c>
       <c r="C50" s="1">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="D50" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E50" s="1">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -3782,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3790,16 +3796,16 @@
         <v>55</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2408222407102585</v>
+        <v>0.2644853293895721</v>
       </c>
       <c r="C51" s="1">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -3816,16 +3822,16 @@
         <v>56</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2264875769615173</v>
+        <v>0.2535787224769592</v>
       </c>
       <c r="C52" s="1">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -3842,16 +3848,16 @@
         <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2121529281139374</v>
+        <v>0.2344921678304672</v>
       </c>
       <c r="C53" s="1">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -3865,45 +3871,45 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2021186649799347</v>
+        <v>0.2317655086517334</v>
       </c>
       <c r="C54" s="1">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E54" s="1">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="F54" s="1">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="2">
-        <v>0.1605481505393982</v>
+        <v>0.2290388494729996</v>
       </c>
       <c r="C55" s="1">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -3917,19 +3923,19 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="2">
-        <v>0.1605481505393982</v>
+        <v>0.2154055833816528</v>
       </c>
       <c r="C56" s="1">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3943,22 +3949,22 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="2">
-        <v>0.1576812267303467</v>
+        <v>0.1922290325164795</v>
       </c>
       <c r="C57" s="1">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -3969,19 +3975,19 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" s="2">
-        <v>0.140479639172554</v>
+        <v>0.1526925712823868</v>
       </c>
       <c r="C58" s="1">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -3995,28 +4001,28 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B59" s="2">
-        <v>0.1318788379430771</v>
+        <v>0.149965912103653</v>
       </c>
       <c r="C59" s="1">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D59" s="1">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F59" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
       </c>
       <c r="H59" s="1">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4024,16 +4030,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1232780516147614</v>
+        <v>0.1336060017347336</v>
       </c>
       <c r="C60" s="1">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -4047,28 +4053,28 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B61" s="2">
-        <v>0.09747567027807236</v>
+        <v>0.1254260390996933</v>
       </c>
       <c r="C61" s="1">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D61" s="1">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="E61" s="1">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="F61" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <v>1</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4076,16 +4082,16 @@
         <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>0.09174180775880814</v>
+        <v>0.1172460839152336</v>
       </c>
       <c r="C62" s="1">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -4099,19 +4105,19 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B63" s="2">
-        <v>0.08887487649917603</v>
+        <v>0.09270620346069336</v>
       </c>
       <c r="C63" s="1">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="1">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -4120,24 +4126,24 @@
         <v>0</v>
       </c>
       <c r="H63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="2">
-        <v>0.0802740752696991</v>
+        <v>0.0872529000043869</v>
       </c>
       <c r="C64" s="1">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -4151,19 +4157,19 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="2">
-        <v>0.07740714401006699</v>
+        <v>0.08452624082565308</v>
       </c>
       <c r="C65" s="1">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -4177,19 +4183,19 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="2">
-        <v>0.07740714401006699</v>
+        <v>0.07634628564119339</v>
       </c>
       <c r="C66" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -4203,19 +4209,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="2">
-        <v>0.06880635023117065</v>
+        <v>0.07361963391304016</v>
       </c>
       <c r="C67" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -4229,19 +4235,19 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="2">
-        <v>0.06880635023117065</v>
+        <v>0.07361963391304016</v>
       </c>
       <c r="C68" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -4255,10 +4261,10 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="2">
-        <v>0.06880635023117065</v>
+        <v>0.06543967127799988</v>
       </c>
       <c r="C69" s="1">
         <v>48</v>
@@ -4281,19 +4287,19 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="2">
-        <v>0.06307248771190643</v>
+        <v>0.06543967127799988</v>
       </c>
       <c r="C70" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -4307,19 +4313,19 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="2">
-        <v>0.05160476639866829</v>
+        <v>0.06543967127799988</v>
       </c>
       <c r="C71" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -4333,19 +4339,19 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="2">
-        <v>0.05160476639866829</v>
+        <v>0.05998636782169342</v>
       </c>
       <c r="C72" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -4359,10 +4365,10 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2">
-        <v>0.05160476639866829</v>
+        <v>0.04907975345849991</v>
       </c>
       <c r="C73" s="1">
         <v>36</v>
@@ -4385,10 +4391,10 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="2">
-        <v>0.05160476639866829</v>
+        <v>0.04907975345849991</v>
       </c>
       <c r="C74" s="1">
         <v>36</v>
@@ -4411,19 +4417,19 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2">
-        <v>0.04587090387940407</v>
+        <v>0.04907975345849991</v>
       </c>
       <c r="C75" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -4437,19 +4443,19 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2">
-        <v>0.04300396889448166</v>
+        <v>0.04907975345849991</v>
       </c>
       <c r="C76" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -4463,19 +4469,19 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="2">
-        <v>0.04300396889448166</v>
+        <v>0.04362645000219345</v>
       </c>
       <c r="C77" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -4489,10 +4495,10 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2">
-        <v>0.04300396889448166</v>
+        <v>0.04089979454874992</v>
       </c>
       <c r="C78" s="1">
         <v>30</v>
@@ -4515,10 +4521,10 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="2">
-        <v>0.04300396889448166</v>
+        <v>0.04089979454874992</v>
       </c>
       <c r="C79" s="1">
         <v>30</v>
@@ -4541,10 +4547,10 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2">
-        <v>0.04300396889448166</v>
+        <v>0.04089979454874992</v>
       </c>
       <c r="C80" s="1">
         <v>30</v>
@@ -4570,16 +4576,16 @@
         <v>82</v>
       </c>
       <c r="B81" s="2">
-        <v>0.04013703763484955</v>
+        <v>0.04089979454874992</v>
       </c>
       <c r="C81" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -4593,19 +4599,19 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B82" s="2">
-        <v>0.04013703763484955</v>
+        <v>0.04089979454874992</v>
       </c>
       <c r="C82" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -4619,19 +4625,19 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>0.03727010637521744</v>
+        <v>0.0381731428205967</v>
       </c>
       <c r="C83" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -4645,19 +4651,19 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="2">
-        <v>0.03727010637521744</v>
+        <v>0.0381731428205967</v>
       </c>
       <c r="C84" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -4671,19 +4677,19 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" s="2">
-        <v>0.03440317511558533</v>
+        <v>0.03544649109244347</v>
       </c>
       <c r="C85" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -4697,19 +4703,19 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="2">
-        <v>0.03440317511558533</v>
+        <v>0.03544649109244347</v>
       </c>
       <c r="C86" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -4723,10 +4729,10 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>0.03440317511558533</v>
+        <v>0.03271983563899994</v>
       </c>
       <c r="C87" s="1">
         <v>24</v>
@@ -4749,19 +4755,19 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2">
-        <v>0.03153624385595322</v>
+        <v>0.03271983563899994</v>
       </c>
       <c r="C88" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -4775,19 +4781,19 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2">
-        <v>0.02866931445896626</v>
+        <v>0.03271983563899994</v>
       </c>
       <c r="C89" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -4801,19 +4807,19 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2">
-        <v>0.02866931445896626</v>
+        <v>0.02999318391084671</v>
       </c>
       <c r="C90" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
@@ -4827,19 +4833,19 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2">
-        <v>0.02580238319933415</v>
+        <v>0.02726653032004833</v>
       </c>
       <c r="C91" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -4853,19 +4859,19 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2">
-        <v>0.02580238319933415</v>
+        <v>0.02726653032004833</v>
       </c>
       <c r="C92" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -4879,19 +4885,19 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2">
-        <v>0.02293545193970203</v>
+        <v>0.02453987672924995</v>
       </c>
       <c r="C93" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
       </c>
       <c r="E93" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
@@ -4905,19 +4911,19 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2">
-        <v>0.02006851881742477</v>
+        <v>0.02453987672924995</v>
       </c>
       <c r="C94" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
       </c>
       <c r="E94" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
@@ -4931,19 +4937,19 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2">
-        <v>0.01720158755779266</v>
+        <v>0.01908657141029835</v>
       </c>
       <c r="C95" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -4957,25 +4963,25 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>0.01720158755779266</v>
+        <v>0.01635991781949997</v>
       </c>
       <c r="C96" s="1">
         <v>12</v>
       </c>
       <c r="D96" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E96" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
       </c>
       <c r="G96" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H96" s="1">
         <v>0</v>
@@ -4983,25 +4989,25 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B97" s="2">
-        <v>0.01146772596985102</v>
+        <v>0.01635991781949997</v>
       </c>
       <c r="C97" s="1">
+        <v>12</v>
+      </c>
+      <c r="D97" s="1">
+        <v>4</v>
+      </c>
+      <c r="E97" s="1">
         <v>8</v>
       </c>
-      <c r="D97" s="1">
-        <v>8</v>
-      </c>
-      <c r="E97" s="1">
-        <v>0</v>
-      </c>
       <c r="F97" s="1">
         <v>0</v>
       </c>
       <c r="G97" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H97" s="1">
         <v>0</v>
@@ -5009,25 +5015,25 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="B98" s="2">
-        <v>0.01146772596985102</v>
+        <v>0.01090661250054836</v>
       </c>
       <c r="C98" s="1">
         <v>8</v>
       </c>
       <c r="D98" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
         <v>8</v>
-      </c>
-      <c r="F98" s="1">
-        <v>0</v>
-      </c>
-      <c r="G98" s="1">
-        <v>0</v>
       </c>
       <c r="H98" s="1">
         <v>0</v>
@@ -5035,10 +5041,10 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>0.01146772596985102</v>
+        <v>0.01090661250054836</v>
       </c>
       <c r="C99" s="1">
         <v>8</v>
@@ -5061,25 +5067,25 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>0.005733862984925509</v>
+        <v>0.01090661250054836</v>
       </c>
       <c r="C100" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D100" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
       </c>
       <c r="G100" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H100" s="1">
         <v>0</v>
@@ -5087,59 +5093,85 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="B101" s="2">
-        <v>0.005733862984925509</v>
+        <v>0.005453306250274181</v>
       </c>
       <c r="C101" s="1">
         <v>4</v>
       </c>
       <c r="D101" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
         <v>4</v>
       </c>
-      <c r="F101" s="1">
-        <v>0</v>
-      </c>
-      <c r="G101" s="1">
-        <v>0</v>
-      </c>
       <c r="H101" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0.005453306250274181</v>
+      </c>
+      <c r="C102" s="1">
+        <v>4</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1">
+        <v>4</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
         <v>101</v>
       </c>
-      <c r="B102">
+      <c r="B103">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C102">
+      <c r="C103">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D102">
+      <c r="D103">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E102">
+      <c r="E103">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F102">
+      <c r="F103">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G102">
+      <c r="G103">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H102">
+      <c r="H103">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/ac6demo_analysis.xlsx
+++ b/ac6demo_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="122">
   <si>
     <t>ac6demo</t>
   </si>
@@ -26,6 +26,9 @@
     <t>startup_stm32f10x_md.o</t>
   </si>
   <si>
+    <t>slave_mb_app.o</t>
+  </si>
+  <si>
     <t>oled.o</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
     <t>components.o</t>
   </si>
   <si>
+    <t>mb.o</t>
+  </si>
+  <si>
     <t>gpio.o</t>
   </si>
   <si>
@@ -50,6 +56,9 @@
     <t>sfud_port.o</t>
   </si>
   <si>
+    <t>mbrtu.o</t>
+  </si>
+  <si>
     <t>idle.o</t>
   </si>
   <si>
@@ -65,6 +74,9 @@
     <t>object.o</t>
   </si>
   <si>
+    <t>mbfuncother.o</t>
+  </si>
+  <si>
     <t>cjson.o</t>
   </si>
   <si>
@@ -92,6 +104,9 @@
     <t>clock.o</t>
   </si>
   <si>
+    <t>portevent.o</t>
+  </si>
+  <si>
     <t>tim.o</t>
   </si>
   <si>
@@ -104,25 +119,31 @@
     <t>sfud_sfdp.o</t>
   </si>
   <si>
+    <t>printfa.o</t>
+  </si>
+  <si>
     <t>kservice.o</t>
   </si>
   <si>
-    <t>printfa.o</t>
-  </si>
-  <si>
     <t>oled_data.o</t>
   </si>
   <si>
+    <t>mf_w.l</t>
+  </si>
+  <si>
     <t>ipc.o</t>
   </si>
   <si>
+    <t>thread.o</t>
+  </si>
+  <si>
+    <t>ef_utils.o</t>
+  </si>
+  <si>
     <t>hmac_sha1.o</t>
   </si>
   <si>
-    <t>mf_w.l</t>
-  </si>
-  <si>
-    <t>thread.o</t>
+    <t>scanf_fp.o</t>
   </si>
   <si>
     <t>base64.o</t>
@@ -131,84 +152,96 @@
     <t>onenet.o</t>
   </si>
   <si>
+    <t>mbcrc.o</t>
+  </si>
+  <si>
     <t>stm32f10x_usart.o</t>
   </si>
   <si>
-    <t>ef_utils.o</t>
-  </si>
-  <si>
-    <t>scanf_fp.o</t>
+    <t>mbfuncholding.o</t>
+  </si>
+  <si>
+    <t>stm32f10x_dma.o</t>
+  </si>
+  <si>
+    <t>mallocr.o</t>
   </si>
   <si>
     <t>stm32f10x_i2c.o</t>
   </si>
   <si>
+    <t>dadd.o</t>
+  </si>
+  <si>
+    <t>board.o</t>
+  </si>
+  <si>
+    <t>mbfunccoils.o</t>
+  </si>
+  <si>
     <t>stm32f10x_rcc.o</t>
   </si>
   <si>
-    <t>stm32f10x_dma.o</t>
-  </si>
-  <si>
-    <t>board.o</t>
+    <t>context_rvds.o</t>
   </si>
   <si>
     <t>stm32f10x_tim.o</t>
   </si>
   <si>
+    <t>sys.o</t>
+  </si>
+  <si>
+    <t>dmul.o</t>
+  </si>
+  <si>
+    <t>ddiv.o</t>
+  </si>
+  <si>
     <t>stm32f10x_gpio.o</t>
   </si>
   <si>
-    <t>sys.o</t>
-  </si>
-  <si>
-    <t>mallocr.o</t>
-  </si>
-  <si>
-    <t>dadd.o</t>
-  </si>
-  <si>
     <t>myspi.o</t>
   </si>
   <si>
-    <t>context_rvds.o</t>
+    <t>depilogue.o</t>
+  </si>
+  <si>
+    <t>strtod.o</t>
+  </si>
+  <si>
+    <t>_strtoul.o</t>
+  </si>
+  <si>
+    <t>myiic.o</t>
+  </si>
+  <si>
+    <t>ctype_o.o</t>
+  </si>
+  <si>
+    <t>mbfuncdisc.o</t>
+  </si>
+  <si>
+    <t>misc.o</t>
+  </si>
+  <si>
+    <t>strtol.o</t>
+  </si>
+  <si>
+    <t>fepilogue.o</t>
   </si>
   <si>
     <t>stm32f10x_spi.o</t>
   </si>
   <si>
-    <t>dmul.o</t>
-  </si>
-  <si>
-    <t>ddiv.o</t>
-  </si>
-  <si>
-    <t>misc.o</t>
-  </si>
-  <si>
-    <t>depilogue.o</t>
-  </si>
-  <si>
-    <t>myiic.o</t>
-  </si>
-  <si>
-    <t>strtod.o</t>
-  </si>
-  <si>
-    <t>_strtoul.o</t>
-  </si>
-  <si>
-    <t>ctype_o.o</t>
-  </si>
-  <si>
-    <t>strtol.o</t>
-  </si>
-  <si>
-    <t>fepilogue.o</t>
+    <t>mbutils.o</t>
   </si>
   <si>
     <t>uldiv.o</t>
   </si>
   <si>
+    <t>mbfuncinput.o</t>
+  </si>
+  <si>
     <t>__dczerorl2.o</t>
   </si>
   <si>
@@ -221,10 +254,10 @@
     <t>d2f.o</t>
   </si>
   <si>
-    <t>dcmplt.o</t>
-  </si>
-  <si>
-    <t>dcmpgt.o</t>
+    <t>dcmple.o</t>
+  </si>
+  <si>
+    <t>dcmpge.o</t>
   </si>
   <si>
     <t>dfixul.o</t>
@@ -236,6 +269,9 @@
     <t>init.o</t>
   </si>
   <si>
+    <t>portserial.o</t>
+  </si>
+  <si>
     <t>uidiv.o</t>
   </si>
   <si>
@@ -284,30 +320,27 @@
     <t>strncpy.o</t>
   </si>
   <si>
-    <t>strcat.o</t>
-  </si>
-  <si>
     <t>strrchr.o</t>
   </si>
   <si>
     <t>strchr.o</t>
   </si>
   <si>
+    <t>isspace_o.o</t>
+  </si>
+  <si>
+    <t>strlen.o</t>
+  </si>
+  <si>
+    <t>tolower.o</t>
+  </si>
+  <si>
+    <t>stm32f10x_it.o</t>
+  </si>
+  <si>
     <t>main.o</t>
   </si>
   <si>
-    <t>isspace_o.o</t>
-  </si>
-  <si>
-    <t>stm32f10x_it.o</t>
-  </si>
-  <si>
-    <t>strlen.o</t>
-  </si>
-  <si>
-    <t>tolower.o</t>
-  </si>
-  <si>
     <t>entry9a.o</t>
   </si>
   <si>
@@ -315,6 +348,9 @@
   </si>
   <si>
     <t>entry5.o</t>
+  </si>
+  <si>
+    <t>porttimer.o</t>
   </si>
   <si>
     <t>File_name</t>
@@ -434,9 +470,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$103</c:f>
+              <c:f>ram_percent!$A$3:$A$115</c:f>
               <c:strCache>
-                <c:ptCount val="101"/>
+                <c:ptCount val="113"/>
                 <c:pt idx="0">
                   <c:v>at_task.o</c:v>
                 </c:pt>
@@ -444,81 +480,96 @@
                   <c:v>startup_stm32f10x_md.o</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>slave_mb_app.o</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>oled.o</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>uart.o</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>user_flash.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>at_function.o</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>components.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>mb.o</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>scheduler.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>sfud_port.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>mbrtu.o</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>idle.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>ef_env.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>ef_port.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>sfud.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>object.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
+                  <c:v>mbfuncother.o</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>cjson.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>mc_w.l</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>cpuport.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>timer.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>mvars.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>stdout.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>errno.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>system_stm32f10x.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>clock.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
+                  <c:v>portevent.o</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>tim.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>irq.o</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>easyflash.o</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="112">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -526,92 +577,107 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$103</c:f>
+              <c:f>ram_percent!$B$3:$B$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="113"/>
                 <c:pt idx="0">
-                  <c:v>26.33765029907227</c:v>
+                  <c:v>22.64349174499512</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.76374244689941</c:v>
+                  <c:v>16.13191223144531</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.55460548400879</c:v>
+                  <c:v>9.410282135009766</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.846078872680664</c:v>
+                  <c:v>9.074200630187988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.14805793762207</c:v>
+                  <c:v>8.512313842773438</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.720498561859131</c:v>
+                  <c:v>7.005198955535889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.036403656005859</c:v>
+                  <c:v>6.637609481811523</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.418763637542725</c:v>
+                  <c:v>6.049467086791992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.679697036743164</c:v>
+                  <c:v>3.014230966567993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.636941075325012</c:v>
+                  <c:v>2.079504251480103</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.563645243644714</c:v>
+                  <c:v>1.444100141525269</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.563645243644714</c:v>
+                  <c:v>1.407341241836548</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.7818226218223572</c:v>
+                  <c:v>1.386336207389832</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.7085267305374146</c:v>
+                  <c:v>1.344326019287109</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.6840947866439819</c:v>
+                  <c:v>1.323320865631104</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1221597865223885</c:v>
+                  <c:v>0.6721630096435547</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.09772782772779465</c:v>
+                  <c:v>0.6091477274894714</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.09772782772779465</c:v>
+                  <c:v>0.5881426334381104</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.07329586893320084</c:v>
+                  <c:v>0.1785432994365692</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.04886391386389732</c:v>
+                  <c:v>0.1050254702568054</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.02443195693194866</c:v>
+                  <c:v>0.08402037620544434</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.02443195693194866</c:v>
+                  <c:v>0.08402037620544434</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.02443195693194866</c:v>
+                  <c:v>0.06301528215408325</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.02443195693194866</c:v>
+                  <c:v>0.04201018810272217</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.006107989232987166</c:v>
+                  <c:v>0.02100509405136108</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.006107989232987166</c:v>
+                  <c:v>0.02100509405136108</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.006107989232987166</c:v>
-                </c:pt>
-                <c:pt idx="100">
+                  <c:v>0.02100509405136108</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.02100509405136108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.01050254702568054</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.005251273512840271</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.005251273512840271</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.005251273512840271</c:v>
+                </c:pt>
+                <c:pt idx="112">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -679,9 +745,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$103</c:f>
+              <c:f>flash_percent!$A$3:$A$115</c:f>
               <c:strCache>
-                <c:ptCount val="101"/>
+                <c:ptCount val="113"/>
                 <c:pt idx="0">
                   <c:v>ef_env.o</c:v>
                 </c:pt>
@@ -695,294 +761,330 @@
                   <c:v>sfud_sfdp.o</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>at_function.o</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>cjson.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>at_function.o</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>printfa.o</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>uart.o</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>kservice.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>printfa.o</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>uart.o</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>oled_data.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>mf_w.l</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>oled.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>oled_data.o</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>ipc.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>thread.o</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ef_utils.o</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>hmac_sha1.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>mf_w.l</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>thread.o</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
+                  <c:v>scanf_fp.o</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>base64.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>onenet.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
+                  <c:v>slave_mb_app.o</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>sfud_port.o</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mbcrc.o</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>timer.o</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>stm32f10x_usart.o</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>ef_utils.o</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>scanf_fp.o</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>sfud_port.o</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>stm32f10x_i2c.o</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>scheduler.o</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>stm32f10x_usart.o</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>mb.o</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>user_flash.o</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>mbfuncholding.o</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>stm32f10x_dma.o</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>mallocr.o</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>stm32f10x_i2c.o</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>dadd.o</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>board.o</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>mbfunccoils.o</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>stm32f10x_rcc.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>stm32f10x_dma.o</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>board.o</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>user_flash.o</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="35">
+                  <c:v>system_stm32f10x.o</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>startup_stm32f10x_md.o</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>tim.o</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>object.o</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>at_task.o</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>ef_port.o</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>context_rvds.o</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>mbrtu.o</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>components.o</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>stm32f10x_tim.o</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="45">
+                  <c:v>easyflash.o</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>sys.o</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>dmul.o</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>ddiv.o</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>stm32f10x_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>sys.o</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>object.o</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="50">
+                  <c:v>myspi.o</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>system_stm32f10x.o</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>ef_port.o</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>mallocr.o</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>tim.o</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>dadd.o</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>at_task.o</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>easyflash.o</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>myspi.o</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>components.o</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>startup_stm32f10x_md.o</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>context_rvds.o</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="52">
+                  <c:v>depilogue.o</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>strtod.o</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>_strtoul.o</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>myiic.o</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>ctype_o.o</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>mbfuncdisc.o</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>misc.o</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>strtol.o</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>fepilogue.o</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>stm32f10x_spi.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>dmul.o</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>ddiv.o</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="62">
+                  <c:v>mbutils.o</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>uldiv.o</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>mbfuncinput.o</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>cpuport.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>misc.o</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>depilogue.o</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>myiic.o</c:v>
-                </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="66">
+                  <c:v>__dczerorl2.o</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>portevent.o</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>idle.o</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>clock.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="70">
+                  <c:v>_sgetc.o</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>dfixi.o</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>d2f.o</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>irq.o</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>dcmple.o</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>dcmpge.o</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>dfixul.o</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>cdrcmple.o</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>init.o</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>portserial.o</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>uidiv.o</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>mbfuncother.o</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>strstr.o</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>memseta.o</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>memcpya.o</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>llsshr.o</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>llushr.o</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>m_ws.l</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>strncmp.o</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>llshl.o</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>handlers.o</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>strtod.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>_strtoul.o</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>ctype_o.o</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>strtol.o</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>fepilogue.o</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>uldiv.o</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>idle.o</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>__dczerorl2.o</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>irq.o</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>_sgetc.o</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>dfixi.o</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>d2f.o</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>dcmplt.o</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>dcmpgt.o</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>dfixul.o</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>cdrcmple.o</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>init.o</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>uidiv.o</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>strstr.o</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>memseta.o</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>memcpya.o</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>llsshr.o</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>llushr.o</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>m_ws.l</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>strncmp.o</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>llshl.o</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>handlers.o</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>strtod.o</c:v>
-                </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="92">
                   <c:v>strcmp.o</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="93">
                   <c:v>_chval.o</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="94">
                   <c:v>memcmp.o</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="95">
                   <c:v>atoi.o</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="96">
                   <c:v>dfltul.o</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="97">
                   <c:v>strncpy.o</c:v>
                 </c:pt>
-                <c:pt idx="86">
-                  <c:v>strcat.o</c:v>
-                </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="98">
                   <c:v>strrchr.o</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="99">
                   <c:v>strchr.o</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="100">
+                  <c:v>isspace_o.o</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>strlen.o</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>tolower.o</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>errno.o</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>stm32f10x_it.o</c:v>
+                </c:pt>
+                <c:pt idx="105">
                   <c:v>main.o</c:v>
                 </c:pt>
-                <c:pt idx="90">
-                  <c:v>isspace_o.o</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>stm32f10x_it.o</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>strlen.o</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>tolower.o</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>errno.o</c:v>
-                </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="106">
                   <c:v>mvars.o</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="107">
                   <c:v>entry9a.o</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="108">
                   <c:v>entry2.o</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="109">
                   <c:v>stdout.o</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="110">
                   <c:v>entry5.o</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="111">
+                  <c:v>porttimer.o</c:v>
+                </c:pt>
+                <c:pt idx="112">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -990,311 +1092,347 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$103</c:f>
+              <c:f>flash_percent!$B$3:$B$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="113"/>
                 <c:pt idx="0">
-                  <c:v>10.53578758239746</c:v>
+                  <c:v>11.08103084564209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.19768238067627</c:v>
+                  <c:v>10.49728393554688</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.011588096618652</c:v>
+                  <c:v>8.661443710327148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.137695789337158</c:v>
+                  <c:v>5.541361331939697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.044989585876465</c:v>
+                  <c:v>5.385695457458496</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.039536476135254</c:v>
+                  <c:v>4.827329635620117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.025903224945068</c:v>
+                  <c:v>4.118373394012451</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.318336725234985</c:v>
+                  <c:v>3.30451250076294</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.274710178375244</c:v>
+                  <c:v>3.113314390182495</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.920245409011841</c:v>
+                  <c:v>2.571868419647217</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.849352359771729</c:v>
+                  <c:v>2.412818670272827</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.353101491928101</c:v>
+                  <c:v>2.253768920898438</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.276755332946777</c:v>
+                  <c:v>2.020270347595215</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.944103598594666</c:v>
+                  <c:v>1.827380299568176</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.845944046974182</c:v>
+                  <c:v>1.810460090637207</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.788684368133545</c:v>
+                  <c:v>1.495744585990906</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.661895036697388</c:v>
+                  <c:v>1.485592484474182</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.562372207641602</c:v>
+                  <c:v>1.478824377059937</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.546012282371521</c:v>
+                  <c:v>1.306238532066345</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.496932506561279</c:v>
+                  <c:v>1.285934209823608</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.197000622749329</c:v>
+                  <c:v>1.106580257415772</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.154737591743469</c:v>
+                  <c:v>0.9847549200057983</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.11792778968811</c:v>
+                  <c:v>0.9407624006271362</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9897750616073608</c:v>
+                  <c:v>0.9035379886627197</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9134287834167481</c:v>
+                  <c:v>0.8798497319221497</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8561690449714661</c:v>
+                  <c:v>0.795248806476593</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8261758685112</c:v>
+                  <c:v>0.7664844989776611</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7702794671058655</c:v>
+                  <c:v>0.6937276721000671</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7225630283355713</c:v>
+                  <c:v>0.6294309496879578</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.717109739780426</c:v>
+                  <c:v>0.6091267466545105</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.635310173034668</c:v>
+                  <c:v>0.5989746451377869</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.632583498954773</c:v>
+                  <c:v>0.5651342868804932</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6134969592094421</c:v>
+                  <c:v>0.5482140779495239</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5507839322090149</c:v>
+                  <c:v>0.5143737196922302</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5180640816688538</c:v>
+                  <c:v>0.4737652540206909</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4907975494861603</c:v>
+                  <c:v>0.4602290987968445</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.456714391708374</c:v>
+                  <c:v>0.4602290987968445</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4553510546684265</c:v>
+                  <c:v>0.4483849704265595</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.441717803478241</c:v>
+                  <c:v>0.4297727644443512</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4321745038032532</c:v>
+                  <c:v>0.4263887107372284</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4226312339305878</c:v>
+                  <c:v>0.4128525853157044</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.384458065032959</c:v>
+                  <c:v>0.4128525853157044</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3708248138427734</c:v>
+                  <c:v>0.4027004539966583</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.332651674747467</c:v>
+                  <c:v>0.4010084569454193</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3190183937549591</c:v>
+                  <c:v>0.3959323763847351</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3108384311199188</c:v>
+                  <c:v>0.3942403793334961</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3026584982872009</c:v>
+                  <c:v>0.3891642987728119</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2699386477470398</c:v>
+                  <c:v>0.3857802748680115</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2644853293895721</c:v>
+                  <c:v>0.3756281733512878</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2535787224769592</c:v>
+                  <c:v>0.3688600957393646</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2344921678304672</c:v>
+                  <c:v>0.3620920181274414</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2317655086517334</c:v>
+                  <c:v>0.348555862903595</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2290388494729996</c:v>
+                  <c:v>0.3147154748439789</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2154055833816528</c:v>
+                  <c:v>0.2842591404914856</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.1922290325164795</c:v>
+                  <c:v>0.2673389613628388</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1526925712823868</c:v>
+                  <c:v>0.2436507046222687</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.149965912103653</c:v>
+                  <c:v>0.2385746389627457</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1336060017347336</c:v>
+                  <c:v>0.1962741762399674</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1254260390996933</c:v>
+                  <c:v>0.1928901374340057</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1172460839152336</c:v>
+                  <c:v>0.1895060986280441</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.09270620346069336</c:v>
+                  <c:v>0.1861220598220825</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.0872529000043869</c:v>
+                  <c:v>0.1827380210161209</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.08452624082565308</c:v>
+                  <c:v>0.1793539822101593</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.07634628564119339</c:v>
+                  <c:v>0.1658178418874741</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.07361963391304016</c:v>
+                  <c:v>0.1658178418874741</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.07361963391304016</c:v>
+                  <c:v>0.1624338030815125</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.06543967127799988</c:v>
+                  <c:v>0.1455136090517044</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.06543967127799988</c:v>
+                  <c:v>0.1421295702457428</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.06543967127799988</c:v>
+                  <c:v>0.1319774687290192</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.05998636782169342</c:v>
+                  <c:v>0.1184413135051727</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.04907975345849991</c:v>
+                  <c:v>0.1082891970872879</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.04907975345849991</c:v>
+                  <c:v>0.1049051657319069</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.04907975345849991</c:v>
+                  <c:v>0.09475304931402206</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.04907975345849991</c:v>
+                  <c:v>0.09475304931402206</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.04362645000219345</c:v>
+                  <c:v>0.09136901050806046</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.04089979454874992</c:v>
+                  <c:v>0.09136901050806046</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.04089979454874992</c:v>
+                  <c:v>0.08121690154075623</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.04089979454874992</c:v>
+                  <c:v>0.08121690154075623</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.04089979454874992</c:v>
+                  <c:v>0.08121690154075623</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.04089979454874992</c:v>
+                  <c:v>0.08121690154075623</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.0381731428205967</c:v>
+                  <c:v>0.07444882392883301</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.0381731428205967</c:v>
+                  <c:v>0.06429671496152878</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.03544649109244347</c:v>
+                  <c:v>0.06091267615556717</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.03544649109244347</c:v>
+                  <c:v>0.06091267615556717</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.03271983563899994</c:v>
+                  <c:v>0.06091267615556717</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.03271983563899994</c:v>
+                  <c:v>0.06091267615556717</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.03271983563899994</c:v>
+                  <c:v>0.05414459854364395</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.02999318391084671</c:v>
+                  <c:v>0.05076056346297264</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.02726653032004833</c:v>
+                  <c:v>0.05076056346297264</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.02726653032004833</c:v>
+                  <c:v>0.05076056346297264</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.02453987672924995</c:v>
+                  <c:v>0.05076056346297264</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.02453987672924995</c:v>
+                  <c:v>0.05076056346297264</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.01908657141029835</c:v>
+                  <c:v>0.04737652465701103</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.01635991781949997</c:v>
+                  <c:v>0.04737652465701103</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.01635991781949997</c:v>
+                  <c:v>0.04399248585104942</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.01090661250054836</c:v>
+                  <c:v>0.04399248585104942</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.01090661250054836</c:v>
+                  <c:v>0.04060845077037811</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.01090661250054836</c:v>
+                  <c:v>0.04060845077037811</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.005453306250274181</c:v>
+                  <c:v>0.0372244119644165</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.005453306250274181</c:v>
+                  <c:v>0.0338403731584549</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>0.03045633807778359</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.02368826232850552</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.02030422538518906</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.02030422538518906</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.02030422538518906</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.01692018657922745</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.01353614963591099</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.01353614963591099</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.01353614963591099</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.006768074817955494</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.006768074817955494</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.006768074817955494</c:v>
+                </c:pt>
+                <c:pt idx="112">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1399,8 +1537,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H103" totalsRowCount="1">
-  <autoFilter ref="A2:H102"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H115" totalsRowCount="1">
+  <autoFilter ref="A2:H114"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1416,8 +1554,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H103" totalsRowCount="1">
-  <autoFilter ref="A2:H102"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H115" totalsRowCount="1">
+  <autoFilter ref="A2:H114"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1717,7 +1855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1733,28 +1871,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="H2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1762,19 +1900,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>26.33765029907227</v>
+        <v>22.64349174499512</v>
       </c>
       <c r="C3" s="1">
         <v>4312</v>
       </c>
       <c r="D3" s="1">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="E3" s="1">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="F3" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -1788,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>18.76374244689941</v>
+        <v>16.13191223144531</v>
       </c>
       <c r="C4" s="1">
         <v>3072</v>
@@ -1814,25 +1952,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>10.55460548400879</v>
+        <v>9.410282135009766</v>
       </c>
       <c r="C5" s="1">
-        <v>1728</v>
+        <v>1792</v>
       </c>
       <c r="D5" s="1">
-        <v>2142</v>
+        <v>760</v>
       </c>
       <c r="E5" s="1">
-        <v>2042</v>
+        <v>756</v>
       </c>
       <c r="F5" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>1728</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1840,25 +1978,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>9.846078872680664</v>
+        <v>9.074200630187988</v>
       </c>
       <c r="C6" s="1">
-        <v>1612</v>
+        <v>1728</v>
       </c>
       <c r="D6" s="1">
-        <v>2402</v>
+        <v>1332</v>
       </c>
       <c r="E6" s="1">
-        <v>1608</v>
+        <v>1332</v>
       </c>
       <c r="F6" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>832</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1866,25 +2004,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>8.14805793762207</v>
+        <v>8.512313842773438</v>
       </c>
       <c r="C7" s="1">
-        <v>1334</v>
+        <v>1621</v>
       </c>
       <c r="D7" s="1">
-        <v>565</v>
+        <v>1953</v>
       </c>
       <c r="E7" s="1">
-        <v>432</v>
+        <v>1164</v>
       </c>
       <c r="F7" s="1">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>66</v>
+        <v>789</v>
       </c>
       <c r="H7" s="1">
-        <v>1268</v>
+        <v>832</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1892,25 +2030,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>7.720498561859131</v>
+        <v>7.005198955535889</v>
       </c>
       <c r="C8" s="1">
-        <v>1264</v>
+        <v>1334</v>
       </c>
       <c r="D8" s="1">
-        <v>4430</v>
+        <v>453</v>
       </c>
       <c r="E8" s="1">
-        <v>3070</v>
+        <v>340</v>
       </c>
       <c r="F8" s="1">
-        <v>544</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1">
-        <v>816</v>
+        <v>66</v>
       </c>
       <c r="H8" s="1">
-        <v>448</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1918,25 +2056,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>7.036403656005859</v>
+        <v>6.637609481811523</v>
       </c>
       <c r="C9" s="1">
-        <v>1152</v>
+        <v>1264</v>
       </c>
       <c r="D9" s="1">
-        <v>282</v>
+        <v>3183</v>
       </c>
       <c r="E9" s="1">
-        <v>266</v>
+        <v>2054</v>
       </c>
       <c r="F9" s="1">
-        <v>16</v>
+        <v>313</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>816</v>
       </c>
       <c r="H9" s="1">
-        <v>1152</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1944,25 +2082,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>2.418763637542725</v>
+        <v>6.049467086791992</v>
       </c>
       <c r="C10" s="1">
-        <v>396</v>
+        <v>1152</v>
       </c>
       <c r="D10" s="1">
-        <v>450</v>
+        <v>237</v>
       </c>
       <c r="E10" s="1">
-        <v>442</v>
+        <v>216</v>
       </c>
       <c r="F10" s="1">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>396</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1970,25 +2108,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1.679697036743164</v>
+        <v>3.014230966567993</v>
       </c>
       <c r="C11" s="1">
-        <v>275</v>
+        <v>574</v>
       </c>
       <c r="D11" s="1">
-        <v>726</v>
+        <v>470</v>
       </c>
       <c r="E11" s="1">
-        <v>726</v>
+        <v>342</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="H11" s="1">
-        <v>275</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1996,25 +2134,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>1.636941075325012</v>
+        <v>2.079504251480103</v>
       </c>
       <c r="C12" s="1">
-        <v>268</v>
+        <v>396</v>
       </c>
       <c r="D12" s="1">
-        <v>847</v>
+        <v>206</v>
       </c>
       <c r="E12" s="1">
-        <v>750</v>
+        <v>206</v>
       </c>
       <c r="F12" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>256</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2022,25 +2160,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>1.563645243644714</v>
+        <v>1.444100141525269</v>
       </c>
       <c r="C13" s="1">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="D13" s="1">
-        <v>92</v>
+        <v>534</v>
       </c>
       <c r="E13" s="1">
-        <v>86</v>
+        <v>534</v>
       </c>
       <c r="F13" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>256</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2048,22 +2186,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>1.563645243644714</v>
+        <v>1.407341241836548</v>
       </c>
       <c r="C14" s="1">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D14" s="1">
-        <v>7728</v>
+        <v>654</v>
       </c>
       <c r="E14" s="1">
-        <v>7232</v>
+        <v>590</v>
       </c>
       <c r="F14" s="1">
-        <v>496</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H14" s="1">
         <v>256</v>
@@ -2074,25 +2212,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.7818226218223572</v>
+        <v>1.386336207389832</v>
       </c>
       <c r="C15" s="1">
-        <v>128</v>
+        <v>264</v>
       </c>
       <c r="D15" s="1">
-        <v>380</v>
+        <v>238</v>
       </c>
       <c r="E15" s="1">
-        <v>372</v>
+        <v>238</v>
       </c>
       <c r="F15" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>128</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2100,25 +2238,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.7085267305374146</v>
+        <v>1.344326019287109</v>
       </c>
       <c r="C16" s="1">
-        <v>116</v>
+        <v>256</v>
       </c>
       <c r="D16" s="1">
-        <v>7480</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1">
-        <v>5492</v>
+        <v>78</v>
       </c>
       <c r="F16" s="1">
-        <v>1872</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2126,25 +2264,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.6840947866439819</v>
+        <v>1.323320865631104</v>
       </c>
       <c r="C17" s="1">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="D17" s="1">
-        <v>464</v>
+        <v>6549</v>
       </c>
       <c r="E17" s="1">
-        <v>352</v>
+        <v>6374</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="G17" s="1">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2152,25 +2290,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.1221597865223885</v>
+        <v>0.6721630096435547</v>
       </c>
       <c r="C18" s="1">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="D18" s="1">
-        <v>4434</v>
+        <v>244</v>
       </c>
       <c r="E18" s="1">
-        <v>4366</v>
+        <v>244</v>
       </c>
       <c r="F18" s="1">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2178,22 +2316,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.09772782772779465</v>
+        <v>0.6091477274894714</v>
       </c>
       <c r="C19" s="1">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>5143</v>
+        <v>6204</v>
       </c>
       <c r="E19" s="1">
-        <v>4994</v>
+        <v>4876</v>
       </c>
       <c r="F19" s="1">
-        <v>133</v>
+        <v>1212</v>
       </c>
       <c r="G19" s="1">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -2204,25 +2342,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.09772782772779465</v>
+        <v>0.5881426334381104</v>
       </c>
       <c r="C20" s="1">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="D20" s="1">
-        <v>198</v>
+        <v>254</v>
       </c>
       <c r="E20" s="1">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="H20" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2230,16 +2368,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.07329586893320084</v>
+        <v>0.1785432994365692</v>
       </c>
       <c r="C21" s="1">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1">
-        <v>1146</v>
+        <v>38</v>
       </c>
       <c r="E21" s="1">
-        <v>1146</v>
+        <v>38</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2248,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2256,25 +2394,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.04886391386389732</v>
+        <v>0.1050254702568054</v>
       </c>
       <c r="C22" s="1">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2853</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2822</v>
+      </c>
+      <c r="F22" s="1">
+        <v>19</v>
+      </c>
+      <c r="G22" s="1">
+        <v>12</v>
+      </c>
+      <c r="H22" s="1">
         <v>8</v>
-      </c>
-      <c r="D22" s="1">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>8</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2282,22 +2420,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0.02443195693194866</v>
+        <v>0.08402037620544434</v>
       </c>
       <c r="C23" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1">
-        <v>4</v>
+        <v>5119</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>4970</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="G23" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -2308,25 +2446,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>0.02443195693194866</v>
+        <v>0.08402037620544434</v>
       </c>
       <c r="C24" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E24" s="1">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2334,25 +2472,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>0.02443195693194866</v>
+        <v>0.06301528215408325</v>
       </c>
       <c r="C25" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1">
-        <v>404</v>
+        <v>556</v>
       </c>
       <c r="E25" s="1">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2360,25 +2498,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>0.02443195693194866</v>
+        <v>0.04201018810272217</v>
       </c>
       <c r="C26" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="E26" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H26" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2386,25 +2524,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>0.006107989232987166</v>
+        <v>0.02100509405136108</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1">
-        <v>335</v>
+        <v>4</v>
       </c>
       <c r="E27" s="1">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2412,25 +2550,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>0.006107989232987166</v>
+        <v>0.02100509405136108</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E28" s="1">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2438,56 +2576,186 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>0.006107989232987166</v>
+        <v>0.02100509405136108</v>
       </c>
       <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>272</v>
+      </c>
+      <c r="E29" s="1">
+        <v>268</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.02100509405136108</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>70</v>
+      </c>
+      <c r="E30" s="1">
+        <v>70</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.01050254702568054</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>84</v>
+      </c>
+      <c r="E31" s="1">
+        <v>84</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.005251273512840271</v>
+      </c>
+      <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="1">
-        <v>317</v>
-      </c>
-      <c r="E29" s="1">
-        <v>164</v>
-      </c>
-      <c r="F29" s="1">
-        <v>153</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
+      <c r="D32" s="1">
+        <v>265</v>
+      </c>
+      <c r="E32" s="1">
+        <v>260</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103">
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.005251273512840271</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>56</v>
+      </c>
+      <c r="E33" s="1">
+        <v>56</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.005251273512840271</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>233</v>
+      </c>
+      <c r="E34" s="1">
+        <v>160</v>
+      </c>
+      <c r="F34" s="1">
+        <v>73</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C103">
+      <c r="C115">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D103">
+      <c r="D115">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E103">
+      <c r="E115">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F103">
+      <c r="F115">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G103">
+      <c r="G115">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H103">
+      <c r="H115">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -2503,7 +2771,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2519,74 +2787,74 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="H2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>10.53578758239746</v>
+        <v>11.08103084564209</v>
       </c>
       <c r="C3" s="1">
-        <v>7728</v>
+        <v>6549</v>
       </c>
       <c r="D3" s="1">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E3" s="1">
-        <v>7232</v>
+        <v>6374</v>
       </c>
       <c r="F3" s="1">
-        <v>496</v>
+        <v>175</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
-        <v>10.19768238067627</v>
+        <v>10.49728393554688</v>
       </c>
       <c r="C4" s="1">
-        <v>7480</v>
+        <v>6204</v>
       </c>
       <c r="D4" s="1">
         <v>116</v>
       </c>
       <c r="E4" s="1">
-        <v>5492</v>
+        <v>4876</v>
       </c>
       <c r="F4" s="1">
-        <v>1872</v>
+        <v>1212</v>
       </c>
       <c r="G4" s="1">
         <v>116</v>
@@ -2597,19 +2865,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>7.011588096618652</v>
+        <v>8.661443710327148</v>
       </c>
       <c r="C5" s="1">
-        <v>5143</v>
+        <v>5119</v>
       </c>
       <c r="D5" s="1">
         <v>16</v>
       </c>
       <c r="E5" s="1">
-        <v>4994</v>
+        <v>4970</v>
       </c>
       <c r="F5" s="1">
         <v>133</v>
@@ -2623,22 +2891,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2">
-        <v>6.137695789337158</v>
+        <v>5.541361331939697</v>
       </c>
       <c r="C6" s="1">
-        <v>4502</v>
+        <v>3275</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>2650</v>
+        <v>1684</v>
       </c>
       <c r="F6" s="1">
-        <v>1852</v>
+        <v>1591</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -2649,74 +2917,74 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>6.044989585876465</v>
+        <v>5.385695457458496</v>
       </c>
       <c r="C7" s="1">
-        <v>4434</v>
+        <v>3183</v>
       </c>
       <c r="D7" s="1">
-        <v>20</v>
+        <v>1264</v>
       </c>
       <c r="E7" s="1">
-        <v>4366</v>
+        <v>2054</v>
       </c>
       <c r="F7" s="1">
-        <v>56</v>
+        <v>313</v>
       </c>
       <c r="G7" s="1">
-        <v>12</v>
+        <v>816</v>
       </c>
       <c r="H7" s="1">
-        <v>8</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>6.039536476135254</v>
+        <v>4.827329635620117</v>
       </c>
       <c r="C8" s="1">
-        <v>4430</v>
+        <v>2853</v>
       </c>
       <c r="D8" s="1">
-        <v>1264</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1">
-        <v>3070</v>
+        <v>2822</v>
       </c>
       <c r="F8" s="1">
-        <v>544</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1">
-        <v>816</v>
+        <v>12</v>
       </c>
       <c r="H8" s="1">
-        <v>448</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2">
-        <v>4.025903224945068</v>
+        <v>4.118373394012451</v>
       </c>
       <c r="C9" s="1">
-        <v>2953</v>
+        <v>2434</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>2656</v>
+        <v>2434</v>
       </c>
       <c r="F9" s="1">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -2727,100 +2995,100 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>3.318336725234985</v>
+        <v>3.30451250076294</v>
       </c>
       <c r="C10" s="1">
-        <v>2434</v>
+        <v>1953</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1621</v>
       </c>
       <c r="E10" s="1">
-        <v>2434</v>
+        <v>1164</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>789</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>832</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2">
-        <v>3.274710178375244</v>
+        <v>3.113314390182495</v>
       </c>
       <c r="C11" s="1">
-        <v>2402</v>
+        <v>1840</v>
       </c>
       <c r="D11" s="1">
-        <v>1612</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1608</v>
+        <v>1584</v>
       </c>
       <c r="F11" s="1">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="G11" s="1">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2">
-        <v>2.920245409011841</v>
+        <v>2.571868419647217</v>
       </c>
       <c r="C12" s="1">
-        <v>2142</v>
+        <v>1520</v>
       </c>
       <c r="D12" s="1">
-        <v>1728</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>2042</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>100</v>
+        <v>1520</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>1728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2">
-        <v>2.849352359771729</v>
+        <v>2.412818670272827</v>
       </c>
       <c r="C13" s="1">
-        <v>2090</v>
+        <v>1426</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>1426</v>
       </c>
       <c r="F13" s="1">
-        <v>2090</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -2831,19 +3099,19 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>2.353101491928101</v>
+        <v>2.253768920898438</v>
       </c>
       <c r="C14" s="1">
-        <v>1726</v>
+        <v>1332</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1728</v>
       </c>
       <c r="E14" s="1">
-        <v>1726</v>
+        <v>1332</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2852,24 +3120,24 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2">
-        <v>2.276755332946777</v>
+        <v>2.020270347595215</v>
       </c>
       <c r="C15" s="1">
-        <v>1670</v>
+        <v>1194</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1670</v>
+        <v>1194</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2883,19 +3151,19 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2">
-        <v>1.944103598594666</v>
+        <v>1.827380299568176</v>
       </c>
       <c r="C16" s="1">
-        <v>1426</v>
+        <v>1080</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1426</v>
+        <v>1080</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2909,22 +3177,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2">
-        <v>1.845944046974182</v>
+        <v>1.810460090637207</v>
       </c>
       <c r="C17" s="1">
-        <v>1354</v>
+        <v>1070</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>1354</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -2935,22 +3203,22 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2">
-        <v>1.788684368133545</v>
+        <v>1.495744585990906</v>
       </c>
       <c r="C18" s="1">
-        <v>1312</v>
+        <v>884</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>1120</v>
+        <v>884</v>
       </c>
       <c r="F18" s="1">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -2961,22 +3229,22 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2">
-        <v>1.661895036697388</v>
+        <v>1.485592484474182</v>
       </c>
       <c r="C19" s="1">
-        <v>1219</v>
+        <v>878</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>1004</v>
+        <v>878</v>
       </c>
       <c r="F19" s="1">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -2987,48 +3255,48 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2">
-        <v>1.562372207641602</v>
+        <v>1.478824377059937</v>
       </c>
       <c r="C20" s="1">
-        <v>1146</v>
+        <v>874</v>
       </c>
       <c r="D20" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>1146</v>
+        <v>682</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2">
-        <v>1.546012282371521</v>
+        <v>1.306238532066345</v>
       </c>
       <c r="C21" s="1">
-        <v>1134</v>
+        <v>772</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>1134</v>
+        <v>696</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -3039,97 +3307,97 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B22" s="2">
-        <v>1.496932506561279</v>
+        <v>1.285934209823608</v>
       </c>
       <c r="C22" s="1">
-        <v>1098</v>
+        <v>760</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>1792</v>
       </c>
       <c r="E22" s="1">
-        <v>74</v>
+        <v>756</v>
       </c>
       <c r="F22" s="1">
-        <v>1024</v>
+        <v>4</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B23" s="2">
-        <v>1.197000622749329</v>
+        <v>1.106580257415772</v>
       </c>
       <c r="C23" s="1">
-        <v>878</v>
+        <v>654</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="E23" s="1">
-        <v>878</v>
+        <v>590</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2">
-        <v>1.154737591743469</v>
+        <v>0.9847549200057983</v>
       </c>
       <c r="C24" s="1">
-        <v>847</v>
+        <v>582</v>
       </c>
       <c r="D24" s="1">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>750</v>
+        <v>70</v>
       </c>
       <c r="F24" s="1">
-        <v>85</v>
+        <v>512</v>
       </c>
       <c r="G24" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>1.11792778968811</v>
+        <v>0.9407624006271362</v>
       </c>
       <c r="C25" s="1">
-        <v>820</v>
+        <v>556</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E25" s="1">
-        <v>820</v>
+        <v>556</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -3138,24 +3406,24 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9897750616073608</v>
+        <v>0.9035379886627197</v>
       </c>
       <c r="C26" s="1">
-        <v>726</v>
+        <v>534</v>
       </c>
       <c r="D26" s="1">
         <v>275</v>
       </c>
       <c r="E26" s="1">
-        <v>726</v>
+        <v>534</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -3169,22 +3437,22 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2">
-        <v>0.9134287834167481</v>
+        <v>0.8798497319221497</v>
       </c>
       <c r="C27" s="1">
-        <v>670</v>
+        <v>520</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>650</v>
+        <v>520</v>
       </c>
       <c r="F27" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -3195,97 +3463,97 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8561690449714661</v>
+        <v>0.795248806476593</v>
       </c>
       <c r="C28" s="1">
-        <v>628</v>
+        <v>470</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="E28" s="1">
-        <v>628</v>
+        <v>342</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2">
-        <v>0.8261758685112</v>
+        <v>0.7664844989776611</v>
       </c>
       <c r="C29" s="1">
-        <v>606</v>
+        <v>453</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>1334</v>
       </c>
       <c r="E29" s="1">
-        <v>606</v>
+        <v>340</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7702794671058655</v>
+        <v>0.6937276721000671</v>
       </c>
       <c r="C30" s="1">
-        <v>565</v>
+        <v>410</v>
       </c>
       <c r="D30" s="1">
-        <v>1334</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="F30" s="1">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>1268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7225630283355713</v>
+        <v>0.6294309496879578</v>
       </c>
       <c r="C31" s="1">
-        <v>530</v>
+        <v>372</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>530</v>
+        <v>372</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -3299,19 +3567,19 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2">
-        <v>0.717109739780426</v>
+        <v>0.6091267466545105</v>
       </c>
       <c r="C32" s="1">
-        <v>526</v>
+        <v>360</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>526</v>
+        <v>360</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -3325,22 +3593,22 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2">
-        <v>0.635310173034668</v>
+        <v>0.5989746451377869</v>
       </c>
       <c r="C33" s="1">
-        <v>466</v>
+        <v>354</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>462</v>
+        <v>354</v>
       </c>
       <c r="F33" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -3351,25 +3619,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2">
-        <v>0.632583498954773</v>
+        <v>0.5651342868804932</v>
       </c>
       <c r="C34" s="1">
-        <v>464</v>
+        <v>334</v>
       </c>
       <c r="D34" s="1">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -3377,51 +3645,51 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6134969592094421</v>
+        <v>0.5482140779495239</v>
       </c>
       <c r="C35" s="1">
-        <v>450</v>
+        <v>324</v>
       </c>
       <c r="D35" s="1">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>442</v>
+        <v>324</v>
       </c>
       <c r="F35" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2">
-        <v>0.5507839322090149</v>
+        <v>0.5143737196922302</v>
       </c>
       <c r="C36" s="1">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="D36" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>400</v>
+        <v>304</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -3429,51 +3697,51 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2">
-        <v>0.5180640816688538</v>
+        <v>0.4737652540206909</v>
       </c>
       <c r="C37" s="1">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="D37" s="1">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>372</v>
+        <v>260</v>
       </c>
       <c r="F37" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4907975494861603</v>
+        <v>0.4602290987968445</v>
       </c>
       <c r="C38" s="1">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E38" s="1">
-        <v>360</v>
+        <v>268</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -3481,123 +3749,123 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B39" s="2">
-        <v>0.456714391708374</v>
+        <v>0.4602290987968445</v>
       </c>
       <c r="C39" s="1">
-        <v>335</v>
+        <v>272</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>3072</v>
       </c>
       <c r="E39" s="1">
-        <v>316</v>
+        <v>36</v>
       </c>
       <c r="F39" s="1">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>1</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4553510546684265</v>
+        <v>0.4483849704265595</v>
       </c>
       <c r="C40" s="1">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1">
-        <v>334</v>
+        <v>260</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B41" s="2">
-        <v>0.441717803478241</v>
+        <v>0.4297727644443512</v>
       </c>
       <c r="C41" s="1">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="D41" s="1">
-        <v>4312</v>
+        <v>112</v>
       </c>
       <c r="E41" s="1">
-        <v>300</v>
+        <v>142</v>
       </c>
       <c r="F41" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="H41" s="1">
-        <v>4312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4321745038032532</v>
+        <v>0.4263887107372284</v>
       </c>
       <c r="C42" s="1">
-        <v>317</v>
+        <v>252</v>
       </c>
       <c r="D42" s="1">
-        <v>1</v>
+        <v>4312</v>
       </c>
       <c r="E42" s="1">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F42" s="1">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>1</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4226312339305878</v>
+        <v>0.4128525853157044</v>
       </c>
       <c r="C43" s="1">
-        <v>310</v>
+        <v>244</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E43" s="1">
-        <v>310</v>
+        <v>244</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -3606,93 +3874,93 @@
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2">
-        <v>0.384458065032959</v>
+        <v>0.4128525853157044</v>
       </c>
       <c r="C44" s="1">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="D44" s="1">
-        <v>1152</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="F44" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>1152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3708248138427734</v>
+        <v>0.4027004539966583</v>
       </c>
       <c r="C45" s="1">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="D45" s="1">
-        <v>3072</v>
+        <v>264</v>
       </c>
       <c r="E45" s="1">
-        <v>36</v>
+        <v>238</v>
       </c>
       <c r="F45" s="1">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <v>3072</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B46" s="2">
-        <v>0.332651674747467</v>
+        <v>0.4010084569454193</v>
       </c>
       <c r="C46" s="1">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="E46" s="1">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>0</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3190183937549591</v>
+        <v>0.3959323763847351</v>
       </c>
       <c r="C47" s="1">
         <v>234</v>
@@ -3715,48 +3983,48 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B48" s="2">
-        <v>0.3108384311199188</v>
+        <v>0.3942403793334961</v>
       </c>
       <c r="C48" s="1">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="1">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3026584982872009</v>
+        <v>0.3891642987728119</v>
       </c>
       <c r="C49" s="1">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F49" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -3767,19 +4035,19 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2699386477470398</v>
+        <v>0.3857802748680115</v>
       </c>
       <c r="C50" s="1">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="D50" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -3788,24 +4056,24 @@
         <v>0</v>
       </c>
       <c r="H50" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2644853293895721</v>
+        <v>0.3756281733512878</v>
       </c>
       <c r="C51" s="1">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -3819,19 +4087,19 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2535787224769592</v>
+        <v>0.3688600957393646</v>
       </c>
       <c r="C52" s="1">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -3845,19 +4113,19 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2344921678304672</v>
+        <v>0.3620920181274414</v>
       </c>
       <c r="C53" s="1">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -3871,19 +4139,19 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2317655086517334</v>
+        <v>0.348555862903595</v>
       </c>
       <c r="C54" s="1">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="D54" s="1">
-        <v>4</v>
+        <v>396</v>
       </c>
       <c r="E54" s="1">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -3892,24 +4160,24 @@
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <v>4</v>
+        <v>396</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2290388494729996</v>
+        <v>0.3147154748439789</v>
       </c>
       <c r="C55" s="1">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -3923,19 +4191,19 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2154055833816528</v>
+        <v>0.2842591404914856</v>
       </c>
       <c r="C56" s="1">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3949,22 +4217,22 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B57" s="2">
-        <v>0.1922290325164795</v>
+        <v>0.2673389613628388</v>
       </c>
       <c r="C57" s="1">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="F57" s="1">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -3975,19 +4243,19 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B58" s="2">
-        <v>0.1526925712823868</v>
+        <v>0.2436507046222687</v>
       </c>
       <c r="C58" s="1">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -4001,22 +4269,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B59" s="2">
-        <v>0.149965912103653</v>
+        <v>0.2385746389627457</v>
       </c>
       <c r="C59" s="1">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="F59" s="1">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -4027,19 +4295,19 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1336060017347336</v>
+        <v>0.1962741762399674</v>
       </c>
       <c r="C60" s="1">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -4053,45 +4321,45 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1254260390996933</v>
+        <v>0.1928901374340057</v>
       </c>
       <c r="C61" s="1">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D61" s="1">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F61" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1172460839152336</v>
+        <v>0.1895060986280441</v>
       </c>
       <c r="C62" s="1">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -4105,19 +4373,19 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B63" s="2">
-        <v>0.09270620346069336</v>
+        <v>0.1861220598220825</v>
       </c>
       <c r="C63" s="1">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="D63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -4126,24 +4394,24 @@
         <v>0</v>
       </c>
       <c r="H63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B64" s="2">
-        <v>0.0872529000043869</v>
+        <v>0.1827380210161209</v>
       </c>
       <c r="C64" s="1">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -4157,19 +4425,19 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B65" s="2">
-        <v>0.08452624082565308</v>
+        <v>0.1793539822101593</v>
       </c>
       <c r="C65" s="1">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -4183,19 +4451,19 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B66" s="2">
-        <v>0.07634628564119339</v>
+        <v>0.1658178418874741</v>
       </c>
       <c r="C66" s="1">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -4209,19 +4477,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B67" s="2">
-        <v>0.07361963391304016</v>
+        <v>0.1658178418874741</v>
       </c>
       <c r="C67" s="1">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -4235,19 +4503,19 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B68" s="2">
-        <v>0.07361963391304016</v>
+        <v>0.1624338030815125</v>
       </c>
       <c r="C68" s="1">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E68" s="1">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -4256,24 +4524,24 @@
         <v>0</v>
       </c>
       <c r="H68" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69" s="2">
-        <v>0.06543967127799988</v>
+        <v>0.1455136090517044</v>
       </c>
       <c r="C69" s="1">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -4287,19 +4555,19 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B70" s="2">
-        <v>0.06543967127799988</v>
+        <v>0.1421295702457428</v>
       </c>
       <c r="C70" s="1">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E70" s="1">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -4308,24 +4576,24 @@
         <v>0</v>
       </c>
       <c r="H70" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="B71" s="2">
-        <v>0.06543967127799988</v>
+        <v>0.1319774687290192</v>
       </c>
       <c r="C71" s="1">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="E71" s="1">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -4334,24 +4602,24 @@
         <v>0</v>
       </c>
       <c r="H71" s="1">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B72" s="2">
-        <v>0.05998636782169342</v>
+        <v>0.1184413135051727</v>
       </c>
       <c r="C72" s="1">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E72" s="1">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -4360,24 +4628,24 @@
         <v>0</v>
       </c>
       <c r="H72" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73" s="2">
-        <v>0.04907975345849991</v>
+        <v>0.1082891970872879</v>
       </c>
       <c r="C73" s="1">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -4391,19 +4659,19 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74" s="2">
-        <v>0.04907975345849991</v>
+        <v>0.1049051657319069</v>
       </c>
       <c r="C74" s="1">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -4417,19 +4685,19 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75" s="2">
-        <v>0.04907975345849991</v>
+        <v>0.09475304931402206</v>
       </c>
       <c r="C75" s="1">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -4443,19 +4711,19 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="B76" s="2">
-        <v>0.04907975345849991</v>
+        <v>0.09475304931402206</v>
       </c>
       <c r="C76" s="1">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="1">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -4464,24 +4732,24 @@
         <v>0</v>
       </c>
       <c r="H76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>0.04362645000219345</v>
+        <v>0.09136901050806046</v>
       </c>
       <c r="C77" s="1">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -4495,19 +4763,19 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>0.04089979454874992</v>
+        <v>0.09136901050806046</v>
       </c>
       <c r="C78" s="1">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -4521,19 +4789,19 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>0.04089979454874992</v>
+        <v>0.08121690154075623</v>
       </c>
       <c r="C79" s="1">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -4547,19 +4815,19 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>0.04089979454874992</v>
+        <v>0.08121690154075623</v>
       </c>
       <c r="C80" s="1">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -4573,19 +4841,19 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>0.04089979454874992</v>
+        <v>0.08121690154075623</v>
       </c>
       <c r="C81" s="1">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -4599,19 +4867,19 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>0.04089979454874992</v>
+        <v>0.08121690154075623</v>
       </c>
       <c r="C82" s="1">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -4625,19 +4893,19 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>0.0381731428205967</v>
+        <v>0.07444882392883301</v>
       </c>
       <c r="C83" s="1">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -4651,19 +4919,19 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="B84" s="2">
-        <v>0.0381731428205967</v>
+        <v>0.06429671496152878</v>
       </c>
       <c r="C84" s="1">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D84" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E84" s="1">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -4672,24 +4940,24 @@
         <v>0</v>
       </c>
       <c r="H84" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85" s="2">
-        <v>0.03544649109244347</v>
+        <v>0.06091267615556717</v>
       </c>
       <c r="C85" s="1">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -4703,19 +4971,19 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2">
-        <v>0.03544649109244347</v>
+        <v>0.06091267615556717</v>
       </c>
       <c r="C86" s="1">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -4729,19 +4997,19 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2">
-        <v>0.03271983563899994</v>
+        <v>0.06091267615556717</v>
       </c>
       <c r="C87" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -4755,19 +5023,19 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2">
-        <v>0.03271983563899994</v>
+        <v>0.06091267615556717</v>
       </c>
       <c r="C88" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -4781,19 +5049,19 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2">
-        <v>0.03271983563899994</v>
+        <v>0.05414459854364395</v>
       </c>
       <c r="C89" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -4807,19 +5075,19 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2">
-        <v>0.02999318391084671</v>
+        <v>0.05076056346297264</v>
       </c>
       <c r="C90" s="1">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
@@ -4833,19 +5101,19 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2">
-        <v>0.02726653032004833</v>
+        <v>0.05076056346297264</v>
       </c>
       <c r="C91" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -4859,19 +5127,19 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2">
-        <v>0.02726653032004833</v>
+        <v>0.05076056346297264</v>
       </c>
       <c r="C92" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -4885,19 +5153,19 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2">
-        <v>0.02453987672924995</v>
+        <v>0.05076056346297264</v>
       </c>
       <c r="C93" s="1">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
       </c>
       <c r="E93" s="1">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
@@ -4911,19 +5179,19 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="B94" s="2">
-        <v>0.02453987672924995</v>
+        <v>0.05076056346297264</v>
       </c>
       <c r="C94" s="1">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
       </c>
       <c r="E94" s="1">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
@@ -4940,16 +5208,16 @@
         <v>95</v>
       </c>
       <c r="B95" s="2">
-        <v>0.01908657141029835</v>
+        <v>0.04737652465701103</v>
       </c>
       <c r="C95" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -4966,16 +5234,16 @@
         <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>0.01635991781949997</v>
+        <v>0.04737652465701103</v>
       </c>
       <c r="C96" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
       </c>
       <c r="E96" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
@@ -4989,25 +5257,25 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2">
-        <v>0.01635991781949997</v>
+        <v>0.04399248585104942</v>
       </c>
       <c r="C97" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D97" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
       </c>
       <c r="G97" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H97" s="1">
         <v>0</v>
@@ -5015,25 +5283,25 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2">
-        <v>0.01090661250054836</v>
+        <v>0.04399248585104942</v>
       </c>
       <c r="C98" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D98" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E98" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F98" s="1">
         <v>0</v>
       </c>
       <c r="G98" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H98" s="1">
         <v>0</v>
@@ -5041,19 +5309,19 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B99" s="2">
-        <v>0.01090661250054836</v>
+        <v>0.04060845077037811</v>
       </c>
       <c r="C99" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -5067,19 +5335,19 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2">
-        <v>0.01090661250054836</v>
+        <v>0.04060845077037811</v>
       </c>
       <c r="C100" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
@@ -5093,25 +5361,25 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="B101" s="2">
-        <v>0.005453306250274181</v>
+        <v>0.0372244119644165</v>
       </c>
       <c r="C101" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D101" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F101" s="1">
         <v>0</v>
       </c>
       <c r="G101" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H101" s="1">
         <v>0</v>
@@ -5119,59 +5387,371 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B102" s="2">
-        <v>0.005453306250274181</v>
+        <v>0.0338403731584549</v>
       </c>
       <c r="C102" s="1">
+        <v>20</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1">
+        <v>20</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0.03045633807778359</v>
+      </c>
+      <c r="C103" s="1">
+        <v>18</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1">
+        <v>18</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0.02368826232850552</v>
+      </c>
+      <c r="C104" s="1">
+        <v>14</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1">
+        <v>14</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0.02030422538518906</v>
+      </c>
+      <c r="C105" s="1">
+        <v>12</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1">
+        <v>12</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" s="2">
+        <v>0.02030422538518906</v>
+      </c>
+      <c r="C106" s="1">
+        <v>12</v>
+      </c>
+      <c r="D106" s="1">
         <v>4</v>
       </c>
-      <c r="D102" s="1">
-        <v>0</v>
-      </c>
-      <c r="E102" s="1">
+      <c r="E106" s="1">
+        <v>8</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
         <v>4</v>
       </c>
-      <c r="F102" s="1">
-        <v>0</v>
-      </c>
-      <c r="G102" s="1">
-        <v>0</v>
-      </c>
-      <c r="H102" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103">
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0.02030422538518906</v>
+      </c>
+      <c r="C107" s="1">
+        <v>12</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1">
+        <v>12</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0.01692018657922745</v>
+      </c>
+      <c r="C108" s="1">
+        <v>10</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1">
+        <v>10</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109" s="2">
+        <v>0.01353614963591099</v>
+      </c>
+      <c r="C109" s="1">
+        <v>8</v>
+      </c>
+      <c r="D109" s="1">
+        <v>8</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>8</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2">
+        <v>0.01353614963591099</v>
+      </c>
+      <c r="C110" s="1">
+        <v>8</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1">
+        <v>8</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2">
+        <v>0.01353614963591099</v>
+      </c>
+      <c r="C111" s="1">
+        <v>8</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1">
+        <v>8</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" s="2">
+        <v>0.006768074817955494</v>
+      </c>
+      <c r="C112" s="1">
+        <v>4</v>
+      </c>
+      <c r="D112" s="1">
+        <v>4</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>4</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113" s="2">
+        <v>0.006768074817955494</v>
+      </c>
+      <c r="C113" s="1">
+        <v>4</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1">
+        <v>4</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114" s="2">
+        <v>0.006768074817955494</v>
+      </c>
+      <c r="C114" s="1">
+        <v>4</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1">
+        <v>4</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C103">
+      <c r="C115">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D103">
+      <c r="D115">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E103">
+      <c r="E115">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F103">
+      <c r="F115">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G103">
+      <c r="G115">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H103">
+      <c r="H115">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/ac6demo_analysis.xlsx
+++ b/ac6demo_analysis.xlsx
@@ -185,10 +185,10 @@
     <t>context_rvds.o</t>
   </si>
   <si>
+    <t>sys.o</t>
+  </si>
+  <si>
     <t>stm32f10x_tim.o</t>
-  </si>
-  <si>
-    <t>sys.o</t>
   </si>
   <si>
     <t>dmul.o</t>
@@ -881,13 +881,13 @@
                   <c:v>components.o</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>sys.o</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>stm32f10x_tim.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>easyflash.o</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>sys.o</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>dmul.o</c:v>
@@ -1097,340 +1097,340 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="113"/>
                 <c:pt idx="0">
-                  <c:v>11.08103084564209</c:v>
+                  <c:v>11.0802812576294</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.49728393554688</c:v>
+                  <c:v>10.49657344818115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.661443710327148</c:v>
+                  <c:v>8.660858154296875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.541361331939697</c:v>
+                  <c:v>5.54098653793335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.385695457458496</c:v>
+                  <c:v>5.385331153869629</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.827329635620117</c:v>
+                  <c:v>4.827003002166748</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.118373394012451</c:v>
+                  <c:v>4.118094921112061</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.30451250076294</c:v>
+                  <c:v>3.304288864135742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.113314390182495</c:v>
+                  <c:v>3.113103866577148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.571868419647217</c:v>
+                  <c:v>2.571694374084473</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.412818670272827</c:v>
+                  <c:v>2.412655353546143</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.253768920898438</c:v>
+                  <c:v>2.253616333007813</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.020270347595215</c:v>
+                  <c:v>2.02013373374939</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.827380299568176</c:v>
+                  <c:v>1.827256560325623</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.810460090637207</c:v>
+                  <c:v>1.810337543487549</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.495744585990906</c:v>
+                  <c:v>1.495643377304077</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.485592484474182</c:v>
+                  <c:v>1.485491871833801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.478824377059937</c:v>
+                  <c:v>1.478724360466003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.306238532066345</c:v>
+                  <c:v>1.306150078773499</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.285934209823608</c:v>
+                  <c:v>1.285847187042236</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.106580257415772</c:v>
+                  <c:v>1.106505393981934</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9847549200057983</c:v>
+                  <c:v>0.9846882820129395</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9407624006271362</c:v>
+                  <c:v>0.9406987428665161</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9035379886627197</c:v>
+                  <c:v>0.9034768342971802</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8798497319221497</c:v>
+                  <c:v>0.879790186882019</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.795248806476593</c:v>
+                  <c:v>0.7951949834823608</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7664844989776611</c:v>
+                  <c:v>0.7664326429367065</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.6937276721000671</c:v>
+                  <c:v>0.6936807632446289</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.6294309496879578</c:v>
+                  <c:v>0.6293883919715881</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6091267466545105</c:v>
+                  <c:v>0.6090855002403259</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5989746451377869</c:v>
+                  <c:v>0.5989341139793396</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5651342868804932</c:v>
+                  <c:v>0.5650960206985474</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5482140779495239</c:v>
+                  <c:v>0.5481769442558289</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5143737196922302</c:v>
+                  <c:v>0.5143389105796814</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4737652540206909</c:v>
+                  <c:v>0.4737331867218018</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4602290987968445</c:v>
+                  <c:v>0.4601979553699493</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4602290987968445</c:v>
+                  <c:v>0.4601979553699493</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4483849704265595</c:v>
+                  <c:v>0.4483546316623688</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4297727644443512</c:v>
+                  <c:v>0.4297436773777008</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4263887107372284</c:v>
+                  <c:v>0.4263598620891571</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4128525853157044</c:v>
+                  <c:v>0.4128246307373047</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.4128525853157044</c:v>
+                  <c:v>0.4128246307373047</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.4027004539966583</c:v>
+                  <c:v>0.402673214673996</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.4010084569454193</c:v>
+                  <c:v>0.4009813070297241</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3959323763847351</c:v>
+                  <c:v>0.3959055840969086</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3942403793334961</c:v>
+                  <c:v>0.3959055840969086</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3891642987728119</c:v>
+                  <c:v>0.3942136764526367</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3857802748680115</c:v>
+                  <c:v>0.3857541680335999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.3756281733512878</c:v>
+                  <c:v>0.3756027519702911</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.3688600957393646</c:v>
+                  <c:v>0.3688351213932037</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.3620920181274414</c:v>
+                  <c:v>0.3620675206184387</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.348555862903595</c:v>
+                  <c:v>0.3485322594642639</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.3147154748439789</c:v>
+                  <c:v>0.3146941959857941</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2842591404914856</c:v>
+                  <c:v>0.2842399179935455</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2673389613628388</c:v>
+                  <c:v>0.2673208713531494</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2436507046222687</c:v>
+                  <c:v>0.2436342090368271</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2385746389627457</c:v>
+                  <c:v>0.2385585010051727</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1962741762399674</c:v>
+                  <c:v>0.1962608844041824</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1928901374340057</c:v>
+                  <c:v>0.1928770840167999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1895060986280441</c:v>
+                  <c:v>0.1894932687282562</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1861220598220825</c:v>
+                  <c:v>0.1861094683408737</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1827380210161209</c:v>
+                  <c:v>0.18272565305233</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1793539822101593</c:v>
+                  <c:v>0.1793418526649475</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1658178418874741</c:v>
+                  <c:v>0.1658066213130951</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1658178418874741</c:v>
+                  <c:v>0.1658066213130951</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1624338030815125</c:v>
+                  <c:v>0.1624228060245514</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1455136090517044</c:v>
+                  <c:v>0.1455037593841553</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1421295702457428</c:v>
+                  <c:v>0.1421199589967728</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1319774687290192</c:v>
+                  <c:v>0.1319685280323029</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1184413135051727</c:v>
+                  <c:v>0.1184332966804504</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1082891970872879</c:v>
+                  <c:v>0.1082818731665611</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1049051657319069</c:v>
+                  <c:v>0.104898065328598</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.09475304931402206</c:v>
+                  <c:v>0.09474663436412811</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.09475304931402206</c:v>
+                  <c:v>0.09474663436412811</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.09136901050806046</c:v>
+                  <c:v>0.09136282652616501</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.09136901050806046</c:v>
+                  <c:v>0.09136282652616501</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.08121690154075623</c:v>
+                  <c:v>0.0812114030122757</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.08121690154075623</c:v>
+                  <c:v>0.0812114030122757</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.08121690154075623</c:v>
+                  <c:v>0.0812114030122757</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.08121690154075623</c:v>
+                  <c:v>0.0812114030122757</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.07444882392883301</c:v>
+                  <c:v>0.07444378733634949</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.06429671496152878</c:v>
+                  <c:v>0.06429236382246018</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.06091267615556717</c:v>
+                  <c:v>0.06090855225920677</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.06091267615556717</c:v>
+                  <c:v>0.06090855225920677</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.06091267615556717</c:v>
+                  <c:v>0.06090855225920677</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.06091267615556717</c:v>
+                  <c:v>0.06090855225920677</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.05414459854364395</c:v>
+                  <c:v>0.05414093658328056</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.05076056346297264</c:v>
+                  <c:v>0.05075712874531746</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.05076056346297264</c:v>
+                  <c:v>0.05075712874531746</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.05076056346297264</c:v>
+                  <c:v>0.05075712874531746</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.05076056346297264</c:v>
+                  <c:v>0.05075712874531746</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.05076056346297264</c:v>
+                  <c:v>0.05075712874531746</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.04737652465701103</c:v>
+                  <c:v>0.04737331718206406</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.04737652465701103</c:v>
+                  <c:v>0.04737331718206406</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.04399248585104942</c:v>
+                  <c:v>0.04398950934410095</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.04399248585104942</c:v>
+                  <c:v>0.04398950934410095</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.04060845077037811</c:v>
+                  <c:v>0.04060570150613785</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.04060845077037811</c:v>
+                  <c:v>0.04060570150613785</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.0372244119644165</c:v>
+                  <c:v>0.03722189366817474</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.0338403731584549</c:v>
+                  <c:v>0.03383808583021164</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.03045633807778359</c:v>
+                  <c:v>0.03045427612960339</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.02368826232850552</c:v>
+                  <c:v>0.02368665859103203</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.02030422538518906</c:v>
+                  <c:v>0.02030285075306892</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.02030422538518906</c:v>
+                  <c:v>0.02030285075306892</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.02030422538518906</c:v>
+                  <c:v>0.02030285075306892</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.01692018657922745</c:v>
+                  <c:v>0.01691904291510582</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.01353614963591099</c:v>
+                  <c:v>0.01353523414582014</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.01353614963591099</c:v>
+                  <c:v>0.01353523414582014</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.01353614963591099</c:v>
+                  <c:v>0.01353523414582014</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.006768074817955494</c:v>
+                  <c:v>0.00676761707291007</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.006768074817955494</c:v>
+                  <c:v>0.00676761707291007</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.006768074817955494</c:v>
+                  <c:v>0.00676761707291007</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>0</c:v>
@@ -1961,10 +1961,10 @@
         <v>760</v>
       </c>
       <c r="E5" s="1">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="F5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>11.08103084564209</v>
+        <v>11.0802812576294</v>
       </c>
       <c r="C3" s="1">
         <v>6549</v>
@@ -2842,7 +2842,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2">
-        <v>10.49728393554688</v>
+        <v>10.49657344818115</v>
       </c>
       <c r="C4" s="1">
         <v>6204</v>
@@ -2868,7 +2868,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>8.661443710327148</v>
+        <v>8.660858154296875</v>
       </c>
       <c r="C5" s="1">
         <v>5119</v>
@@ -2894,7 +2894,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="2">
-        <v>5.541361331939697</v>
+        <v>5.54098653793335</v>
       </c>
       <c r="C6" s="1">
         <v>3275</v>
@@ -2920,7 +2920,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>5.385695457458496</v>
+        <v>5.385331153869629</v>
       </c>
       <c r="C7" s="1">
         <v>3183</v>
@@ -2946,7 +2946,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>4.827329635620117</v>
+        <v>4.827003002166748</v>
       </c>
       <c r="C8" s="1">
         <v>2853</v>
@@ -2972,7 +2972,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="2">
-        <v>4.118373394012451</v>
+        <v>4.118094921112061</v>
       </c>
       <c r="C9" s="1">
         <v>2434</v>
@@ -2998,7 +2998,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>3.30451250076294</v>
+        <v>3.304288864135742</v>
       </c>
       <c r="C10" s="1">
         <v>1953</v>
@@ -3024,7 +3024,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="2">
-        <v>3.113314390182495</v>
+        <v>3.113103866577148</v>
       </c>
       <c r="C11" s="1">
         <v>1840</v>
@@ -3050,7 +3050,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="2">
-        <v>2.571868419647217</v>
+        <v>2.571694374084473</v>
       </c>
       <c r="C12" s="1">
         <v>1520</v>
@@ -3076,7 +3076,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="2">
-        <v>2.412818670272827</v>
+        <v>2.412655353546143</v>
       </c>
       <c r="C13" s="1">
         <v>1426</v>
@@ -3102,7 +3102,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>2.253768920898438</v>
+        <v>2.253616333007813</v>
       </c>
       <c r="C14" s="1">
         <v>1332</v>
@@ -3128,7 +3128,7 @@
         <v>38</v>
       </c>
       <c r="B15" s="2">
-        <v>2.020270347595215</v>
+        <v>2.02013373374939</v>
       </c>
       <c r="C15" s="1">
         <v>1194</v>
@@ -3154,7 +3154,7 @@
         <v>39</v>
       </c>
       <c r="B16" s="2">
-        <v>1.827380299568176</v>
+        <v>1.827256560325623</v>
       </c>
       <c r="C16" s="1">
         <v>1080</v>
@@ -3180,7 +3180,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="2">
-        <v>1.810460090637207</v>
+        <v>1.810337543487549</v>
       </c>
       <c r="C17" s="1">
         <v>1070</v>
@@ -3206,7 +3206,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="2">
-        <v>1.495744585990906</v>
+        <v>1.495643377304077</v>
       </c>
       <c r="C18" s="1">
         <v>884</v>
@@ -3232,7 +3232,7 @@
         <v>42</v>
       </c>
       <c r="B19" s="2">
-        <v>1.485592484474182</v>
+        <v>1.485491871833801</v>
       </c>
       <c r="C19" s="1">
         <v>878</v>
@@ -3258,7 +3258,7 @@
         <v>43</v>
       </c>
       <c r="B20" s="2">
-        <v>1.478824377059937</v>
+        <v>1.478724360466003</v>
       </c>
       <c r="C20" s="1">
         <v>874</v>
@@ -3284,7 +3284,7 @@
         <v>44</v>
       </c>
       <c r="B21" s="2">
-        <v>1.306238532066345</v>
+        <v>1.306150078773499</v>
       </c>
       <c r="C21" s="1">
         <v>772</v>
@@ -3310,7 +3310,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="2">
-        <v>1.285934209823608</v>
+        <v>1.285847187042236</v>
       </c>
       <c r="C22" s="1">
         <v>760</v>
@@ -3319,10 +3319,10 @@
         <v>1792</v>
       </c>
       <c r="E22" s="1">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="F22" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="2">
-        <v>1.106580257415772</v>
+        <v>1.106505393981934</v>
       </c>
       <c r="C23" s="1">
         <v>654</v>
@@ -3362,7 +3362,7 @@
         <v>45</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9847549200057983</v>
+        <v>0.9846882820129395</v>
       </c>
       <c r="C24" s="1">
         <v>582</v>
@@ -3388,7 +3388,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9407624006271362</v>
+        <v>0.9406987428665161</v>
       </c>
       <c r="C25" s="1">
         <v>556</v>
@@ -3414,7 +3414,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9035379886627197</v>
+        <v>0.9034768342971802</v>
       </c>
       <c r="C26" s="1">
         <v>534</v>
@@ -3440,7 +3440,7 @@
         <v>46</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8798497319221497</v>
+        <v>0.879790186882019</v>
       </c>
       <c r="C27" s="1">
         <v>520</v>
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="2">
-        <v>0.795248806476593</v>
+        <v>0.7951949834823608</v>
       </c>
       <c r="C28" s="1">
         <v>470</v>
@@ -3492,7 +3492,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7664844989776611</v>
+        <v>0.7664326429367065</v>
       </c>
       <c r="C29" s="1">
         <v>453</v>
@@ -3518,7 +3518,7 @@
         <v>47</v>
       </c>
       <c r="B30" s="2">
-        <v>0.6937276721000671</v>
+        <v>0.6936807632446289</v>
       </c>
       <c r="C30" s="1">
         <v>410</v>
@@ -3544,7 +3544,7 @@
         <v>48</v>
       </c>
       <c r="B31" s="2">
-        <v>0.6294309496879578</v>
+        <v>0.6293883919715881</v>
       </c>
       <c r="C31" s="1">
         <v>372</v>
@@ -3570,7 +3570,7 @@
         <v>49</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6091267466545105</v>
+        <v>0.6090855002403259</v>
       </c>
       <c r="C32" s="1">
         <v>360</v>
@@ -3596,7 +3596,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="2">
-        <v>0.5989746451377869</v>
+        <v>0.5989341139793396</v>
       </c>
       <c r="C33" s="1">
         <v>354</v>
@@ -3622,7 +3622,7 @@
         <v>51</v>
       </c>
       <c r="B34" s="2">
-        <v>0.5651342868804932</v>
+        <v>0.5650960206985474</v>
       </c>
       <c r="C34" s="1">
         <v>334</v>
@@ -3648,7 +3648,7 @@
         <v>52</v>
       </c>
       <c r="B35" s="2">
-        <v>0.5482140779495239</v>
+        <v>0.5481769442558289</v>
       </c>
       <c r="C35" s="1">
         <v>324</v>
@@ -3674,7 +3674,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="2">
-        <v>0.5143737196922302</v>
+        <v>0.5143389105796814</v>
       </c>
       <c r="C36" s="1">
         <v>304</v>
@@ -3700,7 +3700,7 @@
         <v>54</v>
       </c>
       <c r="B37" s="2">
-        <v>0.4737652540206909</v>
+        <v>0.4737331867218018</v>
       </c>
       <c r="C37" s="1">
         <v>280</v>
@@ -3726,7 +3726,7 @@
         <v>27</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4602290987968445</v>
+        <v>0.4601979553699493</v>
       </c>
       <c r="C38" s="1">
         <v>272</v>
@@ -3752,7 +3752,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4602290987968445</v>
+        <v>0.4601979553699493</v>
       </c>
       <c r="C39" s="1">
         <v>272</v>
@@ -3778,7 +3778,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4483849704265595</v>
+        <v>0.4483546316623688</v>
       </c>
       <c r="C40" s="1">
         <v>265</v>
@@ -3804,7 +3804,7 @@
         <v>18</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4297727644443512</v>
+        <v>0.4297436773777008</v>
       </c>
       <c r="C41" s="1">
         <v>254</v>
@@ -3830,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4263887107372284</v>
+        <v>0.4263598620891571</v>
       </c>
       <c r="C42" s="1">
         <v>252</v>
@@ -3856,7 +3856,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4128525853157044</v>
+        <v>0.4128246307373047</v>
       </c>
       <c r="C43" s="1">
         <v>244</v>
@@ -3882,7 +3882,7 @@
         <v>55</v>
       </c>
       <c r="B44" s="2">
-        <v>0.4128525853157044</v>
+        <v>0.4128246307373047</v>
       </c>
       <c r="C44" s="1">
         <v>244</v>
@@ -3908,7 +3908,7 @@
         <v>13</v>
       </c>
       <c r="B45" s="2">
-        <v>0.4027004539966583</v>
+        <v>0.402673214673996</v>
       </c>
       <c r="C45" s="1">
         <v>238</v>
@@ -3934,7 +3934,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="2">
-        <v>0.4010084569454193</v>
+        <v>0.4009813070297241</v>
       </c>
       <c r="C46" s="1">
         <v>237</v>
@@ -3960,7 +3960,7 @@
         <v>56</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3959323763847351</v>
+        <v>0.3959055840969086</v>
       </c>
       <c r="C47" s="1">
         <v>234</v>
@@ -3969,10 +3969,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -3983,54 +3983,54 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B48" s="2">
-        <v>0.3942403793334961</v>
+        <v>0.3959055840969086</v>
       </c>
       <c r="C48" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="F48" s="1">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3891642987728119</v>
+        <v>0.3942136764526367</v>
       </c>
       <c r="C49" s="1">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="F49" s="1">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4038,7 +4038,7 @@
         <v>58</v>
       </c>
       <c r="B50" s="2">
-        <v>0.3857802748680115</v>
+        <v>0.3857541680335999</v>
       </c>
       <c r="C50" s="1">
         <v>228</v>
@@ -4064,7 +4064,7 @@
         <v>59</v>
       </c>
       <c r="B51" s="2">
-        <v>0.3756281733512878</v>
+        <v>0.3756027519702911</v>
       </c>
       <c r="C51" s="1">
         <v>222</v>
@@ -4090,7 +4090,7 @@
         <v>60</v>
       </c>
       <c r="B52" s="2">
-        <v>0.3688600957393646</v>
+        <v>0.3688351213932037</v>
       </c>
       <c r="C52" s="1">
         <v>218</v>
@@ -4116,7 +4116,7 @@
         <v>61</v>
       </c>
       <c r="B53" s="2">
-        <v>0.3620920181274414</v>
+        <v>0.3620675206184387</v>
       </c>
       <c r="C53" s="1">
         <v>214</v>
@@ -4142,7 +4142,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="2">
-        <v>0.348555862903595</v>
+        <v>0.3485322594642639</v>
       </c>
       <c r="C54" s="1">
         <v>206</v>
@@ -4168,7 +4168,7 @@
         <v>62</v>
       </c>
       <c r="B55" s="2">
-        <v>0.3147154748439789</v>
+        <v>0.3146941959857941</v>
       </c>
       <c r="C55" s="1">
         <v>186</v>
@@ -4194,7 +4194,7 @@
         <v>63</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2842591404914856</v>
+        <v>0.2842399179935455</v>
       </c>
       <c r="C56" s="1">
         <v>168</v>
@@ -4220,7 +4220,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2673389613628388</v>
+        <v>0.2673208713531494</v>
       </c>
       <c r="C57" s="1">
         <v>158</v>
@@ -4246,7 +4246,7 @@
         <v>65</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2436507046222687</v>
+        <v>0.2436342090368271</v>
       </c>
       <c r="C58" s="1">
         <v>144</v>
@@ -4272,7 +4272,7 @@
         <v>66</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2385746389627457</v>
+        <v>0.2385585010051727</v>
       </c>
       <c r="C59" s="1">
         <v>141</v>
@@ -4298,7 +4298,7 @@
         <v>67</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1962741762399674</v>
+        <v>0.1962608844041824</v>
       </c>
       <c r="C60" s="1">
         <v>116</v>
@@ -4324,7 +4324,7 @@
         <v>68</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1928901374340057</v>
+        <v>0.1928770840167999</v>
       </c>
       <c r="C61" s="1">
         <v>114</v>
@@ -4350,7 +4350,7 @@
         <v>69</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1895060986280441</v>
+        <v>0.1894932687282562</v>
       </c>
       <c r="C62" s="1">
         <v>112</v>
@@ -4376,7 +4376,7 @@
         <v>70</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1861220598220825</v>
+        <v>0.1861094683408737</v>
       </c>
       <c r="C63" s="1">
         <v>110</v>
@@ -4402,7 +4402,7 @@
         <v>71</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1827380210161209</v>
+        <v>0.18272565305233</v>
       </c>
       <c r="C64" s="1">
         <v>108</v>
@@ -4428,7 +4428,7 @@
         <v>72</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1793539822101593</v>
+        <v>0.1793418526649475</v>
       </c>
       <c r="C65" s="1">
         <v>106</v>
@@ -4454,7 +4454,7 @@
         <v>73</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1658178418874741</v>
+        <v>0.1658066213130951</v>
       </c>
       <c r="C66" s="1">
         <v>98</v>
@@ -4480,7 +4480,7 @@
         <v>74</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1658178418874741</v>
+        <v>0.1658066213130951</v>
       </c>
       <c r="C67" s="1">
         <v>98</v>
@@ -4506,7 +4506,7 @@
         <v>22</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1624338030815125</v>
+        <v>0.1624228060245514</v>
       </c>
       <c r="C68" s="1">
         <v>96</v>
@@ -4532,7 +4532,7 @@
         <v>75</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1455136090517044</v>
+        <v>0.1455037593841553</v>
       </c>
       <c r="C69" s="1">
         <v>86</v>
@@ -4558,7 +4558,7 @@
         <v>29</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1421295702457428</v>
+        <v>0.1421199589967728</v>
       </c>
       <c r="C70" s="1">
         <v>84</v>
@@ -4584,7 +4584,7 @@
         <v>14</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1319774687290192</v>
+        <v>0.1319685280323029</v>
       </c>
       <c r="C71" s="1">
         <v>78</v>
@@ -4610,7 +4610,7 @@
         <v>28</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1184413135051727</v>
+        <v>0.1184332966804504</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
@@ -4636,7 +4636,7 @@
         <v>76</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1082891970872879</v>
+        <v>0.1082818731665611</v>
       </c>
       <c r="C73" s="1">
         <v>64</v>
@@ -4662,7 +4662,7 @@
         <v>77</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1049051657319069</v>
+        <v>0.104898065328598</v>
       </c>
       <c r="C74" s="1">
         <v>62</v>
@@ -4688,7 +4688,7 @@
         <v>78</v>
       </c>
       <c r="B75" s="2">
-        <v>0.09475304931402206</v>
+        <v>0.09474663436412811</v>
       </c>
       <c r="C75" s="1">
         <v>56</v>
@@ -4714,7 +4714,7 @@
         <v>31</v>
       </c>
       <c r="B76" s="2">
-        <v>0.09475304931402206</v>
+        <v>0.09474663436412811</v>
       </c>
       <c r="C76" s="1">
         <v>56</v>
@@ -4740,7 +4740,7 @@
         <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>0.09136901050806046</v>
+        <v>0.09136282652616501</v>
       </c>
       <c r="C77" s="1">
         <v>54</v>
@@ -4766,7 +4766,7 @@
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>0.09136901050806046</v>
+        <v>0.09136282652616501</v>
       </c>
       <c r="C78" s="1">
         <v>54</v>
@@ -4792,7 +4792,7 @@
         <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>0.08121690154075623</v>
+        <v>0.0812114030122757</v>
       </c>
       <c r="C79" s="1">
         <v>48</v>
@@ -4818,7 +4818,7 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>0.08121690154075623</v>
+        <v>0.0812114030122757</v>
       </c>
       <c r="C80" s="1">
         <v>48</v>
@@ -4844,7 +4844,7 @@
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>0.08121690154075623</v>
+        <v>0.0812114030122757</v>
       </c>
       <c r="C81" s="1">
         <v>48</v>
@@ -4870,7 +4870,7 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>0.08121690154075623</v>
+        <v>0.0812114030122757</v>
       </c>
       <c r="C82" s="1">
         <v>48</v>
@@ -4896,7 +4896,7 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>0.07444882392883301</v>
+        <v>0.07444378733634949</v>
       </c>
       <c r="C83" s="1">
         <v>44</v>
@@ -4922,7 +4922,7 @@
         <v>19</v>
       </c>
       <c r="B84" s="2">
-        <v>0.06429671496152878</v>
+        <v>0.06429236382246018</v>
       </c>
       <c r="C84" s="1">
         <v>38</v>
@@ -4948,7 +4948,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="2">
-        <v>0.06091267615556717</v>
+        <v>0.06090855225920677</v>
       </c>
       <c r="C85" s="1">
         <v>36</v>
@@ -4974,7 +4974,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="2">
-        <v>0.06091267615556717</v>
+        <v>0.06090855225920677</v>
       </c>
       <c r="C86" s="1">
         <v>36</v>
@@ -5000,7 +5000,7 @@
         <v>88</v>
       </c>
       <c r="B87" s="2">
-        <v>0.06091267615556717</v>
+        <v>0.06090855225920677</v>
       </c>
       <c r="C87" s="1">
         <v>36</v>
@@ -5026,7 +5026,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="2">
-        <v>0.06091267615556717</v>
+        <v>0.06090855225920677</v>
       </c>
       <c r="C88" s="1">
         <v>36</v>
@@ -5052,7 +5052,7 @@
         <v>90</v>
       </c>
       <c r="B89" s="2">
-        <v>0.05414459854364395</v>
+        <v>0.05414093658328056</v>
       </c>
       <c r="C89" s="1">
         <v>32</v>
@@ -5078,7 +5078,7 @@
         <v>91</v>
       </c>
       <c r="B90" s="2">
-        <v>0.05076056346297264</v>
+        <v>0.05075712874531746</v>
       </c>
       <c r="C90" s="1">
         <v>30</v>
@@ -5104,7 +5104,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="2">
-        <v>0.05076056346297264</v>
+        <v>0.05075712874531746</v>
       </c>
       <c r="C91" s="1">
         <v>30</v>
@@ -5130,7 +5130,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="2">
-        <v>0.05076056346297264</v>
+        <v>0.05075712874531746</v>
       </c>
       <c r="C92" s="1">
         <v>30</v>
@@ -5156,7 +5156,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="2">
-        <v>0.05076056346297264</v>
+        <v>0.05075712874531746</v>
       </c>
       <c r="C93" s="1">
         <v>30</v>
@@ -5182,7 +5182,7 @@
         <v>63</v>
       </c>
       <c r="B94" s="2">
-        <v>0.05076056346297264</v>
+        <v>0.05075712874531746</v>
       </c>
       <c r="C94" s="1">
         <v>30</v>
@@ -5208,7 +5208,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="2">
-        <v>0.04737652465701103</v>
+        <v>0.04737331718206406</v>
       </c>
       <c r="C95" s="1">
         <v>28</v>
@@ -5234,7 +5234,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>0.04737652465701103</v>
+        <v>0.04737331718206406</v>
       </c>
       <c r="C96" s="1">
         <v>28</v>
@@ -5260,7 +5260,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="2">
-        <v>0.04399248585104942</v>
+        <v>0.04398950934410095</v>
       </c>
       <c r="C97" s="1">
         <v>26</v>
@@ -5286,7 +5286,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="2">
-        <v>0.04399248585104942</v>
+        <v>0.04398950934410095</v>
       </c>
       <c r="C98" s="1">
         <v>26</v>
@@ -5312,7 +5312,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="2">
-        <v>0.04060845077037811</v>
+        <v>0.04060570150613785</v>
       </c>
       <c r="C99" s="1">
         <v>24</v>
@@ -5338,7 +5338,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="2">
-        <v>0.04060845077037811</v>
+        <v>0.04060570150613785</v>
       </c>
       <c r="C100" s="1">
         <v>24</v>
@@ -5364,7 +5364,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="2">
-        <v>0.0372244119644165</v>
+        <v>0.03722189366817474</v>
       </c>
       <c r="C101" s="1">
         <v>22</v>
@@ -5390,7 +5390,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="2">
-        <v>0.0338403731584549</v>
+        <v>0.03383808583021164</v>
       </c>
       <c r="C102" s="1">
         <v>20</v>
@@ -5416,7 +5416,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="2">
-        <v>0.03045633807778359</v>
+        <v>0.03045427612960339</v>
       </c>
       <c r="C103" s="1">
         <v>18</v>
@@ -5442,7 +5442,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="2">
-        <v>0.02368826232850552</v>
+        <v>0.02368665859103203</v>
       </c>
       <c r="C104" s="1">
         <v>14</v>
@@ -5468,7 +5468,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2">
-        <v>0.02030422538518906</v>
+        <v>0.02030285075306892</v>
       </c>
       <c r="C105" s="1">
         <v>12</v>
@@ -5494,7 +5494,7 @@
         <v>26</v>
       </c>
       <c r="B106" s="2">
-        <v>0.02030422538518906</v>
+        <v>0.02030285075306892</v>
       </c>
       <c r="C106" s="1">
         <v>12</v>
@@ -5520,7 +5520,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.02030422538518906</v>
+        <v>0.02030285075306892</v>
       </c>
       <c r="C107" s="1">
         <v>12</v>
@@ -5546,7 +5546,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.01692018657922745</v>
+        <v>0.01691904291510582</v>
       </c>
       <c r="C108" s="1">
         <v>10</v>
@@ -5572,7 +5572,7 @@
         <v>24</v>
       </c>
       <c r="B109" s="2">
-        <v>0.01353614963591099</v>
+        <v>0.01353523414582014</v>
       </c>
       <c r="C109" s="1">
         <v>8</v>
@@ -5598,7 +5598,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>0.01353614963591099</v>
+        <v>0.01353523414582014</v>
       </c>
       <c r="C110" s="1">
         <v>8</v>
@@ -5624,7 +5624,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>0.01353614963591099</v>
+        <v>0.01353523414582014</v>
       </c>
       <c r="C111" s="1">
         <v>8</v>
@@ -5650,7 +5650,7 @@
         <v>25</v>
       </c>
       <c r="B112" s="2">
-        <v>0.006768074817955494</v>
+        <v>0.00676761707291007</v>
       </c>
       <c r="C112" s="1">
         <v>4</v>
@@ -5676,7 +5676,7 @@
         <v>110</v>
       </c>
       <c r="B113" s="2">
-        <v>0.006768074817955494</v>
+        <v>0.00676761707291007</v>
       </c>
       <c r="C113" s="1">
         <v>4</v>
@@ -5702,7 +5702,7 @@
         <v>111</v>
       </c>
       <c r="B114" s="2">
-        <v>0.006768074817955494</v>
+        <v>0.00676761707291007</v>
       </c>
       <c r="C114" s="1">
         <v>4</v>

--- a/ac6demo_analysis.xlsx
+++ b/ac6demo_analysis.xlsx
@@ -15,86 +15,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
   <si>
     <t>ac6demo</t>
   </si>
   <si>
+    <t>startup_stm32f10x_md.o</t>
+  </si>
+  <si>
     <t>at_task.o</t>
   </si>
   <si>
-    <t>startup_stm32f10x_md.o</t>
-  </si>
-  <si>
-    <t>slave_mb_app.o</t>
-  </si>
-  <si>
-    <t>oled.o</t>
-  </si>
-  <si>
     <t>uart.o</t>
   </si>
   <si>
+    <t>at_function.o</t>
+  </si>
+  <si>
+    <t>components.o</t>
+  </si>
+  <si>
+    <t>gpio.o</t>
+  </si>
+  <si>
+    <t>scheduler.o</t>
+  </si>
+  <si>
+    <t>idle.o</t>
+  </si>
+  <si>
+    <t>object.o</t>
+  </si>
+  <si>
     <t>user_flash.o</t>
   </si>
   <si>
-    <t>at_function.o</t>
-  </si>
-  <si>
-    <t>components.o</t>
-  </si>
-  <si>
-    <t>mb.o</t>
-  </si>
-  <si>
-    <t>gpio.o</t>
-  </si>
-  <si>
-    <t>scheduler.o</t>
-  </si>
-  <si>
-    <t>sfud_port.o</t>
-  </si>
-  <si>
-    <t>mbrtu.o</t>
-  </si>
-  <si>
-    <t>idle.o</t>
-  </si>
-  <si>
-    <t>ef_env.o</t>
-  </si>
-  <si>
-    <t>ef_port.o</t>
-  </si>
-  <si>
-    <t>sfud.o</t>
-  </si>
-  <si>
-    <t>object.o</t>
-  </si>
-  <si>
-    <t>mbfuncother.o</t>
-  </si>
-  <si>
     <t>cjson.o</t>
   </si>
   <si>
+    <t>cpuport.o</t>
+  </si>
+  <si>
     <t>mc_w.l</t>
   </si>
   <si>
-    <t>cpuport.o</t>
-  </si>
-  <si>
     <t>timer.o</t>
   </si>
   <si>
     <t>mvars.o</t>
   </si>
   <si>
-    <t>stdout.o</t>
-  </si>
-  <si>
     <t>errno.o</t>
   </si>
   <si>
@@ -104,61 +74,46 @@
     <t>clock.o</t>
   </si>
   <si>
-    <t>portevent.o</t>
-  </si>
-  <si>
     <t>tim.o</t>
   </si>
   <si>
     <t>irq.o</t>
   </si>
   <si>
-    <t>easyflash.o</t>
-  </si>
-  <si>
-    <t>sfud_sfdp.o</t>
-  </si>
-  <si>
     <t>printfa.o</t>
   </si>
   <si>
+    <t>mf_w.l</t>
+  </si>
+  <si>
+    <t>thread.o</t>
+  </si>
+  <si>
+    <t>hmac_sha1.o</t>
+  </si>
+  <si>
+    <t>scanf_fp.o</t>
+  </si>
+  <si>
+    <t>base64.o</t>
+  </si>
+  <si>
+    <t>_scanf.o</t>
+  </si>
+  <si>
+    <t>ipc.o</t>
+  </si>
+  <si>
+    <t>onenet.o</t>
+  </si>
+  <si>
+    <t>stm32f10x_usart.o</t>
+  </si>
+  <si>
     <t>kservice.o</t>
   </si>
   <si>
-    <t>oled_data.o</t>
-  </si>
-  <si>
-    <t>mf_w.l</t>
-  </si>
-  <si>
-    <t>ipc.o</t>
-  </si>
-  <si>
-    <t>thread.o</t>
-  </si>
-  <si>
-    <t>ef_utils.o</t>
-  </si>
-  <si>
-    <t>hmac_sha1.o</t>
-  </si>
-  <si>
-    <t>scanf_fp.o</t>
-  </si>
-  <si>
-    <t>base64.o</t>
-  </si>
-  <si>
-    <t>onenet.o</t>
-  </si>
-  <si>
-    <t>mbcrc.o</t>
-  </si>
-  <si>
-    <t>stm32f10x_usart.o</t>
-  </si>
-  <si>
-    <t>mbfuncholding.o</t>
+    <t>lot_function.o</t>
   </si>
   <si>
     <t>stm32f10x_dma.o</t>
@@ -167,147 +122,135 @@
     <t>mallocr.o</t>
   </si>
   <si>
-    <t>stm32f10x_i2c.o</t>
-  </si>
-  <si>
     <t>dadd.o</t>
   </si>
   <si>
+    <t>stm32f10x_gpio.o</t>
+  </si>
+  <si>
     <t>board.o</t>
   </si>
   <si>
-    <t>mbfunccoils.o</t>
-  </si>
-  <si>
     <t>stm32f10x_rcc.o</t>
   </si>
   <si>
     <t>context_rvds.o</t>
   </si>
   <si>
+    <t>dmul.o</t>
+  </si>
+  <si>
+    <t>ddiv.o</t>
+  </si>
+  <si>
     <t>sys.o</t>
   </si>
   <si>
+    <t>depilogue.o</t>
+  </si>
+  <si>
+    <t>strtod.o</t>
+  </si>
+  <si>
+    <t>_strtoul.o</t>
+  </si>
+  <si>
+    <t>dma_stm32f10x.o</t>
+  </si>
+  <si>
+    <t>ctype_o.o</t>
+  </si>
+  <si>
+    <t>misc.o</t>
+  </si>
+  <si>
+    <t>strtol.o</t>
+  </si>
+  <si>
+    <t>fepilogue.o</t>
+  </si>
+  <si>
+    <t>uldiv.o</t>
+  </si>
+  <si>
+    <t>__dczerorl2.o</t>
+  </si>
+  <si>
+    <t>_sgetc.o</t>
+  </si>
+  <si>
+    <t>dfixi.o</t>
+  </si>
+  <si>
+    <t>dcmpeq.o</t>
+  </si>
+  <si>
+    <t>d2f.o</t>
+  </si>
+  <si>
+    <t>__0sscanf.o</t>
+  </si>
+  <si>
+    <t>dcmple.o</t>
+  </si>
+  <si>
+    <t>dcmpge.o</t>
+  </si>
+  <si>
+    <t>dfixul.o</t>
+  </si>
+  <si>
+    <t>cdrcmple.o</t>
+  </si>
+  <si>
+    <t>init.o</t>
+  </si>
+  <si>
+    <t>uidiv.o</t>
+  </si>
+  <si>
+    <t>scanf_char.o</t>
+  </si>
+  <si>
+    <t>strstr.o</t>
+  </si>
+  <si>
+    <t>memseta.o</t>
+  </si>
+  <si>
+    <t>memcpya.o</t>
+  </si>
+  <si>
+    <t>llsshr.o</t>
+  </si>
+  <si>
+    <t>llushr.o</t>
+  </si>
+  <si>
+    <t>m_ws.l</t>
+  </si>
+  <si>
+    <t>strncmp.o</t>
+  </si>
+  <si>
+    <t>llshl.o</t>
+  </si>
+  <si>
+    <t>handlers.o</t>
+  </si>
+  <si>
     <t>stm32f10x_tim.o</t>
   </si>
   <si>
-    <t>dmul.o</t>
-  </si>
-  <si>
-    <t>ddiv.o</t>
-  </si>
-  <si>
-    <t>stm32f10x_gpio.o</t>
-  </si>
-  <si>
-    <t>myspi.o</t>
-  </si>
-  <si>
-    <t>depilogue.o</t>
-  </si>
-  <si>
-    <t>strtod.o</t>
-  </si>
-  <si>
-    <t>_strtoul.o</t>
-  </si>
-  <si>
-    <t>myiic.o</t>
-  </si>
-  <si>
-    <t>ctype_o.o</t>
-  </si>
-  <si>
-    <t>mbfuncdisc.o</t>
-  </si>
-  <si>
-    <t>misc.o</t>
-  </si>
-  <si>
-    <t>strtol.o</t>
-  </si>
-  <si>
-    <t>fepilogue.o</t>
-  </si>
-  <si>
-    <t>stm32f10x_spi.o</t>
-  </si>
-  <si>
-    <t>mbutils.o</t>
-  </si>
-  <si>
-    <t>uldiv.o</t>
-  </si>
-  <si>
-    <t>mbfuncinput.o</t>
-  </si>
-  <si>
-    <t>__dczerorl2.o</t>
-  </si>
-  <si>
-    <t>_sgetc.o</t>
-  </si>
-  <si>
-    <t>dfixi.o</t>
-  </si>
-  <si>
-    <t>d2f.o</t>
-  </si>
-  <si>
-    <t>dcmple.o</t>
-  </si>
-  <si>
-    <t>dcmpge.o</t>
-  </si>
-  <si>
-    <t>dfixul.o</t>
-  </si>
-  <si>
-    <t>cdrcmple.o</t>
-  </si>
-  <si>
-    <t>init.o</t>
-  </si>
-  <si>
-    <t>portserial.o</t>
-  </si>
-  <si>
-    <t>uidiv.o</t>
-  </si>
-  <si>
-    <t>strstr.o</t>
-  </si>
-  <si>
-    <t>memseta.o</t>
-  </si>
-  <si>
-    <t>memcpya.o</t>
-  </si>
-  <si>
-    <t>llsshr.o</t>
-  </si>
-  <si>
-    <t>llushr.o</t>
-  </si>
-  <si>
-    <t>m_ws.l</t>
-  </si>
-  <si>
-    <t>strncmp.o</t>
-  </si>
-  <si>
-    <t>llshl.o</t>
-  </si>
-  <si>
-    <t>handlers.o</t>
-  </si>
-  <si>
     <t>strcmp.o</t>
   </si>
   <si>
     <t>_chval.o</t>
   </si>
   <si>
+    <t>dfltui.o</t>
+  </si>
+  <si>
     <t>memcmp.o</t>
   </si>
   <si>
@@ -348,9 +291,6 @@
   </si>
   <si>
     <t>entry5.o</t>
-  </si>
-  <si>
-    <t>porttimer.o</t>
   </si>
   <si>
     <t>File_name</t>
@@ -470,106 +410,70 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$115</c:f>
+              <c:f>ram_percent!$A$3:$A$94</c:f>
               <c:strCache>
-                <c:ptCount val="113"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
+                  <c:v>startup_stm32f10x_md.o</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>at_task.o</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>startup_stm32f10x_md.o</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>slave_mb_app.o</c:v>
+                  <c:v>uart.o</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>oled.o</c:v>
+                  <c:v>at_function.o</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>uart.o</c:v>
+                  <c:v>components.o</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>gpio.o</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>scheduler.o</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>idle.o</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>object.o</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>user_flash.o</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>at_function.o</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>components.o</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>mb.o</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>gpio.o</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>scheduler.o</c:v>
+                  <c:v>cjson.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>sfud_port.o</c:v>
+                  <c:v>cpuport.o</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>mbrtu.o</c:v>
+                  <c:v>mc_w.l</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>idle.o</c:v>
+                  <c:v>timer.o</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>ef_env.o</c:v>
+                  <c:v>mvars.o</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>ef_port.o</c:v>
+                  <c:v>errno.o</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>sfud.o</c:v>
+                  <c:v>system_stm32f10x.o</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>object.o</c:v>
+                  <c:v>clock.o</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>mbfuncother.o</c:v>
+                  <c:v>tim.o</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>cjson.o</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>mc_w.l</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>cpuport.o</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>timer.o</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>mvars.o</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>stdout.o</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>errno.o</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>system_stm32f10x.o</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>clock.o</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>portevent.o</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>tim.o</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>irq.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>easyflash.o</c:v>
-                </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="91">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -577,107 +481,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$115</c:f>
+              <c:f>ram_percent!$B$3:$B$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="113"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
-                  <c:v>22.64349174499512</c:v>
+                  <c:v>34.01874542236328</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.13191223144531</c:v>
+                  <c:v>22.99622344970703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.410282135009766</c:v>
+                  <c:v>14.06490421295166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.074200630187988</c:v>
+                  <c:v>12.68708896636963</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.512313842773438</c:v>
+                  <c:v>8.057070732116699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.005198955535889</c:v>
+                  <c:v>2.769618034362793</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.637609481811523</c:v>
+                  <c:v>1.923345923423767</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.049467086791992</c:v>
+                  <c:v>1.790460228919983</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.014230966567993</c:v>
+                  <c:v>0.7833263278007507</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.079504251480103</c:v>
+                  <c:v>0.3357113003730774</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.444100141525269</c:v>
+                  <c:v>0.1398797035217285</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.407341241836548</c:v>
+                  <c:v>0.1119037643074989</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.386336207389832</c:v>
+                  <c:v>0.08392782509326935</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.344326019287109</c:v>
+                  <c:v>0.08392782509326935</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.323320865631104</c:v>
+                  <c:v>0.05595188215374947</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.6721630096435547</c:v>
+                  <c:v>0.02797594107687473</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.6091477274894714</c:v>
+                  <c:v>0.02797594107687473</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5881426334381104</c:v>
+                  <c:v>0.02797594107687473</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1785432994365692</c:v>
+                  <c:v>0.006993985269218683</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1050254702568054</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.08402037620544434</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.08402037620544434</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.06301528215408325</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.04201018810272217</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.02100509405136108</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.02100509405136108</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.02100509405136108</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.02100509405136108</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.01050254702568054</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.005251273512840271</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.005251273512840271</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.005251273512840271</c:v>
-                </c:pt>
-                <c:pt idx="112">
+                  <c:v>0.006993985269218683</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -745,346 +613,283 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$115</c:f>
+              <c:f>flash_percent!$A$3:$A$94</c:f>
               <c:strCache>
-                <c:ptCount val="113"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
-                  <c:v>ef_env.o</c:v>
+                  <c:v>mc_w.l</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>sfud.o</c:v>
+                  <c:v>cjson.o</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mc_w.l</c:v>
+                  <c:v>at_function.o</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>sfud_sfdp.o</c:v>
+                  <c:v>printfa.o</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>at_function.o</c:v>
+                  <c:v>uart.o</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>cjson.o</c:v>
+                  <c:v>mf_w.l</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>printfa.o</c:v>
+                  <c:v>thread.o</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>uart.o</c:v>
+                  <c:v>hmac_sha1.o</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>scanf_fp.o</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>base64.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>_scanf.o</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ipc.o</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>onenet.o</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>timer.o</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>scheduler.o</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>stm32f10x_usart.o</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>kservice.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>oled_data.o</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>mf_w.l</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>oled.o</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>ipc.o</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>thread.o</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>ef_utils.o</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>hmac_sha1.o</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>scanf_fp.o</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>base64.o</c:v>
+                  <c:v>lot_function.o</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>onenet.o</c:v>
+                  <c:v>stm32f10x_dma.o</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>slave_mb_app.o</c:v>
+                  <c:v>mallocr.o</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>sfud_port.o</c:v>
+                  <c:v>dadd.o</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>mbcrc.o</c:v>
+                  <c:v>stm32f10x_gpio.o</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>timer.o</c:v>
+                  <c:v>board.o</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>scheduler.o</c:v>
+                  <c:v>stm32f10x_rcc.o</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>stm32f10x_usart.o</c:v>
+                  <c:v>system_stm32f10x.o</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>mb.o</c:v>
+                  <c:v>startup_stm32f10x_md.o</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>user_flash.o</c:v>
+                  <c:v>object.o</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>mbfuncholding.o</c:v>
+                  <c:v>at_task.o</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>stm32f10x_dma.o</c:v>
+                  <c:v>context_rvds.o</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>mallocr.o</c:v>
+                  <c:v>components.o</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>stm32f10x_i2c.o</c:v>
+                  <c:v>dmul.o</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>dadd.o</c:v>
+                  <c:v>gpio.o</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>board.o</c:v>
+                  <c:v>ddiv.o</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>mbfunccoils.o</c:v>
+                  <c:v>sys.o</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>stm32f10x_rcc.o</c:v>
+                  <c:v>depilogue.o</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>system_stm32f10x.o</c:v>
+                  <c:v>strtod.o</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>startup_stm32f10x_md.o</c:v>
+                  <c:v>tim.o</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>tim.o</c:v>
+                  <c:v>_strtoul.o</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>object.o</c:v>
+                  <c:v>dma_stm32f10x.o</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>at_task.o</c:v>
+                  <c:v>ctype_o.o</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>ef_port.o</c:v>
+                  <c:v>misc.o</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>context_rvds.o</c:v>
+                  <c:v>strtol.o</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>mbrtu.o</c:v>
+                  <c:v>fepilogue.o</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>components.o</c:v>
+                  <c:v>uldiv.o</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>sys.o</c:v>
+                  <c:v>cpuport.o</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>__dczerorl2.o</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>idle.o</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>clock.o</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>_sgetc.o</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>dfixi.o</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>dcmpeq.o</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>d2f.o</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>__0sscanf.o</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>irq.o</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>dcmple.o</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>dcmpge.o</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>dfixul.o</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>cdrcmple.o</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>init.o</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>uidiv.o</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>scanf_char.o</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>strstr.o</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>memseta.o</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>memcpya.o</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>llsshr.o</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>llushr.o</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>m_ws.l</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>strncmp.o</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>llshl.o</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>handlers.o</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>strtod.o</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>stm32f10x_tim.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>easyflash.o</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>dmul.o</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>ddiv.o</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>stm32f10x_gpio.o</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>myspi.o</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>gpio.o</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>depilogue.o</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>strtod.o</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>_strtoul.o</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>myiic.o</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>ctype_o.o</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>mbfuncdisc.o</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>misc.o</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>strtol.o</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>fepilogue.o</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>stm32f10x_spi.o</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>mbutils.o</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>uldiv.o</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>mbfuncinput.o</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>cpuport.o</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>__dczerorl2.o</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>portevent.o</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>idle.o</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>clock.o</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>_sgetc.o</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>dfixi.o</c:v>
-                </c:pt>
                 <c:pt idx="72">
-                  <c:v>d2f.o</c:v>
+                  <c:v>strcmp.o</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>irq.o</c:v>
+                  <c:v>_chval.o</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>dcmple.o</c:v>
+                  <c:v>dfltui.o</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>dcmpge.o</c:v>
+                  <c:v>memcmp.o</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>dfixul.o</c:v>
+                  <c:v>atoi.o</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>cdrcmple.o</c:v>
+                  <c:v>dfltul.o</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>init.o</c:v>
+                  <c:v>strncpy.o</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>portserial.o</c:v>
+                  <c:v>strrchr.o</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>uidiv.o</c:v>
+                  <c:v>strchr.o</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>mbfuncother.o</c:v>
+                  <c:v>isspace_o.o</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>strstr.o</c:v>
+                  <c:v>strlen.o</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>memseta.o</c:v>
+                  <c:v>tolower.o</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>memcpya.o</c:v>
+                  <c:v>errno.o</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>llsshr.o</c:v>
+                  <c:v>stm32f10x_it.o</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>llushr.o</c:v>
+                  <c:v>main.o</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>m_ws.l</c:v>
+                  <c:v>mvars.o</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>strncmp.o</c:v>
+                  <c:v>entry9a.o</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>llshl.o</c:v>
+                  <c:v>entry2.o</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>handlers.o</c:v>
+                  <c:v>entry5.o</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>strtod.o</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>strcmp.o</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>_chval.o</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>memcmp.o</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>atoi.o</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>dfltul.o</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>strncpy.o</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>strrchr.o</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>strchr.o</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>isspace_o.o</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>strlen.o</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>tolower.o</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>errno.o</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>stm32f10x_it.o</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>main.o</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>mvars.o</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>entry9a.o</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>entry2.o</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>stdout.o</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>entry5.o</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>porttimer.o</c:v>
-                </c:pt>
-                <c:pt idx="112">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -1092,347 +897,284 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$115</c:f>
+              <c:f>flash_percent!$B$3:$B$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="113"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
-                  <c:v>11.0802812576294</c:v>
+                  <c:v>15.67914199829102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.49657344818115</c:v>
+                  <c:v>14.31824111938477</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.660858154296875</c:v>
+                  <c:v>11.9183464050293</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.54098653793335</c:v>
+                  <c:v>6.286312580108643</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.385331153869629</c:v>
+                  <c:v>5.451452732086182</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.827003002166748</c:v>
+                  <c:v>3.946610927581787</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.118094921112061</c:v>
+                  <c:v>2.82648515701294</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.304288864135742</c:v>
+                  <c:v>2.313530445098877</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.113103866577148</c:v>
+                  <c:v>2.29782772064209</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.571694374084473</c:v>
+                  <c:v>2.287359237670898</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.412655353546143</c:v>
+                  <c:v>2.12509822845459</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.253616333007813</c:v>
+                  <c:v>2.098927021026611</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.02013373374939</c:v>
+                  <c:v>2.020413398742676</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.827256560325623</c:v>
+                  <c:v>1.455116510391235</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.810337543487549</c:v>
+                  <c:v>1.397539854049683</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.495643377304077</c:v>
+                  <c:v>1.360900282859802</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.485491871833801</c:v>
+                  <c:v>1.287621021270752</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.478724360466003</c:v>
+                  <c:v>1.256215691566467</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.306150078773499</c:v>
+                  <c:v>0.9735671281814575</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.285847187042236</c:v>
+                  <c:v>0.9421617388725281</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.106505393981934</c:v>
+                  <c:v>0.8741167187690735</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9846882820129395</c:v>
+                  <c:v>0.8531798124313355</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9406987428665161</c:v>
+                  <c:v>0.8479455709457398</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9034768342971802</c:v>
+                  <c:v>0.7327924370765686</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.879790186882019</c:v>
+                  <c:v>0.7118555307388306</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7951949834823608</c:v>
+                  <c:v>0.7118555307388306</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7664326429367065</c:v>
+                  <c:v>0.6647474765777588</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.6936807632446289</c:v>
+                  <c:v>0.643810510635376</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.6293883919715881</c:v>
+                  <c:v>0.6385762691497803</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6090855002403259</c:v>
+                  <c:v>0.6202564835548401</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5989341139793396</c:v>
+                  <c:v>0.5967024564743042</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5650960206985474</c:v>
+                  <c:v>0.5914682149887085</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5481769442558289</c:v>
+                  <c:v>0.5809997320175171</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5143389105796814</c:v>
+                  <c:v>0.5705312490463257</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4737331867218018</c:v>
+                  <c:v>0.4867835640907288</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4601979553699493</c:v>
+                  <c:v>0.4396754801273346</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4601979553699493</c:v>
+                  <c:v>0.421355664730072</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4483546316623688</c:v>
+                  <c:v>0.4135043323040009</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4297436773777008</c:v>
+                  <c:v>0.3978016078472138</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4263598620891571</c:v>
+                  <c:v>0.3690133392810822</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4128246307373047</c:v>
+                  <c:v>0.2983512282371521</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.4128246307373047</c:v>
+                  <c:v>0.2931169867515564</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.402673214673996</c:v>
+                  <c:v>0.2878827452659607</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.4009813070297241</c:v>
+                  <c:v>0.2564773559570313</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3959055840969086</c:v>
+                  <c:v>0.2512431442737579</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3959055840969086</c:v>
+                  <c:v>0.2250719666481018</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3942136764526367</c:v>
+                  <c:v>0.2041350454092026</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3857541680335999</c:v>
+                  <c:v>0.1831981092691422</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.3756027519702911</c:v>
+                  <c:v>0.1674954146146774</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.3688351213932037</c:v>
+                  <c:v>0.1622611880302429</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.3620675206184387</c:v>
+                  <c:v>0.1465584933757782</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.3485322594642639</c:v>
+                  <c:v>0.1465584933757782</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.3146941959857941</c:v>
+                  <c:v>0.1465584933757782</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2842399179935455</c:v>
+                  <c:v>0.1465584933757782</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2673208713531494</c:v>
+                  <c:v>0.1413242667913437</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2436342090368271</c:v>
+                  <c:v>0.1413242667913437</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2385585010051727</c:v>
+                  <c:v>0.125621572136879</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1962608844041824</c:v>
+                  <c:v>0.125621572136879</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1928770840167999</c:v>
+                  <c:v>0.125621572136879</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1894932687282562</c:v>
+                  <c:v>0.1151531040668488</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1861094683408737</c:v>
+                  <c:v>0.1046846359968185</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.18272565305233</c:v>
+                  <c:v>0.09421617537736893</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1793418526649475</c:v>
+                  <c:v>0.09421617537736893</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1658066213130951</c:v>
+                  <c:v>0.09421617537736893</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1658066213130951</c:v>
+                  <c:v>0.09421617537736893</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1624228060245514</c:v>
+                  <c:v>0.08374770730733872</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1455037593841553</c:v>
+                  <c:v>0.07851348072290421</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1421199589967728</c:v>
+                  <c:v>0.07851348072290421</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1319685280323029</c:v>
+                  <c:v>0.07851348072290421</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1184332966804504</c:v>
+                  <c:v>0.07851348072290421</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1082818731665611</c:v>
+                  <c:v>0.07851348072290421</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.104898065328598</c:v>
+                  <c:v>0.07851348072290421</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.09474663436412811</c:v>
+                  <c:v>0.0732792466878891</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.09474663436412811</c:v>
+                  <c:v>0.0732792466878891</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.09136282652616501</c:v>
+                  <c:v>0.06804501265287399</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.09136282652616501</c:v>
+                  <c:v>0.06804501265287399</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0812114030122757</c:v>
+                  <c:v>0.06804501265287399</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.0812114030122757</c:v>
+                  <c:v>0.06281078606843948</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0812114030122757</c:v>
+                  <c:v>0.06281078606843948</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0812114030122757</c:v>
+                  <c:v>0.05757655203342438</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.07444378733634949</c:v>
+                  <c:v>0.05234231799840927</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.06429236382246018</c:v>
+                  <c:v>0.04710808768868446</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.06090855225920677</c:v>
+                  <c:v>0.03663962334394455</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.06090855225920677</c:v>
+                  <c:v>0.03140539303421974</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.06090855225920677</c:v>
+                  <c:v>0.03140539303421974</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.06090855225920677</c:v>
+                  <c:v>0.03140539303421974</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.05414093658328056</c:v>
+                  <c:v>0.02617115899920464</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.05075712874531746</c:v>
+                  <c:v>0.02093692682683468</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.05075712874531746</c:v>
+                  <c:v>0.02093692682683468</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.05075712874531746</c:v>
+                  <c:v>0.02093692682683468</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.05075712874531746</c:v>
+                  <c:v>0.01046846341341734</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.05075712874531746</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.04737331718206406</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.04737331718206406</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.04398950934410095</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.04398950934410095</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.04060570150613785</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.04060570150613785</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.03722189366817474</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.03383808583021164</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.03045427612960339</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.02368665859103203</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.02030285075306892</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.02030285075306892</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.02030285075306892</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.01691904291510582</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.01353523414582014</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.01353523414582014</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.01353523414582014</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.00676761707291007</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.00676761707291007</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.00676761707291007</c:v>
-                </c:pt>
-                <c:pt idx="112">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1537,8 +1279,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H115" totalsRowCount="1">
-  <autoFilter ref="A2:H114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H94" totalsRowCount="1">
+  <autoFilter ref="A2:H93"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1554,8 +1296,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H115" totalsRowCount="1">
-  <autoFilter ref="A2:H114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H94" totalsRowCount="1">
+  <autoFilter ref="A2:H93"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1855,7 +1597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1871,28 +1613,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1900,25 +1642,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>22.64349174499512</v>
+        <v>34.01874542236328</v>
       </c>
       <c r="C3" s="1">
-        <v>4312</v>
+        <v>4864</v>
       </c>
       <c r="D3" s="1">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="E3" s="1">
-        <v>252</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>4312</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1926,25 +1668,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>16.13191223144531</v>
+        <v>22.99622344970703</v>
       </c>
       <c r="C4" s="1">
-        <v>3072</v>
+        <v>3288</v>
       </c>
       <c r="D4" s="1">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="E4" s="1">
-        <v>36</v>
+        <v>246</v>
       </c>
       <c r="F4" s="1">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>3072</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1952,25 +1694,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>9.410282135009766</v>
+        <v>14.06490421295166</v>
       </c>
       <c r="C5" s="1">
-        <v>1792</v>
+        <v>2011</v>
       </c>
       <c r="D5" s="1">
-        <v>760</v>
+        <v>2083</v>
       </c>
       <c r="E5" s="1">
-        <v>760</v>
+        <v>1102</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="H5" s="1">
-        <v>1792</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1978,25 +1720,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>9.074200630187988</v>
+        <v>12.68708896636963</v>
       </c>
       <c r="C6" s="1">
-        <v>1728</v>
+        <v>1814</v>
       </c>
       <c r="D6" s="1">
-        <v>1332</v>
+        <v>4554</v>
       </c>
       <c r="E6" s="1">
-        <v>1332</v>
+        <v>2658</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1557</v>
       </c>
       <c r="H6" s="1">
-        <v>1728</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2004,25 +1746,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>8.512313842773438</v>
+        <v>8.057070732116699</v>
       </c>
       <c r="C7" s="1">
-        <v>1621</v>
+        <v>1152</v>
       </c>
       <c r="D7" s="1">
-        <v>1953</v>
+        <v>237</v>
       </c>
       <c r="E7" s="1">
-        <v>1164</v>
+        <v>216</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1">
-        <v>789</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>832</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2030,25 +1772,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>7.005198955535889</v>
+        <v>2.769618034362793</v>
       </c>
       <c r="C8" s="1">
-        <v>1334</v>
+        <v>396</v>
       </c>
       <c r="D8" s="1">
-        <v>453</v>
+        <v>226</v>
       </c>
       <c r="E8" s="1">
-        <v>340</v>
+        <v>226</v>
       </c>
       <c r="F8" s="1">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>1268</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2056,25 +1798,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>6.637609481811523</v>
+        <v>1.923345923423767</v>
       </c>
       <c r="C9" s="1">
-        <v>1264</v>
+        <v>275</v>
       </c>
       <c r="D9" s="1">
-        <v>3183</v>
+        <v>534</v>
       </c>
       <c r="E9" s="1">
-        <v>2054</v>
+        <v>534</v>
       </c>
       <c r="F9" s="1">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>816</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>448</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2082,25 +1824,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>6.049467086791992</v>
+        <v>1.790460228919983</v>
       </c>
       <c r="C10" s="1">
-        <v>1152</v>
+        <v>256</v>
       </c>
       <c r="D10" s="1">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="F10" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>1152</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2108,25 +1850,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>3.014230966567993</v>
+        <v>0.7833263278007507</v>
       </c>
       <c r="C11" s="1">
-        <v>574</v>
+        <v>112</v>
       </c>
       <c r="D11" s="1">
-        <v>470</v>
+        <v>254</v>
       </c>
       <c r="E11" s="1">
-        <v>342</v>
+        <v>142</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="H11" s="1">
-        <v>446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2134,16 +1876,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>2.079504251480103</v>
+        <v>0.3357113003730774</v>
       </c>
       <c r="C12" s="1">
-        <v>396</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2152,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>396</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2160,25 +1902,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>1.444100141525269</v>
+        <v>0.1398797035217285</v>
       </c>
       <c r="C13" s="1">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1">
-        <v>534</v>
+        <v>5471</v>
       </c>
       <c r="E13" s="1">
-        <v>534</v>
+        <v>5440</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H13" s="1">
-        <v>275</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2186,25 +1928,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>1.407341241836548</v>
+        <v>0.1119037643074989</v>
       </c>
       <c r="C14" s="1">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1">
-        <v>654</v>
+        <v>96</v>
       </c>
       <c r="E14" s="1">
-        <v>590</v>
+        <v>96</v>
       </c>
       <c r="F14" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>256</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2212,25 +1954,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>1.386336207389832</v>
+        <v>0.08392782509326935</v>
       </c>
       <c r="C15" s="1">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1">
-        <v>238</v>
+        <v>5991</v>
       </c>
       <c r="E15" s="1">
-        <v>238</v>
+        <v>5846</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H15" s="1">
-        <v>264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2238,16 +1980,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>1.344326019287109</v>
+        <v>0.08392782509326935</v>
       </c>
       <c r="C16" s="1">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1">
-        <v>78</v>
+        <v>556</v>
       </c>
       <c r="E16" s="1">
-        <v>78</v>
+        <v>556</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2256,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>256</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2264,25 +2006,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>1.323320865631104</v>
+        <v>0.05595188215374947</v>
       </c>
       <c r="C17" s="1">
-        <v>252</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1">
-        <v>6549</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1">
-        <v>6374</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H17" s="1">
-        <v>252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2290,25 +2032,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.6721630096435547</v>
+        <v>0.02797594107687473</v>
       </c>
       <c r="C18" s="1">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18" s="1">
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2316,22 +2058,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.6091477274894714</v>
+        <v>0.02797594107687473</v>
       </c>
       <c r="C19" s="1">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1">
-        <v>6204</v>
+        <v>272</v>
       </c>
       <c r="E19" s="1">
-        <v>4876</v>
+        <v>268</v>
       </c>
       <c r="F19" s="1">
-        <v>1212</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -2342,25 +2084,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.5881426334381104</v>
+        <v>0.02797594107687473</v>
       </c>
       <c r="C20" s="1">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1">
-        <v>254</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2368,25 +2110,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.1785432994365692</v>
+        <v>0.006993985269218683</v>
       </c>
       <c r="C21" s="1">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="E21" s="1">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2394,368 +2136,56 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.1050254702568054</v>
+        <v>0.006993985269218683</v>
       </c>
       <c r="C22" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>2853</v>
+        <v>56</v>
       </c>
       <c r="E22" s="1">
-        <v>2822</v>
+        <v>56</v>
       </c>
       <c r="F22" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.08402037620544434</v>
-      </c>
-      <c r="C23" s="1">
-        <v>16</v>
-      </c>
-      <c r="D23" s="1">
-        <v>5119</v>
-      </c>
-      <c r="E23" s="1">
-        <v>4970</v>
-      </c>
-      <c r="F23" s="1">
-        <v>133</v>
-      </c>
-      <c r="G23" s="1">
-        <v>16</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.08402037620544434</v>
-      </c>
-      <c r="C24" s="1">
-        <v>16</v>
-      </c>
-      <c r="D24" s="1">
-        <v>96</v>
-      </c>
-      <c r="E24" s="1">
-        <v>96</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.06301528215408325</v>
-      </c>
-      <c r="C25" s="1">
-        <v>12</v>
-      </c>
-      <c r="D25" s="1">
-        <v>556</v>
-      </c>
-      <c r="E25" s="1">
-        <v>556</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.04201018810272217</v>
-      </c>
-      <c r="C26" s="1">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1">
-        <v>8</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
-        <v>8</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.02100509405136108</v>
-      </c>
-      <c r="C27" s="1">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>4</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.02100509405136108</v>
-      </c>
-      <c r="C28" s="1">
-        <v>4</v>
-      </c>
-      <c r="D28" s="1">
-        <v>12</v>
-      </c>
-      <c r="E28" s="1">
-        <v>8</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>4</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.02100509405136108</v>
-      </c>
-      <c r="C29" s="1">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1">
-        <v>272</v>
-      </c>
-      <c r="E29" s="1">
-        <v>268</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
-        <v>4</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.02100509405136108</v>
-      </c>
-      <c r="C30" s="1">
-        <v>4</v>
-      </c>
-      <c r="D30" s="1">
-        <v>70</v>
-      </c>
-      <c r="E30" s="1">
-        <v>70</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.01050254702568054</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1">
-        <v>84</v>
-      </c>
-      <c r="E31" s="1">
-        <v>84</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2">
-        <v>0.005251273512840271</v>
-      </c>
-      <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="1">
-        <v>265</v>
-      </c>
-      <c r="E32" s="1">
-        <v>260</v>
-      </c>
-      <c r="F32" s="1">
-        <v>5</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2">
-        <v>0.005251273512840271</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
-        <v>56</v>
-      </c>
-      <c r="E33" s="1">
-        <v>56</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0.005251273512840271</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>233</v>
-      </c>
-      <c r="E34" s="1">
-        <v>160</v>
-      </c>
-      <c r="F34" s="1">
-        <v>73</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" t="s">
-        <v>113</v>
-      </c>
-      <c r="B115">
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C115">
+      <c r="C94">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D115">
+      <c r="D94">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E115">
+      <c r="E94">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F115">
+      <c r="F94">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G115">
+      <c r="G94">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H115">
+      <c r="H94">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -2771,7 +2201,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2787,126 +2217,126 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>11.0802812576294</v>
+        <v>15.67914199829102</v>
       </c>
       <c r="C3" s="1">
-        <v>6549</v>
+        <v>5991</v>
       </c>
       <c r="D3" s="1">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1">
-        <v>6374</v>
+        <v>5846</v>
       </c>
       <c r="F3" s="1">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1">
-        <v>252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2">
-        <v>10.49657344818115</v>
+        <v>14.31824111938477</v>
       </c>
       <c r="C4" s="1">
-        <v>6204</v>
+        <v>5471</v>
       </c>
       <c r="D4" s="1">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1">
-        <v>4876</v>
+        <v>5440</v>
       </c>
       <c r="F4" s="1">
-        <v>1212</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>8.660858154296875</v>
+        <v>11.9183464050293</v>
       </c>
       <c r="C5" s="1">
-        <v>5119</v>
+        <v>4554</v>
       </c>
       <c r="D5" s="1">
-        <v>16</v>
+        <v>1814</v>
       </c>
       <c r="E5" s="1">
-        <v>4970</v>
+        <v>2658</v>
       </c>
       <c r="F5" s="1">
-        <v>133</v>
+        <v>339</v>
       </c>
       <c r="G5" s="1">
-        <v>16</v>
+        <v>1557</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
-        <v>5.54098653793335</v>
+        <v>6.286312580108643</v>
       </c>
       <c r="C6" s="1">
-        <v>3275</v>
+        <v>2402</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1684</v>
+        <v>2402</v>
       </c>
       <c r="F6" s="1">
-        <v>1591</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -2917,71 +2347,71 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>5.385331153869629</v>
+        <v>5.451452732086182</v>
       </c>
       <c r="C7" s="1">
-        <v>3183</v>
+        <v>2083</v>
       </c>
       <c r="D7" s="1">
-        <v>1264</v>
+        <v>2011</v>
       </c>
       <c r="E7" s="1">
-        <v>2054</v>
+        <v>1102</v>
       </c>
       <c r="F7" s="1">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>816</v>
+        <v>981</v>
       </c>
       <c r="H7" s="1">
-        <v>448</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>4.827003002166748</v>
+        <v>3.946610927581787</v>
       </c>
       <c r="C8" s="1">
-        <v>2853</v>
+        <v>1508</v>
       </c>
       <c r="D8" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>2822</v>
+        <v>1508</v>
       </c>
       <c r="F8" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>4.118094921112061</v>
+        <v>2.82648515701294</v>
       </c>
       <c r="C9" s="1">
-        <v>2434</v>
+        <v>1080</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>2434</v>
+        <v>1080</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2995,48 +2425,48 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2">
-        <v>3.304288864135742</v>
+        <v>2.313530445098877</v>
       </c>
       <c r="C10" s="1">
-        <v>1953</v>
+        <v>884</v>
       </c>
       <c r="D10" s="1">
-        <v>1621</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1164</v>
+        <v>884</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>789</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2">
-        <v>3.113103866577148</v>
+        <v>2.29782772064209</v>
       </c>
       <c r="C11" s="1">
-        <v>1840</v>
+        <v>878</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1584</v>
+        <v>878</v>
       </c>
       <c r="F11" s="1">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -3047,22 +2477,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2">
-        <v>2.571694374084473</v>
+        <v>2.287359237670898</v>
       </c>
       <c r="C12" s="1">
-        <v>1520</v>
+        <v>874</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="F12" s="1">
-        <v>1520</v>
+        <v>192</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -3073,19 +2503,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2">
-        <v>2.412655353546143</v>
+        <v>2.12509822845459</v>
       </c>
       <c r="C13" s="1">
-        <v>1426</v>
+        <v>812</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1426</v>
+        <v>812</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3099,19 +2529,19 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2">
-        <v>2.253616333007813</v>
+        <v>2.098927021026611</v>
       </c>
       <c r="C14" s="1">
-        <v>1332</v>
+        <v>802</v>
       </c>
       <c r="D14" s="1">
-        <v>1728</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1332</v>
+        <v>802</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3120,27 +2550,27 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>1728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2">
-        <v>2.02013373374939</v>
+        <v>2.020413398742676</v>
       </c>
       <c r="C15" s="1">
-        <v>1194</v>
+        <v>772</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1194</v>
+        <v>696</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -3151,19 +2581,19 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>1.827256560325623</v>
+        <v>1.455116510391235</v>
       </c>
       <c r="C16" s="1">
-        <v>1080</v>
+        <v>556</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1">
-        <v>1080</v>
+        <v>556</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3172,50 +2602,50 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2">
-        <v>1.810337543487549</v>
+        <v>1.397539854049683</v>
       </c>
       <c r="C17" s="1">
-        <v>1070</v>
+        <v>534</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="E17" s="1">
-        <v>46</v>
+        <v>534</v>
       </c>
       <c r="F17" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2">
-        <v>1.495643377304077</v>
+        <v>1.360900282859802</v>
       </c>
       <c r="C18" s="1">
-        <v>884</v>
+        <v>520</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>884</v>
+        <v>520</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3229,22 +2659,22 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2">
-        <v>1.485491871833801</v>
+        <v>1.287621021270752</v>
       </c>
       <c r="C19" s="1">
-        <v>878</v>
+        <v>492</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>878</v>
+        <v>236</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -3255,22 +2685,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2">
-        <v>1.478724360466003</v>
+        <v>1.256215691566467</v>
       </c>
       <c r="C20" s="1">
-        <v>874</v>
+        <v>480</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>682</v>
+        <v>474</v>
       </c>
       <c r="F20" s="1">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -3281,22 +2711,22 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2">
-        <v>1.306150078773499</v>
+        <v>0.9735671281814575</v>
       </c>
       <c r="C21" s="1">
-        <v>772</v>
+        <v>372</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>696</v>
+        <v>372</v>
       </c>
       <c r="F21" s="1">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -3307,19 +2737,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2">
-        <v>1.285847187042236</v>
+        <v>0.9421617388725281</v>
       </c>
       <c r="C22" s="1">
-        <v>760</v>
+        <v>360</v>
       </c>
       <c r="D22" s="1">
-        <v>1792</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>760</v>
+        <v>360</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3328,53 +2758,53 @@
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>1792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2">
-        <v>1.106505393981934</v>
+        <v>0.8741167187690735</v>
       </c>
       <c r="C23" s="1">
-        <v>654</v>
+        <v>334</v>
       </c>
       <c r="D23" s="1">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>590</v>
+        <v>334</v>
       </c>
       <c r="F23" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9846882820129395</v>
+        <v>0.8531798124313355</v>
       </c>
       <c r="C24" s="1">
-        <v>582</v>
+        <v>326</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>70</v>
+        <v>326</v>
       </c>
       <c r="F24" s="1">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -3385,19 +2815,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9406987428665161</v>
+        <v>0.8479455709457398</v>
       </c>
       <c r="C25" s="1">
-        <v>556</v>
+        <v>324</v>
       </c>
       <c r="D25" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>556</v>
+        <v>324</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -3406,56 +2836,56 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9034768342971802</v>
+        <v>0.7327924370765686</v>
       </c>
       <c r="C26" s="1">
-        <v>534</v>
+        <v>280</v>
       </c>
       <c r="D26" s="1">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>534</v>
+        <v>260</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B27" s="2">
-        <v>0.879790186882019</v>
+        <v>0.7118555307388306</v>
       </c>
       <c r="C27" s="1">
-        <v>520</v>
+        <v>272</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27" s="1">
-        <v>520</v>
+        <v>268</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -3463,71 +2893,71 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B28" s="2">
-        <v>0.7951949834823608</v>
+        <v>0.7118555307388306</v>
       </c>
       <c r="C28" s="1">
-        <v>470</v>
+        <v>272</v>
       </c>
       <c r="D28" s="1">
-        <v>574</v>
+        <v>4864</v>
       </c>
       <c r="E28" s="1">
-        <v>342</v>
+        <v>36</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="G28" s="1">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>446</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7664326429367065</v>
+        <v>0.6647474765777588</v>
       </c>
       <c r="C29" s="1">
-        <v>453</v>
+        <v>254</v>
       </c>
       <c r="D29" s="1">
-        <v>1334</v>
+        <v>112</v>
       </c>
       <c r="E29" s="1">
-        <v>340</v>
+        <v>142</v>
       </c>
       <c r="F29" s="1">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="H29" s="1">
-        <v>1268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B30" s="2">
-        <v>0.6936807632446289</v>
+        <v>0.643810510635376</v>
       </c>
       <c r="C30" s="1">
-        <v>410</v>
+        <v>246</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>3288</v>
       </c>
       <c r="E30" s="1">
-        <v>410</v>
+        <v>246</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -3536,24 +2966,24 @@
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2">
-        <v>0.6293883919715881</v>
+        <v>0.6385762691497803</v>
       </c>
       <c r="C31" s="1">
-        <v>372</v>
+        <v>244</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>372</v>
+        <v>244</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -3567,45 +2997,45 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6090855002403259</v>
+        <v>0.6202564835548401</v>
       </c>
       <c r="C32" s="1">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="E32" s="1">
-        <v>360</v>
+        <v>216</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>0</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2">
-        <v>0.5989341139793396</v>
+        <v>0.5967024564743042</v>
       </c>
       <c r="C33" s="1">
-        <v>354</v>
+        <v>228</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>354</v>
+        <v>228</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -3619,19 +3049,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B34" s="2">
-        <v>0.5650960206985474</v>
+        <v>0.5914682149887085</v>
       </c>
       <c r="C34" s="1">
-        <v>334</v>
+        <v>226</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="E34" s="1">
-        <v>334</v>
+        <v>226</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -3640,24 +3070,24 @@
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2">
-        <v>0.5481769442558289</v>
+        <v>0.5809997320175171</v>
       </c>
       <c r="C35" s="1">
-        <v>324</v>
+        <v>222</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>324</v>
+        <v>222</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -3671,22 +3101,22 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2">
-        <v>0.5143389105796814</v>
+        <v>0.5705312490463257</v>
       </c>
       <c r="C36" s="1">
-        <v>304</v>
+        <v>218</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -3697,22 +3127,22 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2">
-        <v>0.4737331867218018</v>
+        <v>0.4867835640907288</v>
       </c>
       <c r="C37" s="1">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="F37" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -3723,25 +3153,25 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4601979553699493</v>
+        <v>0.4396754801273346</v>
       </c>
       <c r="C38" s="1">
-        <v>272</v>
+        <v>168</v>
       </c>
       <c r="D38" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -3749,77 +3179,77 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4601979553699493</v>
+        <v>0.421355664730072</v>
       </c>
       <c r="C39" s="1">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c r="D39" s="1">
-        <v>3072</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="F39" s="1">
-        <v>236</v>
+        <v>5</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>3072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4483546316623688</v>
+        <v>0.4135043323040009</v>
       </c>
       <c r="C40" s="1">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="D40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>260</v>
+        <v>158</v>
       </c>
       <c r="F40" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4297436773777008</v>
+        <v>0.3978016078472138</v>
       </c>
       <c r="C41" s="1">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="D41" s="1">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -3827,45 +3257,45 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4263598620891571</v>
+        <v>0.3690133392810822</v>
       </c>
       <c r="C42" s="1">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="D42" s="1">
-        <v>4312</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>252</v>
+        <v>8</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>4312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4128246307373047</v>
+        <v>0.2983512282371521</v>
       </c>
       <c r="C43" s="1">
-        <v>244</v>
+        <v>114</v>
       </c>
       <c r="D43" s="1">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>244</v>
+        <v>114</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -3874,24 +3304,24 @@
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2">
-        <v>0.4128246307373047</v>
+        <v>0.2931169867515564</v>
       </c>
       <c r="C44" s="1">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -3905,19 +3335,19 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2">
-        <v>0.402673214673996</v>
+        <v>0.2878827452659607</v>
       </c>
       <c r="C45" s="1">
-        <v>238</v>
+        <v>110</v>
       </c>
       <c r="D45" s="1">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>238</v>
+        <v>110</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -3926,76 +3356,76 @@
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <v>264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2">
-        <v>0.4009813070297241</v>
+        <v>0.2564773559570313</v>
       </c>
       <c r="C46" s="1">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="D46" s="1">
-        <v>1152</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>216</v>
+        <v>98</v>
       </c>
       <c r="F46" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>1152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3959055840969086</v>
+        <v>0.2512431442737579</v>
       </c>
       <c r="C47" s="1">
-        <v>234</v>
+        <v>96</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E47" s="1">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="F47" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2">
-        <v>0.3959055840969086</v>
+        <v>0.2250719666481018</v>
       </c>
       <c r="C48" s="1">
-        <v>234</v>
+        <v>86</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>234</v>
+        <v>86</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -4009,45 +3439,45 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3942136764526367</v>
+        <v>0.2041350454092026</v>
       </c>
       <c r="C49" s="1">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="D49" s="1">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="E49" s="1">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="F49" s="1">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <v>1</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B50" s="2">
-        <v>0.3857541680335999</v>
+        <v>0.1831981092691422</v>
       </c>
       <c r="C50" s="1">
-        <v>228</v>
+        <v>70</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E50" s="1">
-        <v>228</v>
+        <v>70</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -4056,24 +3486,24 @@
         <v>0</v>
       </c>
       <c r="H50" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>0.3756027519702911</v>
+        <v>0.1674954146146774</v>
       </c>
       <c r="C51" s="1">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -4087,19 +3517,19 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>0.3688351213932037</v>
+        <v>0.1622611880302429</v>
       </c>
       <c r="C52" s="1">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -4113,19 +3543,19 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>0.3620675206184387</v>
+        <v>0.1465584933757782</v>
       </c>
       <c r="C53" s="1">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -4139,19 +3569,19 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>0.3485322594642639</v>
+        <v>0.1465584933757782</v>
       </c>
       <c r="C54" s="1">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="D54" s="1">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -4160,24 +3590,24 @@
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <v>396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>0.3146941959857941</v>
+        <v>0.1465584933757782</v>
       </c>
       <c r="C55" s="1">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -4191,19 +3621,19 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2842399179935455</v>
+        <v>0.1465584933757782</v>
       </c>
       <c r="C56" s="1">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -4212,24 +3642,24 @@
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2673208713531494</v>
+        <v>0.1413242667913437</v>
       </c>
       <c r="C57" s="1">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -4243,19 +3673,19 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2436342090368271</v>
+        <v>0.1413242667913437</v>
       </c>
       <c r="C58" s="1">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -4269,22 +3699,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2385585010051727</v>
+        <v>0.125621572136879</v>
       </c>
       <c r="C59" s="1">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F59" s="1">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -4295,19 +3725,19 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1962608844041824</v>
+        <v>0.125621572136879</v>
       </c>
       <c r="C60" s="1">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -4321,19 +3751,19 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1928770840167999</v>
+        <v>0.125621572136879</v>
       </c>
       <c r="C61" s="1">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -4347,19 +3777,19 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1894932687282562</v>
+        <v>0.1151531040668488</v>
       </c>
       <c r="C62" s="1">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -4373,19 +3803,19 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1861094683408737</v>
+        <v>0.1046846359968185</v>
       </c>
       <c r="C63" s="1">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -4399,19 +3829,19 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B64" s="2">
-        <v>0.18272565305233</v>
+        <v>0.09421617537736893</v>
       </c>
       <c r="C64" s="1">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -4425,19 +3855,19 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1793418526649475</v>
+        <v>0.09421617537736893</v>
       </c>
       <c r="C65" s="1">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -4451,19 +3881,19 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1658066213130951</v>
+        <v>0.09421617537736893</v>
       </c>
       <c r="C66" s="1">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -4477,19 +3907,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1658066213130951</v>
+        <v>0.09421617537736893</v>
       </c>
       <c r="C67" s="1">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -4503,19 +3933,19 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1624228060245514</v>
+        <v>0.08374770730733872</v>
       </c>
       <c r="C68" s="1">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="D68" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -4524,24 +3954,24 @@
         <v>0</v>
       </c>
       <c r="H68" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1455037593841553</v>
+        <v>0.07851348072290421</v>
       </c>
       <c r="C69" s="1">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -4555,19 +3985,19 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1421199589967728</v>
+        <v>0.07851348072290421</v>
       </c>
       <c r="C70" s="1">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="D70" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -4576,24 +4006,24 @@
         <v>0</v>
       </c>
       <c r="H70" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1319685280323029</v>
+        <v>0.07851348072290421</v>
       </c>
       <c r="C71" s="1">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D71" s="1">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -4602,24 +4032,24 @@
         <v>0</v>
       </c>
       <c r="H71" s="1">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1184332966804504</v>
+        <v>0.07851348072290421</v>
       </c>
       <c r="C72" s="1">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D72" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -4628,24 +4058,24 @@
         <v>0</v>
       </c>
       <c r="H72" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1082818731665611</v>
+        <v>0.07851348072290421</v>
       </c>
       <c r="C73" s="1">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -4659,19 +4089,19 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>0.104898065328598</v>
+        <v>0.07851348072290421</v>
       </c>
       <c r="C74" s="1">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -4685,19 +4115,19 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B75" s="2">
-        <v>0.09474663436412811</v>
+        <v>0.0732792466878891</v>
       </c>
       <c r="C75" s="1">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -4711,19 +4141,19 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="B76" s="2">
-        <v>0.09474663436412811</v>
+        <v>0.0732792466878891</v>
       </c>
       <c r="C76" s="1">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -4732,24 +4162,24 @@
         <v>0</v>
       </c>
       <c r="H76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>0.09136282652616501</v>
+        <v>0.06804501265287399</v>
       </c>
       <c r="C77" s="1">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -4763,19 +4193,19 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>0.09136282652616501</v>
+        <v>0.06804501265287399</v>
       </c>
       <c r="C78" s="1">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -4789,19 +4219,19 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>0.0812114030122757</v>
+        <v>0.06804501265287399</v>
       </c>
       <c r="C79" s="1">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -4815,19 +4245,19 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2">
-        <v>0.0812114030122757</v>
+        <v>0.06281078606843948</v>
       </c>
       <c r="C80" s="1">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -4841,19 +4271,19 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2">
-        <v>0.0812114030122757</v>
+        <v>0.06281078606843948</v>
       </c>
       <c r="C81" s="1">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -4867,19 +4297,19 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B82" s="2">
-        <v>0.0812114030122757</v>
+        <v>0.05757655203342438</v>
       </c>
       <c r="C82" s="1">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -4893,19 +4323,19 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>0.07444378733634949</v>
+        <v>0.05234231799840927</v>
       </c>
       <c r="C83" s="1">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -4919,19 +4349,19 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="B84" s="2">
-        <v>0.06429236382246018</v>
+        <v>0.04710808768868446</v>
       </c>
       <c r="C84" s="1">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D84" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -4940,24 +4370,24 @@
         <v>0</v>
       </c>
       <c r="H84" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" s="2">
-        <v>0.06090855225920677</v>
+        <v>0.03663962334394455</v>
       </c>
       <c r="C85" s="1">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -4971,19 +4401,19 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="2">
-        <v>0.06090855225920677</v>
+        <v>0.03140539303421974</v>
       </c>
       <c r="C86" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -4997,25 +4427,25 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="B87" s="2">
-        <v>0.06090855225920677</v>
+        <v>0.03140539303421974</v>
       </c>
       <c r="C87" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D87" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E87" s="1">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
       </c>
       <c r="G87" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H87" s="1">
         <v>0</v>
@@ -5023,19 +4453,19 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>0.06090855225920677</v>
+        <v>0.03140539303421974</v>
       </c>
       <c r="C88" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -5049,19 +4479,19 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>0.05414093658328056</v>
+        <v>0.02617115899920464</v>
       </c>
       <c r="C89" s="1">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -5075,25 +4505,25 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="B90" s="2">
-        <v>0.05075712874531746</v>
+        <v>0.02093692682683468</v>
       </c>
       <c r="C90" s="1">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D90" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E90" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
       </c>
       <c r="G90" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H90" s="1">
         <v>0</v>
@@ -5101,19 +4531,19 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>0.05075712874531746</v>
+        <v>0.02093692682683468</v>
       </c>
       <c r="C91" s="1">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -5127,19 +4557,19 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>0.05075712874531746</v>
+        <v>0.02093692682683468</v>
       </c>
       <c r="C92" s="1">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -5153,19 +4583,19 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>0.05075712874531746</v>
+        <v>0.01046846341341734</v>
       </c>
       <c r="C93" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
       </c>
       <c r="E93" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
@@ -5178,580 +4608,34 @@
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B94" s="2">
-        <v>0.05075712874531746</v>
-      </c>
-      <c r="C94" s="1">
-        <v>30</v>
-      </c>
-      <c r="D94" s="1">
-        <v>0</v>
-      </c>
-      <c r="E94" s="1">
-        <v>30</v>
-      </c>
-      <c r="F94" s="1">
-        <v>0</v>
-      </c>
-      <c r="G94" s="1">
-        <v>0</v>
-      </c>
-      <c r="H94" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" s="2">
-        <v>0.04737331718206406</v>
-      </c>
-      <c r="C95" s="1">
-        <v>28</v>
-      </c>
-      <c r="D95" s="1">
-        <v>0</v>
-      </c>
-      <c r="E95" s="1">
-        <v>28</v>
-      </c>
-      <c r="F95" s="1">
-        <v>0</v>
-      </c>
-      <c r="G95" s="1">
-        <v>0</v>
-      </c>
-      <c r="H95" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" s="2">
-        <v>0.04737331718206406</v>
-      </c>
-      <c r="C96" s="1">
-        <v>28</v>
-      </c>
-      <c r="D96" s="1">
-        <v>0</v>
-      </c>
-      <c r="E96" s="1">
-        <v>28</v>
-      </c>
-      <c r="F96" s="1">
-        <v>0</v>
-      </c>
-      <c r="G96" s="1">
-        <v>0</v>
-      </c>
-      <c r="H96" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" s="2">
-        <v>0.04398950934410095</v>
-      </c>
-      <c r="C97" s="1">
-        <v>26</v>
-      </c>
-      <c r="D97" s="1">
-        <v>0</v>
-      </c>
-      <c r="E97" s="1">
-        <v>26</v>
-      </c>
-      <c r="F97" s="1">
-        <v>0</v>
-      </c>
-      <c r="G97" s="1">
-        <v>0</v>
-      </c>
-      <c r="H97" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" s="2">
-        <v>0.04398950934410095</v>
-      </c>
-      <c r="C98" s="1">
-        <v>26</v>
-      </c>
-      <c r="D98" s="1">
-        <v>0</v>
-      </c>
-      <c r="E98" s="1">
-        <v>26</v>
-      </c>
-      <c r="F98" s="1">
-        <v>0</v>
-      </c>
-      <c r="G98" s="1">
-        <v>0</v>
-      </c>
-      <c r="H98" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" s="2">
-        <v>0.04060570150613785</v>
-      </c>
-      <c r="C99" s="1">
-        <v>24</v>
-      </c>
-      <c r="D99" s="1">
-        <v>0</v>
-      </c>
-      <c r="E99" s="1">
-        <v>24</v>
-      </c>
-      <c r="F99" s="1">
-        <v>0</v>
-      </c>
-      <c r="G99" s="1">
-        <v>0</v>
-      </c>
-      <c r="H99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" s="2">
-        <v>0.04060570150613785</v>
-      </c>
-      <c r="C100" s="1">
-        <v>24</v>
-      </c>
-      <c r="D100" s="1">
-        <v>0</v>
-      </c>
-      <c r="E100" s="1">
-        <v>24</v>
-      </c>
-      <c r="F100" s="1">
-        <v>0</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0</v>
-      </c>
-      <c r="H100" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" s="2">
-        <v>0.03722189366817474</v>
-      </c>
-      <c r="C101" s="1">
-        <v>22</v>
-      </c>
-      <c r="D101" s="1">
-        <v>0</v>
-      </c>
-      <c r="E101" s="1">
-        <v>22</v>
-      </c>
-      <c r="F101" s="1">
-        <v>0</v>
-      </c>
-      <c r="G101" s="1">
-        <v>0</v>
-      </c>
-      <c r="H101" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" s="2">
-        <v>0.03383808583021164</v>
-      </c>
-      <c r="C102" s="1">
-        <v>20</v>
-      </c>
-      <c r="D102" s="1">
-        <v>0</v>
-      </c>
-      <c r="E102" s="1">
-        <v>20</v>
-      </c>
-      <c r="F102" s="1">
-        <v>0</v>
-      </c>
-      <c r="G102" s="1">
-        <v>0</v>
-      </c>
-      <c r="H102" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" s="2">
-        <v>0.03045427612960339</v>
-      </c>
-      <c r="C103" s="1">
-        <v>18</v>
-      </c>
-      <c r="D103" s="1">
-        <v>0</v>
-      </c>
-      <c r="E103" s="1">
-        <v>18</v>
-      </c>
-      <c r="F103" s="1">
-        <v>0</v>
-      </c>
-      <c r="G103" s="1">
-        <v>0</v>
-      </c>
-      <c r="H103" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" s="2">
-        <v>0.02368665859103203</v>
-      </c>
-      <c r="C104" s="1">
-        <v>14</v>
-      </c>
-      <c r="D104" s="1">
-        <v>0</v>
-      </c>
-      <c r="E104" s="1">
-        <v>14</v>
-      </c>
-      <c r="F104" s="1">
-        <v>0</v>
-      </c>
-      <c r="G104" s="1">
-        <v>0</v>
-      </c>
-      <c r="H104" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" s="2">
-        <v>0.02030285075306892</v>
-      </c>
-      <c r="C105" s="1">
-        <v>12</v>
-      </c>
-      <c r="D105" s="1">
-        <v>0</v>
-      </c>
-      <c r="E105" s="1">
-        <v>12</v>
-      </c>
-      <c r="F105" s="1">
-        <v>0</v>
-      </c>
-      <c r="G105" s="1">
-        <v>0</v>
-      </c>
-      <c r="H105" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B106" s="2">
-        <v>0.02030285075306892</v>
-      </c>
-      <c r="C106" s="1">
-        <v>12</v>
-      </c>
-      <c r="D106" s="1">
-        <v>4</v>
-      </c>
-      <c r="E106" s="1">
-        <v>8</v>
-      </c>
-      <c r="F106" s="1">
-        <v>0</v>
-      </c>
-      <c r="G106" s="1">
-        <v>4</v>
-      </c>
-      <c r="H106" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" s="2">
-        <v>0.02030285075306892</v>
-      </c>
-      <c r="C107" s="1">
-        <v>12</v>
-      </c>
-      <c r="D107" s="1">
-        <v>0</v>
-      </c>
-      <c r="E107" s="1">
-        <v>12</v>
-      </c>
-      <c r="F107" s="1">
-        <v>0</v>
-      </c>
-      <c r="G107" s="1">
-        <v>0</v>
-      </c>
-      <c r="H107" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" s="2">
-        <v>0.01691904291510582</v>
-      </c>
-      <c r="C108" s="1">
-        <v>10</v>
-      </c>
-      <c r="D108" s="1">
-        <v>0</v>
-      </c>
-      <c r="E108" s="1">
-        <v>10</v>
-      </c>
-      <c r="F108" s="1">
-        <v>0</v>
-      </c>
-      <c r="G108" s="1">
-        <v>0</v>
-      </c>
-      <c r="H108" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B109" s="2">
-        <v>0.01353523414582014</v>
-      </c>
-      <c r="C109" s="1">
-        <v>8</v>
-      </c>
-      <c r="D109" s="1">
-        <v>8</v>
-      </c>
-      <c r="E109" s="1">
-        <v>0</v>
-      </c>
-      <c r="F109" s="1">
-        <v>0</v>
-      </c>
-      <c r="G109" s="1">
-        <v>8</v>
-      </c>
-      <c r="H109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B110" s="2">
-        <v>0.01353523414582014</v>
-      </c>
-      <c r="C110" s="1">
-        <v>8</v>
-      </c>
-      <c r="D110" s="1">
-        <v>0</v>
-      </c>
-      <c r="E110" s="1">
-        <v>8</v>
-      </c>
-      <c r="F110" s="1">
-        <v>0</v>
-      </c>
-      <c r="G110" s="1">
-        <v>0</v>
-      </c>
-      <c r="H110" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B111" s="2">
-        <v>0.01353523414582014</v>
-      </c>
-      <c r="C111" s="1">
-        <v>8</v>
-      </c>
-      <c r="D111" s="1">
-        <v>0</v>
-      </c>
-      <c r="E111" s="1">
-        <v>8</v>
-      </c>
-      <c r="F111" s="1">
-        <v>0</v>
-      </c>
-      <c r="G111" s="1">
-        <v>0</v>
-      </c>
-      <c r="H111" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B112" s="2">
-        <v>0.00676761707291007</v>
-      </c>
-      <c r="C112" s="1">
-        <v>4</v>
-      </c>
-      <c r="D112" s="1">
-        <v>4</v>
-      </c>
-      <c r="E112" s="1">
-        <v>0</v>
-      </c>
-      <c r="F112" s="1">
-        <v>0</v>
-      </c>
-      <c r="G112" s="1">
-        <v>4</v>
-      </c>
-      <c r="H112" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B113" s="2">
-        <v>0.00676761707291007</v>
-      </c>
-      <c r="C113" s="1">
-        <v>4</v>
-      </c>
-      <c r="D113" s="1">
-        <v>0</v>
-      </c>
-      <c r="E113" s="1">
-        <v>4</v>
-      </c>
-      <c r="F113" s="1">
-        <v>0</v>
-      </c>
-      <c r="G113" s="1">
-        <v>0</v>
-      </c>
-      <c r="H113" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B114" s="2">
-        <v>0.00676761707291007</v>
-      </c>
-      <c r="C114" s="1">
-        <v>4</v>
-      </c>
-      <c r="D114" s="1">
-        <v>0</v>
-      </c>
-      <c r="E114" s="1">
-        <v>4</v>
-      </c>
-      <c r="F114" s="1">
-        <v>0</v>
-      </c>
-      <c r="G114" s="1">
-        <v>0</v>
-      </c>
-      <c r="H114" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" t="s">
-        <v>113</v>
-      </c>
-      <c r="B115">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C115">
+      <c r="C94">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D115">
+      <c r="D94">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E115">
+      <c r="E94">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F115">
+      <c r="F94">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G115">
+      <c r="G94">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H115">
+      <c r="H94">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
